--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>barang_bukti</t>
+          <t>barang bukti</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13/Pid.Sus/2021/PN Mtr</t>
+          <t>249/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,19 +468,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>: 1 (satu) berisi Narkotika jenis shabu netto 0,42 gram, 4 (empat) bandel klip bening, 1 (satu) buah pipet kaca dan 1 (satu) buah HP merk Nokia warna hitam</t>
+          <t>: - 1 (satu) bungkus Narkotika jenis Shabu dibungkus dengan menggunakan plastik klip dan dililit isolsi warna kuning, - 1 (satu) buku catatan peredaran narkotika, - 1 (satu) alat hisap (bong) terbuat dari botol bekas minuman teh botol ?Pucuk? pada tutupnya terdapat 2 (dua) buah lubang masing-masing terpasang pipit plastic warna merah berbentuk huruf ?L? yang salah satu pipet warna merah tersambung dengan pipet kaca.  dirampas untuk dimusnahkan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Nur Muh. Divo Putra Alias Nung terbukti bersalah secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melawan hukum ?memiliki, menyimpan, menguasai atau menyediakan Narkotika Golongan I bukan tanaman? sebagaimana dalam dakwaan alternatif kedua; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) Tahun dan denda sebesar Rp. 800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan agar masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap berada dalam tahanan; Menetapkan agar barang bukti berupa : 1 (satu) berisi Narkotika jenis shabu netto 0,42 gram, 4 (empat) bandel klip bening, 1 (satu) buah pipet kaca dan 1 (satu) buah HP merk Nokia warna hitam ; Dirampas untuk dimusnahkan; Uang tunai Rp. 370.000 (tiga ratus tujuh puluh ribu rupiah);Dikembalikan kepada Terdakwa;6. Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp 2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa Burhanudin Alias Boim Bin (alm) Fajar telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak dan melawan hukum membeli dan menjual Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kesatu Penuntut Umum ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 9 (Sembilan) tahun dan 6 (enam) bulan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 5 (lima ) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : - 1 (satu) bungkus Narkotika jenis Shabu dibungkus dengan menggunakan plastik klip dan dililit isolsi warna kuning, - 1 (satu) buku catatan peredaran narkotika, - 1 (satu) alat hisap (bong) terbuat dari botol bekas minuman teh botol ?Pucuk? pada tutupnya terdapat 2 (dua) buah lubang masing-masing terpasang pipit plastic warna merah berbentuk huruf ?L? yang salah satu pipet warna merah tersambung dengan pipet kaca.  dirampas untuk dimusnahkan ; 1 (satu) unit heandphone merek Samsung warna Hitam pelindung warna Biru berisi 1 (satu) SIM card XL 087812203428; 1 (satu) unit heandphone merek Readmi warna Hitam berisi 1 (satu) SIM card XL 087864354545; 1 (satu) unit heandphone merek Nokia warna Biru Muda berisi 2 (dua) SIM card XL (1) 087716551999 dan (2) 081943390122; 1 (satu) unit heandphone merek Samsung warna Biru berisi 1 (satu) SIM card XL 087838880109; 1 (satu) unit heandphone merek Samsung warna Gold berisi 1 (satu) SIM card Telkomsel 081237099063; 1 (satu) unit HP merek Samsung warna Hitam berpelindung Coklat Merah berisi 2 (dua) sim card terdiri dari XL 087860841786 dan Indosat 085810654553; Uang tunai sebanyak Rp.245.000,- (dua ratus empat puluh lima ribu rupiah), 1 (satu) buah dompet warna Abu merek ?Forever? didalamnya berisi uang sebanyak Rp.1.850.000,- 1 (satu) buah ATM BNI;  dirampas untuk negara ; Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14/Pid.Sus/2021/PN Mtr</t>
+          <t>251/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,19 +490,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>:   1 (satu) buah kalender yang didalamnya terdapat : 2 (dua) bungkus plastic transparan yang masing-masing berisi:   Bungkus I yang berisi 6 (enam) poket Kristal putih yang diduga narkotika jenis shabu dengan masing-masing netto 0,19 (nol koma sembilan belas) gram, 0,14 (nol koma empat belas) gram, 0,25 (nol koma dua lima) gram, 0,12 (nol koma dua belas) gram, 0,14 (nol koma empat belas) gram, 0,21 (nol koma dua satu) gram. Bungkus II yang berisi 3 (tiga) poket Kristal putih yang diduga narkotika jenis shabu dengan masing-masing berat netto 0,13 (nol koma tiga belas) gram, 0,16 (nol koma enam belas) gram, 0,09 (nol koma nol sembilan) gram.Total jumlah keseluruhan 9 (Sembilan) bingkus atau poket Narkotka jenis Shabu tersebut denganberat netto 1,43 (satu koma empat tiga) gram. b. 1 (satu) poket Narkotika Golongan I Jenis Shabu yang ditemukan di dalam saku depan sebelah kanan celana jeans pendek berwarna hitam yang dikenakan terdakwa pada saat itu, setelah ditimbang dengan netto 0,1 (nol koma satu) gram.Kemudian dari barang bukti Narkotika Jenis Shabu tersebut dengan total keseluruhan berat netto 1,53 (satu koma lima tiga) gram tersebut dirincikan 0,15 (nol koma satu lima) gram disisihkan untuk pengujian laboratorium, 1,28 (satu koma dua delapan) gram dimusnahkan ditingkat penyidikan dan sisanya 0,1 (nol koma satu) gram dijadikan sebagai barang bukti dalam persidangan sesuai dengan Berita Acara Pemusnahan Barang Bukti ter tanggal 2 Desember 2020.c. 1 (satu) buah bong dari gelas kaca dan botol plastic warna hijau yang pada ujungnya terdapat 2 (dua) buah pipet plastic yang salah satunya berisi 1 (satu ) pipet kaca warna putih.d. 1 (satu) buah korek api gas.e. 1 (satu) buah korek api gas yang berisi sumbu.f. 1 (satu) buah gunting.g. 1 (satu) buah potongan pipet plastic.h. 1 (satu) unit HP NOKIA warna putih No. XL : 087709783929. Dirampas untuk dimusnahkan. i.1 (satu) buah dompet yang didalamnya berisi uang Rp. 765.000,- (tujuh ratus enam puluh lima ribu rupiah).Dikembalikan kepada terdakwa Muzakar Rissalim Bin Idris Alias Jek. 6. Membebankan kepada Terdakwa untuk membayar biaya perkarasebesar Rp. 2.500 (dua ribu lima ratus rupiah)</t>
+          <t>: 22 (dua puluh dua) bungkus plastik bening yang berisi Narkotika Golongan I jenis sabu, setelah ditimbang diperoleh berat kotor 111,43 (seratus sebelas koma empat puluh tiga) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 98,27(sembilan puluh delapan koma dua tujuh)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M E N G A D I L I Menyatakan Terdakwa Muzakar Rissalim Bin Idris Alias Jek telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana?? tanpa hak atau melawan hukum memiliki, menyimpan, menguasai atau menyediakan Narkotika Golongan I bukan tanaman ?; Menjatuhkan pidana kepada Terdakwa Muzakar Rissalim Bin Idris Alias Jek oleh karena itu dengan pidana penjara selama 7 (Tujuh) tahun dan denda sebesar Rp 800.000.000 (delapan ratus juta rupiah),dengan ketentuan apabila denda tersebut tidak dibayar,maka diganti dengan pidana kurungan selama 6 (enam ) bulan; Menetapkan masa penahanan yang telah dijalani terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan kepadanya; Memerintahkan agar terdakwa tetap berada dalam tahanan; Menyatakan barang bukti berupa :   1 (satu) buah kalender yang didalamnya terdapat : 2 (dua) bungkus plastic transparan yang masing-masing berisi:   Bungkus I yang berisi 6 (enam) poket Kristal putih yang diduga narkotika jenis shabu dengan masing-masing netto 0,19 (nol koma sembilan belas) gram, 0,14 (nol koma empat belas) gram, 0,25 (nol koma dua lima) gram, 0,12 (nol koma dua belas) gram, 0,14 (nol koma empat belas) gram, 0,21 (nol koma dua satu) gram. Bungkus II yang berisi 3 (tiga) poket Kristal putih yang diduga narkotika jenis shabu dengan masing-masing berat netto 0,13 (nol koma tiga belas) gram, 0,16 (nol koma enam belas) gram, 0,09 (nol koma nol sembilan) gram.Total jumlah keseluruhan 9 (Sembilan) bingkus atau poket Narkotka jenis Shabu tersebut denganberat netto 1,43 (satu koma empat tiga) gram. b. 1 (satu) poket Narkotika Golongan I Jenis Shabu yang ditemukan di dalam saku depan sebelah kanan celana jeans pendek berwarna hitam yang dikenakan terdakwa pada saat itu, setelah ditimbang dengan netto 0,1 (nol koma satu) gram.Kemudian dari barang bukti Narkotika Jenis Shabu tersebut dengan total keseluruhan berat netto 1,53 (satu koma lima tiga) gram tersebut dirincikan 0,15 (nol koma satu lima) gram disisihkan untuk pengujian laboratorium, 1,28 (satu koma dua delapan) gram dimusnahkan ditingkat penyidikan dan sisanya 0,1 (nol koma satu) gram dijadikan sebagai barang bukti dalam persidangan sesuai dengan Berita Acara Pemusnahan Barang Bukti ter tanggal 2 Desember 2020.c. 1 (satu) buah bong dari gelas kaca dan botol plastic warna hijau yang pada ujungnya terdapat 2 (dua) buah pipet plastic yang salah satunya berisi 1 (satu ) pipet kaca warna putih.d. 1 (satu) buah korek api gas.e. 1 (satu) buah korek api gas yang berisi sumbu.f. 1 (satu) buah gunting.g. 1 (satu) buah potongan pipet plastic.h. 1 (satu) unit HP NOKIA warna putih No. XL : 087709783929. Dirampas untuk dimusnahkan. i.1 (satu) buah dompet yang didalamnya berisi uang Rp. 765.000,- (tujuh ratus enam puluh lima ribu rupiah).Dikembalikan kepada terdakwa Muzakar Rissalim Bin Idris Alias Jek. 6. Membebankan kepada Terdakwa untuk membayar biaya perkarasebesar Rp. 2.500 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Terdakwa Mustar Irawan Als Tedi Bin M. Amin (alm) tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak memiliki Narkotika Golongan I dalam bentuk bukan tanaman yang beratnya melebihi 5 (lima) gram, sebagaimana dalam dakwaan kedua; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp.1.000.000.000,00,- (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 22 (dua puluh dua) bungkus plastik bening yang berisi Narkotika Golongan I jenis sabu, setelah ditimbang diperoleh berat kotor 111,43 (seratus sebelas koma empat puluh tiga) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 98,27(sembilan puluh delapan koma dua tujuh); Dirampas untuk dimusnahkan;6. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>251/Pid.Sus/2024/PN Mtr</t>
+          <t>261/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,19 +512,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>: 22 (dua puluh dua) bungkus plastik bening yang berisi Narkotika Golongan I jenis sabu, setelah ditimbang diperoleh berat kotor 111,43 (seratus sebelas koma empat puluh tiga) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 98,27(sembilan puluh delapan koma dua tujuh)</t>
+          <t>: 1 (satu) buah plastic klip bening berisi kristal bening diduga narkotika jenis sabu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Mustar Irawan Als Tedi Bin M. Amin (alm) tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak memiliki Narkotika Golongan I dalam bentuk bukan tanaman yang beratnya melebihi 5 (lima) gram, sebagaimana dalam dakwaan kedua; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp.1.000.000.000,00,- (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 22 (dua puluh dua) bungkus plastik bening yang berisi Narkotika Golongan I jenis sabu, setelah ditimbang diperoleh berat kotor 111,43 (seratus sebelas koma empat puluh tiga) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 98,27(sembilan puluh delapan koma dua tujuh); Dirampas untuk dimusnahkan;6. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa Syarifudin telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak sebagai perantara jual beli Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Pertama Penuntut Umum ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar juta rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 6 (enam) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah plastic klip bening berisi kristal bening diduga narkotika jenis sabu; 1 (satu) buah pipa kaca kosong; 1 (satu) buah bong / alat hisap sabu; 1 (satu) buah gunting; 2 (dua) buah korek api gas tanpa tutup kepala; Dirampas untuk dimusnahkan  1 (satu) unit HP Android merk REALME warna SILVER Dirampas untuk negara. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>261/Pid.Sus/2024/PN Mtr</t>
+          <t>268/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,19 +534,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah plastic klip bening berisi kristal bening diduga narkotika jenis sabu</t>
+          <t>: 1. 1 (satu) buah wadah berbentuk gelas warna hitam yang didalamnya berisi 1 (satu) buah plastik klip bening didalamnya berisi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>M E N G A D I L I: Menyatakan Terdakwa Syarifudin telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak sebagai perantara jual beli Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Pertama Penuntut Umum ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar juta rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 6 (enam) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah plastic klip bening berisi kristal bening diduga narkotika jenis sabu; 1 (satu) buah pipa kaca kosong; 1 (satu) buah bong / alat hisap sabu; 1 (satu) buah gunting; 2 (dua) buah korek api gas tanpa tutup kepala; Dirampas untuk dimusnahkan  1 (satu) unit HP Android merk REALME warna SILVER Dirampas untuk negara. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa terdakwa I. Muhammad Nur dan terdakwa II. Maya Ratu Siti Chodijah Prawira Kusuma telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak dengan pemufakatan jahat memiliki dan menguasai Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kedua Penuntut Umum ; Menjatuhkan pidana terhadap Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 6 (enam) tahun dan denda sebesar Rp.800.000.000,- (delapan ratus juta rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 4 (empat) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Para Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1. 1 (satu) buah wadah berbentuk gelas warna hitam yang didalamnya berisi 1 (satu) buah plastik klip bening didalamnya berisi; - 4 (empat) poket klip bening berisi kristal bening diduga narkotika jenis sabu 3. 1 (satu) bendel plastik klip bening; 4. 2 (dua) buah pipet kaca; 5. 1 (satu) buah botol plastik merk. Narmada yang pada tutupnya terpasang pipet plastik; 6. 1 (satu) buah klip bening; 7. 1 (satu) buah jarum sumbu 8. 2 (dua) buah korek api gas tanpa tutup 9. 1 (satu) buah pipet plastik yang ujungnya diruncingkan; 10. 1 (satu) buah gunting warna hitam. 11. 1 (satu) buah HP lipat merk. samsung warna putih; Dirampas untuk dimusnahkan. 12. 1 (satu) buah HP android merk. xiomi warna rose gold; 13. 1 (satu) buah HP android merk. Samsung warna warna hitam; Dirampas untuk Negara ; Membebankan kepada Para Terdakwa untuk membayar biaya perkara masing-masing sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>268/Pid.Sus/2024/PN Mtr</t>
+          <t>299/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>: 1. 1 (satu) buah wadah berbentuk gelas warna hitam yang didalamnya berisi 1 (satu) buah plastik klip bening didalamnya berisi</t>
+          <t>: - 1 (satu) dompet warna hitam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M E N G A D I L I: Menyatakan Terdakwa terdakwa I. Muhammad Nur dan terdakwa II. Maya Ratu Siti Chodijah Prawira Kusuma telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak dengan pemufakatan jahat memiliki dan menguasai Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kedua Penuntut Umum ; Menjatuhkan pidana terhadap Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 6 (enam) tahun dan denda sebesar Rp.800.000.000,- (delapan ratus juta rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 4 (empat) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Para Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1. 1 (satu) buah wadah berbentuk gelas warna hitam yang didalamnya berisi 1 (satu) buah plastik klip bening didalamnya berisi; - 4 (empat) poket klip bening berisi kristal bening diduga narkotika jenis sabu 3. 1 (satu) bendel plastik klip bening; 4. 2 (dua) buah pipet kaca; 5. 1 (satu) buah botol plastik merk. Narmada yang pada tutupnya terpasang pipet plastik; 6. 1 (satu) buah klip bening; 7. 1 (satu) buah jarum sumbu 8. 2 (dua) buah korek api gas tanpa tutup 9. 1 (satu) buah pipet plastik yang ujungnya diruncingkan; 10. 1 (satu) buah gunting warna hitam. 11. 1 (satu) buah HP lipat merk. samsung warna putih; Dirampas untuk dimusnahkan. 12. 1 (satu) buah HP android merk. xiomi warna rose gold; 13. 1 (satu) buah HP android merk. Samsung warna warna hitam; Dirampas untuk Negara ; Membebankan kepada Para Terdakwa untuk membayar biaya perkara masing-masing sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>Menyatakan Terdakwa Sri Hikmawati Binti H. Bahraen Alias Icak tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak memiliki Narkotika Golongan I dalam bentuk buka tanaman, sebagaimana dalam dakwaan kedua; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp.1.000.000.000,00-(satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: - 1 (satu) dompet warna hitam; 1 (satu) unit ATM BCA dengan nomor 6019 0050 5808 9983; 1 (satu) unit ATM BCA dengan nomor 6019 0075 8212 0078; 1 (satu) unit HP Realme warna hijau dark dengan nomor IMEI 1 : 863874067866354 dan IMEI 2 : 863874067866347 dan nomor SIM Card : 081529629109 dan SIM Card 2 : 08176600552; Uang sejumlah Rp.2.900.000,-(dua juta sembilan ratus ribu rupiah); Dikembalikan kepada Terdakwa;Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29/Pid.Sus/2021/PN Mtr</t>
+          <t>321/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,19 +578,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>: 1 unit sepeda motor Honda Genio warna hitam dengan Nopol DR 2747 RC</t>
+          <t>:30 (tiga puluh) plastic transparan yang didalamnya berisi biji, dan daun kering jenis ganja</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa ARY FAHRIZAL tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak menguasai Narkotika Golongan I bukan tanaman sebagaimana dalam dakwaan alternatif kedua; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sejumlah Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 unit sepeda motor Honda Genio warna hitam dengan Nopol DR 2747 RC; Dikembalikan kepada Terdakwa; 1 klip plastic bening yang didalamnya terdapat satu poket plastic bening yang berisi Kristal bening Narkotika jenis shabu dengan berat brutto 0,71 gram; 1 buah celana pendek ALOHA warna cokelat; 1 buah plastic dengan merk VOAL MOTIF; 1 buah poket plastic kosong sisa pemakaian shabu; 1 buah korek api gas; 1 buah tabung kaca; 1 buah sumbu; 1 buah sekop shabu yang terbuat dari pipet plastic; 1 buah kepala bong ( alat hisap shabu); 1 unit HP merk XIOMI warna silver;Dirampas untuk dimusnahkan;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (Dua ribu lima ratus rupiah);</t>
+          <t>MENGADILIMenyatakan Terdakwa Saleh Obed Hamdun Alias Datuk tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana 'tanpa hak menyimpan Narkotika Golongan I dalam bentuk tanaman'sebagaimana dakwaan alternatife Kedua Penuntut Umum;Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan 6 (enam) bulan dan denda sebesar Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan diganti dengan pidana penjara selama 4 (empat) bulan;Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;Menetapkan Terdakwa tetap ditahan;Menetapkan barang bukti berupa:30 (tiga puluh) plastic transparan yang didalamnya berisi biji, dan daun kering jenis ganja;- 2 (dua) kantung kresek plastik yang didalamnya berisi, batang tanaman narkotika jenis ganja,- 3 (tiga) klip plastik transparan yang didalamnya berisi biji, daun kering tanaman jenis ganja;- 1 (satu) bungkus plastic trasnsparan merk Jalak Bali;- 1 (satu) bungkus plastic transparan merk Simpang Utama;- 1 (satu) bendel klip plastik transparan kosong:- 1 (satu) buah timbangan digital merk Pocket scale;- 1 (satu) buah Gunting warna hijau.Dirampas untuk dimusnahkan;Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>299/Pid.Sus/2024/PN Mtr</t>
+          <t>340/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -600,19 +600,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>: - 1 (satu) dompet warna hitam</t>
+          <t>:- 1 (satu) celana pendek warna cokelat merk PULL &amp; BEAR yang pada saku celana sebelah kiri terdapat 1 (satu) plastik klip transparan yang berisi 8 (delapan) poket kristal putih Narkotika jenis shabu dengan berat bersih masing-masing 0,97 (nol koma sembilan tujuh) gram, 0,94 (nol koma sembilan empat) gram, 0,922 (nol koma sembilan dua dua) gram, 0,925 (nol koma sembilan dua lima) gram, 0,924 (nol koma sembilan dua empat) gram, 0,909 (nol koma sembilan nol sembilan) gram, 0,913 (nol koma sembilan satu tiga) gram, dan 0,930 (nol koma sembilan tiga nol) gram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Menyatakan Terdakwa Sri Hikmawati Binti H. Bahraen Alias Icak tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak memiliki Narkotika Golongan I dalam bentuk buka tanaman, sebagaimana dalam dakwaan kedua; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp.1.000.000.000,00-(satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: - 1 (satu) dompet warna hitam; 1 (satu) unit ATM BCA dengan nomor 6019 0050 5808 9983; 1 (satu) unit ATM BCA dengan nomor 6019 0075 8212 0078; 1 (satu) unit HP Realme warna hijau dark dengan nomor IMEI 1 : 863874067866354 dan IMEI 2 : 863874067866347 dan nomor SIM Card : 081529629109 dan SIM Card 2 : 08176600552; Uang sejumlah Rp.2.900.000,-(dua juta sembilan ratus ribu rupiah); Dikembalikan kepada Terdakwa;Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI:1. Menyatakan Terdakwa Fahrizal Bin Wahidin Alias Ijang tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak menjual Narkotika Golongan I yang beratnya melebihi 5 (lima) gram, sebagaimana dalam dakwaan pertama;2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 8(delapan) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan;3. Menetapkan barang bukti berupa:- 1 (satu) celana pendek warna cokelat merk PULL &amp; BEAR yang pada saku celana sebelah kiri terdapat 1 (satu) plastik klip transparan yang berisi 8 (delapan) poket kristal putih Narkotika jenis shabu dengan berat bersih masing-masing 0,97 (nol koma sembilan tujuh) gram, 0,94 (nol koma sembilan empat) gram, 0,922 (nol koma sembilan dua dua) gram, 0,925 (nol koma sembilan dua lima) gram, 0,924 (nol koma sembilan dua empat) gram, 0,909 (nol koma sembilan nol sembilan) gram, 0,913 (nol koma sembilan satu tiga) gram, dan 0,930 (nol koma sembilan tiga nol) gram;- 1 (satu) plastik klip transparan yang didalamnya berisi 5 (lima) poket kristal putih Narkotika jenis shabu dengan berat bersih masing-masing 0,051 (nol koma nol lima satu) gram, 0,064 (nol koma nol enam empat) gram, 0,050 (nol koma nol lima nol) gram, 0,045 (nol koma nol empat lima) gram, dan 0,059 (nol koma nol lima sembilan) gram;- 8 (delapan) plastik klip transparan yang masing ? masing berisi kristal putih Narkotika jenis shabu dengan berat bersih masing ? masing 0,036 (nol koma nol tiga enam) gram, 0,041 (nol koma nol empat satu) gram, 0,037 (nol koma nol tiga tujuh) gram, 0,038 (nol koma nol tiga delapan) gram, 0,056 (nol koma nol lima enam) gram, 0,064 (nol koma nol enam empat) gram, 0,075 (nol koma nol tujuh lima), dan 0,070 (nol koma nol tujuh nol) gram;- 1 (satu) unit timbangan digital merk Pocket Scale warna hitam;- 2 (dua) bungkus palstik klip transparan merk Nasional yang masing ? masing berisi 89 (delapan puluh sembilan) lembar dan 38 (tiga puluh delapan) lembar;- 2 (dua) bungkus palstik klip transparan merk Unggul yang masing ? masing berisi 59 (lima puluh sembilan) lembar dan 66 (enam puluh enam) lembar;- 1 (satu) korek api gas warna hijau;- 1 (satu) gunting warna hitam;- 1 (satu) korek api gas warna merah berisi sumbu;- 1 (satu) pipet kaca;- 1 (satu) buah alat hisap shabu atau bong yang pada tutupnya berisi 2 (dua) pipet plastik yang terbuat dari botol mineral merk Narmada;Dirampas untuk dimusnahkan;- 1 (satu) unit HP merk Redmi 8A warna merah dengan nomor Imei : 869225051356361 dan nomor sim card 3 (Tree) : 089674542975;- 1 (satu) unit HP merk NOKIA 105 warna putih dengan nomor Imei : 357737106231273 dan nomor sim card XL : 087840034540;- 1 (satu) unit HP Samsung Galaxi A10S warna hitam dengan nomor Imei : 352235112750431 dengan nomor simcard XL : 087863272123;- 1 (satu) unit HP Samsung B310 E warna biru dengan nomor Imei : 351805095319619 dan nomor simcard XL 085939462167;- 1 (satu) unit HP VIVO 1816 warna hitam dengan nomor Imei : 867906049647894 dan nomor simcard Telkomsel 082340628249;- 1 (satu) unit HP merk Redmi 7 warna biru dengan nomor imei 863863049232629 dan nomor simcard XL : 087812323948;- 2 (dua) kartu simcard XL dengan nomor 087836450925 dan 087840474579;- 1 (satu) kartu simcard telkomsel dengan nomor 081237039839;- 1 (satu) unit HP VIVO 1807 warna merah dengan nomor imei 863387048620154 dan nomor simcard Indosat : 085829016919;- 1 (satu) unit HP merk NOKIA RM-647 warna biru dengan nomor Imei : 353297059287552 dan nomor sim card XL : 081938592230;- 1 (satu) unit HP VIVO 1816 warna hitam dengan nomor Imei : 867906049647894 dan nomor simcard Telkomsel 082340628249;- Uang tunai sejumlah Rp.1.020.000,- (satu juta dua puluh ribu rupiah);- Uang tunai sejumlah Rp.100.000 (seratus ribu rupiah);Dirampas untuk Negara;4. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>321/Pid.Sus/2024/PN Mtr</t>
+          <t>349/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -622,19 +622,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>:30 (tiga puluh) plastic transparan yang didalamnya berisi biji, dan daun kering jenis ganja</t>
+          <t>: 1 (satu) plastic klip transparan yang didalamnya terdapat : 1 (satu) poket Kristal putih yang diduga Narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip transparan dengan berat bersih keseluruhan 0,684 (nol koma enam delapan empat) Gram</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MENGADILIMenyatakan Terdakwa Saleh Obed Hamdun Alias Datuk tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana 'tanpa hak menyimpan Narkotika Golongan I dalam bentuk tanaman'sebagaimana dakwaan alternatife Kedua Penuntut Umum;Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan 6 (enam) bulan dan denda sebesar Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan diganti dengan pidana penjara selama 4 (empat) bulan;Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;Menetapkan Terdakwa tetap ditahan;Menetapkan barang bukti berupa:30 (tiga puluh) plastic transparan yang didalamnya berisi biji, dan daun kering jenis ganja;- 2 (dua) kantung kresek plastik yang didalamnya berisi, batang tanaman narkotika jenis ganja,- 3 (tiga) klip plastik transparan yang didalamnya berisi biji, daun kering tanaman jenis ganja;- 1 (satu) bungkus plastic trasnsparan merk Jalak Bali;- 1 (satu) bungkus plastic transparan merk Simpang Utama;- 1 (satu) bendel klip plastik transparan kosong:- 1 (satu) buah timbangan digital merk Pocket scale;- 1 (satu) buah Gunting warna hijau.Dirampas untuk dimusnahkan;Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa Sopha Marwa Bin (alm) H. Mustafa Alias Opa telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak membeli Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kesatu Penuntut Umum ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan 6 (enam) bulan dan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah), jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) plastic klip transparan yang didalamnya terdapat : 1 (satu) poket Kristal putih yang diduga Narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip transparan dengan berat bersih keseluruhan 0,684 (nol koma enam delapan empat) Gram ; 1 (satu) bungkus rokok Malboro yang didalamnya terdapat : 1 (satu) pipet kaca yang ujung terdapat sisa Kristal putih yang diduga Narkotika jenis shabu ; 1 (satu) gunting ; 2 (dua) korek api Gas ; 1 (satu) timbangan Elektrik warna abu ; 1 (satu) sumbu ; 1 (satu) pipet plastic warna putih; 1 (satu) bong ; 1 (satu) selotip bening ; 2 (dua) bendel plastic klip transparan ; 1 (satu) dompet warna hitam merek Ripcurl ; 1 (satu) ATM BCA dengan nomor 6019007589411348; 1 (satu) Unit HP.REDMI warna biru gelap dengan Nomor IMEI 1862525063033628 dan nomor IMEI 2 862525063033636 dengan SIM Card 1 085971170561 dan nomor SIM Card 2 081237334813; 1 (satu) tutup botol warna biru yang dirangkai dengan 2 (dua) pipet plastic warna putih garis merah ; 1 (satu) plastic klip transparan yang didalamnya terdapat : 5 (lima) bungkus Plastik klip transparan ; 1 (satu) tutup botol warna biru dirangkai dengan ; 2 (dua) pipet plastic warna putih garis merah ; 1 (satu) plastic klip transparan yang didalamnya terdapat 5 (lima) bungkus plastic klip transparan. Dirampas untuk dimusnahkan. uang tunai sebesar Rp.500.000,-(lima ratus ribu rupiah). Dirampas untuk Negara. 1 (satu) Unit Motor Satria R warna biru dengan nomor Polisi DR.5512 DE dan Nomor Rangka MH8BF-13BL2J-722753 dan nomor Mesin F125-ID-723022;Dikembalikan kepada Terdakwa;6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>34/Pid.Sus/2021/PN Mtr</t>
+          <t>359/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -644,19 +644,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah plastik klip bening yang berisikan 1 (satu) buah plastik klip bening yang di dalamnya terdapat Kristal bening narkotika jenis Shabu dengan berat brutto 0,94 (nol koma sembilan empat) gram (Kode A)</t>
+          <t>: 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi narkotika jenis sabhu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MENGADILI:1. Menyatakan Terdakwa 1 ISTIAWATI, Terdakwa 2 MUNIKA, Terdakwa 3 RATNA PUSPITA SARI, Terdakwa 4 ANDRI YANTO YUDISTIRA telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?menyalahgunakan Narkotika Golongan I bagi diri sendiri secara bersama-sama?;2. Menjatuhkan pidana kepada Terdakwa 1 ISTIAWATI, Terdakwa 2 MUNIKA, Terdakwa 3 RATNA PUSPITA SARI, Terdakwa 4 ANDRI YANTO YUDISTIRA oleh karena itu dengan pidana penjara masing-masing selama 2 (dua) tahun dan 6 (enam) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;4. Menetapkan agar Para Terdakwa tetap berada dalam tahanan;6. Menetapkan barang bukti berupa: 1 (satu) buah plastik klip bening yang berisikan 1 (satu) buah plastik klip bening yang di dalamnya terdapat Kristal bening narkotika jenis Shabu dengan berat brutto 0,94 (nol koma sembilan empat) gram (Kode A); 1 (satu) buah gulungan tisu yang di dalamnya terdapat 1 (buah) pipa kaca yang di dalamnya terdapat padatan narkotika jenis Shabu dengan berat brutto 1,34 (satu koma tiga empat) gram (KODE B) dan 1 (satu) buah gulungan plastik klip bening yang di dalamnya terdapat Kristal bening narkotika jenis Shabu dengan berat brutto 0,34 (nol koma tiga empat) gram (KODE C); 7 (tujuh) buah plastic klip bening; 1 (satu) buah HP kecil merk Samsung warna hitam; 1 (satu) buah bong yang terbuat dari botol larutan Cap Kaki Tiga lengkap dengan pipet plastik pada tutupnya; 1 (satu) buah pipa kaca yang berisikan padatan yang diduga narkotika jenis shabu dengan berat brutto 1,74 (satu koma empat empat) gram (KODE D); 1 (satu) buah tabung yang terbuat dari plastic yang di dalamnya terdapat 1 (satu) buah pipa kaca; 2 (dua) buah gunting; 2 (dua) buah pipet plastik yang ujungnya diruncingkan; 1 (satu) buah korek api gas tanpa tutup kepala; 1 (satu) Buah Hp Kecil Merk Samsung;dirampas untuk dimusnahkan; Uang tunai sejumlah Rp500.000,00 (lima ratus ribu rupiah);dirampas untuk negara;6. Membebankan kepada Para Terdakwa untuk membayar biaya perkara masing-masing sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Para Terdakwa tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Penyalah Guna Narkotika Golongan I bagi diri sendiri sebagaimana dalam dakwaan alternatif ketiga; Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 1 (satu) Tahun; Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi narkotika jenis sabhu; 1 (satu) buah Handphone merk OPPO warna biru muda berlapisan softcase warna coklat dengan no WA 081917324918 Dirampas untuk dimusnahkan.6. Membebankan kepada Para Terdakwa membayar biaya perkara masing-masing sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>340/Pid.Sus/2024/PN Mtr</t>
+          <t>374/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,19 +666,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>:- 1 (satu) celana pendek warna cokelat merk PULL &amp; BEAR yang pada saku celana sebelah kiri terdapat 1 (satu) plastik klip transparan yang berisi 8 (delapan) poket kristal putih Narkotika jenis shabu dengan berat bersih masing-masing 0,97 (nol koma sembilan tujuh) gram, 0,94 (nol koma sembilan empat) gram, 0,922 (nol koma sembilan dua dua) gram, 0,925 (nol koma sembilan dua lima) gram, 0,924 (nol koma sembilan dua empat) gram, 0,909 (nol koma sembilan nol sembilan) gram, 0,913 (nol koma sembilan satu tiga) gram, dan 0,930 (nol koma sembilan tiga nol) gram</t>
+          <t>:  1 (satu) buah bingkisan paket berwqarna hitam yang didalamnya berisi 1 (satu) buah celana warna krem yang di dalamnya berisi 1 (satu) alumuniyum foil yang didalamnya berisi 2 (dua) bungkus plastik warna kuning dan putih yang didalamnya berisi batang , daun dan buji kering diduga Narkotika Jenis Ganja 1 (satu) Unit handphone merk Iphone warna rose gold dengan no WA 083130249277 1 (satu) Unit handphone merk VIVO warna biru muda dengan no WA 0895428525558 1 (satu) Unit handphone merk Iphone warna hitam dengan no WA 087780874973 1 (satu) Unit handphone merk Redme warna hitam dengan no WA 087703614176   Dipergunakan dalam perkara ABDUL RONI LUBIS ALS ROBIN Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp. 2.500,- (dua ribu lima ratus rupiah)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MENGADILI:1. Menyatakan Terdakwa Fahrizal Bin Wahidin Alias Ijang tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak menjual Narkotika Golongan I yang beratnya melebihi 5 (lima) gram, sebagaimana dalam dakwaan pertama;2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 8(delapan) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan;3. Menetapkan barang bukti berupa:- 1 (satu) celana pendek warna cokelat merk PULL &amp; BEAR yang pada saku celana sebelah kiri terdapat 1 (satu) plastik klip transparan yang berisi 8 (delapan) poket kristal putih Narkotika jenis shabu dengan berat bersih masing-masing 0,97 (nol koma sembilan tujuh) gram, 0,94 (nol koma sembilan empat) gram, 0,922 (nol koma sembilan dua dua) gram, 0,925 (nol koma sembilan dua lima) gram, 0,924 (nol koma sembilan dua empat) gram, 0,909 (nol koma sembilan nol sembilan) gram, 0,913 (nol koma sembilan satu tiga) gram, dan 0,930 (nol koma sembilan tiga nol) gram;- 1 (satu) plastik klip transparan yang didalamnya berisi 5 (lima) poket kristal putih Narkotika jenis shabu dengan berat bersih masing-masing 0,051 (nol koma nol lima satu) gram, 0,064 (nol koma nol enam empat) gram, 0,050 (nol koma nol lima nol) gram, 0,045 (nol koma nol empat lima) gram, dan 0,059 (nol koma nol lima sembilan) gram;- 8 (delapan) plastik klip transparan yang masing ? masing berisi kristal putih Narkotika jenis shabu dengan berat bersih masing ? masing 0,036 (nol koma nol tiga enam) gram, 0,041 (nol koma nol empat satu) gram, 0,037 (nol koma nol tiga tujuh) gram, 0,038 (nol koma nol tiga delapan) gram, 0,056 (nol koma nol lima enam) gram, 0,064 (nol koma nol enam empat) gram, 0,075 (nol koma nol tujuh lima), dan 0,070 (nol koma nol tujuh nol) gram;- 1 (satu) unit timbangan digital merk Pocket Scale warna hitam;- 2 (dua) bungkus palstik klip transparan merk Nasional yang masing ? masing berisi 89 (delapan puluh sembilan) lembar dan 38 (tiga puluh delapan) lembar;- 2 (dua) bungkus palstik klip transparan merk Unggul yang masing ? masing berisi 59 (lima puluh sembilan) lembar dan 66 (enam puluh enam) lembar;- 1 (satu) korek api gas warna hijau;- 1 (satu) gunting warna hitam;- 1 (satu) korek api gas warna merah berisi sumbu;- 1 (satu) pipet kaca;- 1 (satu) buah alat hisap shabu atau bong yang pada tutupnya berisi 2 (dua) pipet plastik yang terbuat dari botol mineral merk Narmada;Dirampas untuk dimusnahkan;- 1 (satu) unit HP merk Redmi 8A warna merah dengan nomor Imei : 869225051356361 dan nomor sim card 3 (Tree) : 089674542975;- 1 (satu) unit HP merk NOKIA 105 warna putih dengan nomor Imei : 357737106231273 dan nomor sim card XL : 087840034540;- 1 (satu) unit HP Samsung Galaxi A10S warna hitam dengan nomor Imei : 352235112750431 dengan nomor simcard XL : 087863272123;- 1 (satu) unit HP Samsung B310 E warna biru dengan nomor Imei : 351805095319619 dan nomor simcard XL 085939462167;- 1 (satu) unit HP VIVO 1816 warna hitam dengan nomor Imei : 867906049647894 dan nomor simcard Telkomsel 082340628249;- 1 (satu) unit HP merk Redmi 7 warna biru dengan nomor imei 863863049232629 dan nomor simcard XL : 087812323948;- 2 (dua) kartu simcard XL dengan nomor 087836450925 dan 087840474579;- 1 (satu) kartu simcard telkomsel dengan nomor 081237039839;- 1 (satu) unit HP VIVO 1807 warna merah dengan nomor imei 863387048620154 dan nomor simcard Indosat : 085829016919;- 1 (satu) unit HP merk NOKIA RM-647 warna biru dengan nomor Imei : 353297059287552 dan nomor sim card XL : 081938592230;- 1 (satu) unit HP VIVO 1816 warna hitam dengan nomor Imei : 867906049647894 dan nomor simcard Telkomsel 082340628249;- Uang tunai sejumlah Rp.1.020.000,- (satu juta dua puluh ribu rupiah);- Uang tunai sejumlah Rp.100.000 (seratus ribu rupiah);Dirampas untuk Negara;4. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa I Indra Nauvaldi Haris als Valdi dan Terdakwa II Ahmad Yani als Yani telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? telah melakukan percobaan atau pemufakatan jahat Tanpa Hak Menguasai Narkotika Golongan I dalam bentuk Tanaman? sebagaimana dakwaan Jaksa Penuntut Umum pada dakwaan alternatif kedua ; Menjatuhkan pidana kepada terdakwa tersebut oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda Rp. 1.000.000.000,- (satu milyar rupiah) ; Menetapkan apabila denda tersebut tidak dibayar maka akan diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  Memerintahkan agar terdakwa tetap ditahan; Menetapkan barang bukti berupa:  1 (satu) buah bingkisan paket berwqarna hitam yang didalamnya berisi 1 (satu) buah celana warna krem yang di dalamnya berisi 1 (satu) alumuniyum foil yang didalamnya berisi 2 (dua) bungkus plastik warna kuning dan putih yang didalamnya berisi batang , daun dan buji kering diduga Narkotika Jenis Ganja 1 (satu) Unit handphone merk Iphone warna rose gold dengan no WA 083130249277 1 (satu) Unit handphone merk VIVO warna biru muda dengan no WA 0895428525558 1 (satu) Unit handphone merk Iphone warna hitam dengan no WA 087780874973 1 (satu) Unit handphone merk Redme warna hitam dengan no WA 087703614176   Dipergunakan dalam perkara ABDUL RONI LUBIS ALS ROBIN Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>359/Pid.Sus/2024/PN Mtr</t>
+          <t>375/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -688,19 +688,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>: 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi narkotika jenis sabhu</t>
+          <t>: 1 (satu) buah celana warna hitam</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Para Terdakwa tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Penyalah Guna Narkotika Golongan I bagi diri sendiri sebagaimana dalam dakwaan alternatif ketiga; Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 1 (satu) Tahun; Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi 1 (satu) klip plastik transparan yang didalamnya berisi narkotika jenis sabhu; 1 (satu) buah Handphone merk OPPO warna biru muda berlapisan softcase warna coklat dengan no WA 081917324918 Dirampas untuk dimusnahkan.6. Membebankan kepada Para Terdakwa membayar biaya perkara masing-masing sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa BADAI RIZQI SAPUTRA, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan tanpa hak atau melawan hukum, menjual atau menjadi perantara dalam jual beli Narkotika Golongan 1 bukan tanaman,? sebagaimana dalam Dakwaan Kesatu Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa BADAI RIZQI SAPUTRA, dengan pidana penjara selama 6 ( enam ) Tahun dan pidana Denda sebesar Rp. 1.000.000.000,- ( satu miliar rupiah ), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah celana warna hitam; 1 (satu) buah plastik klip bening yang didalamnya berisi : 1 (satu) poket plastic klip bening yang didalamnya berisikan Kristal bening yang diduga narkotika jenis sabu dengan berat brutto 0,32 (Nol koma tiga dua) gram Kode A; 1 (satu) poket plastic klip bening yang didalamnya berisikan Kristal bening yang diduga narkotika jenis sabu dengan berat brutto 0,32 (Nol koma tiga dua) gram Kode BDirampas untuk dimusnahkan; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>374/Pid.Sus/2024/PN Mtr</t>
+          <t>376/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -710,19 +710,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>:  1 (satu) buah bingkisan paket berwqarna hitam yang didalamnya berisi 1 (satu) buah celana warna krem yang di dalamnya berisi 1 (satu) alumuniyum foil yang didalamnya berisi 2 (dua) bungkus plastik warna kuning dan putih yang didalamnya berisi batang , daun dan buji kering diduga Narkotika Jenis Ganja 1 (satu) Unit handphone merk Iphone warna rose gold dengan no WA 083130249277 1 (satu) Unit handphone merk VIVO warna biru muda dengan no WA 0895428525558 1 (satu) Unit handphone merk Iphone warna hitam dengan no WA 087780874973 1 (satu) Unit handphone merk Redme warna hitam dengan no WA 087703614176   Dipergunakan dalam perkara ABDUL RONI LUBIS ALS ROBIN Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp. 2.500,- (dua ribu lima ratus rupiah)</t>
+          <t>: 1 (satu) HP iPhone Warna Putih Emas dengan Case warna biru dan simcard dan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa I Indra Nauvaldi Haris als Valdi dan Terdakwa II Ahmad Yani als Yani telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? telah melakukan percobaan atau pemufakatan jahat Tanpa Hak Menguasai Narkotika Golongan I dalam bentuk Tanaman? sebagaimana dakwaan Jaksa Penuntut Umum pada dakwaan alternatif kedua ; Menjatuhkan pidana kepada terdakwa tersebut oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda Rp. 1.000.000.000,- (satu milyar rupiah) ; Menetapkan apabila denda tersebut tidak dibayar maka akan diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  Memerintahkan agar terdakwa tetap ditahan; Menetapkan barang bukti berupa:  1 (satu) buah bingkisan paket berwqarna hitam yang didalamnya berisi 1 (satu) buah celana warna krem yang di dalamnya berisi 1 (satu) alumuniyum foil yang didalamnya berisi 2 (dua) bungkus plastik warna kuning dan putih yang didalamnya berisi batang , daun dan buji kering diduga Narkotika Jenis Ganja 1 (satu) Unit handphone merk Iphone warna rose gold dengan no WA 083130249277 1 (satu) Unit handphone merk VIVO warna biru muda dengan no WA 0895428525558 1 (satu) Unit handphone merk Iphone warna hitam dengan no WA 087780874973 1 (satu) Unit handphone merk Redme warna hitam dengan no WA 087703614176   Dipergunakan dalam perkara ABDUL RONI LUBIS ALS ROBIN Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>Menyatakan Terdakwa Lalu Adit Juniawan Alias Adit Bin Lalu Juni Hariawan tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menjual, membeli, menerima, menyerahkan Narkotika Golongan I? sebagaimana dalam dakwaan alternatif ke 1 (satu); Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan pidana denda sejumlah Rp 1.000.000.000. (satu milyar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) HP iPhone Warna Putih Emas dengan Case warna biru dan simcard dan ; 1 (satu) buah HP iPhone warna hitam dengan case warna merah muda yang didalamnya terdapatsimcarddengan nomor +6287757232895; Dirampas untuk negara; 1 (satu) buah kartu ATM BRI dengan nomor 5221843186812058; Dikembalikan kepada Terdakwa ; 1 (satu) buah tas selempang wanita warna hijau muda; Dirampas untuk dimusnahkan; 1 (satu) unit sepeda motor Honda PCX dengan Nopol DR 4787 YM warna merah berikut STNK atas nama WIRONATA dan; 1 (satu) buah kartu ATM BCA dengan nomor 53794130 6431 1530; Dikembalikan kepada saksi Nurul Pajriah Als Uyun binti M. Yusuf (Alm); 6 (enam) butir ekstasi dengan logo LV warna coklat dengan berat bersih keseluruhan 2,219 (dua koma dua satu sembilan) gram; Dikembalikan kepada Penuntut Umum untuk di perguanakan dalam perkara atas nama Terdakwa HARSONO Alias ONO BIN SAPAAT ELI ;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>375/Pid.Sus/2024/PN Mtr</t>
+          <t>378/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -732,19 +732,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah celana warna hitam</t>
+          <t>: 6 (enam) butir ekstasi dengan logo LV warna cokelat dengan berat bersih keseluruhan 2,219 (dua koma dua satu sembilan) gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa BADAI RIZQI SAPUTRA, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan tanpa hak atau melawan hukum, menjual atau menjadi perantara dalam jual beli Narkotika Golongan 1 bukan tanaman,? sebagaimana dalam Dakwaan Kesatu Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa BADAI RIZQI SAPUTRA, dengan pidana penjara selama 6 ( enam ) Tahun dan pidana Denda sebesar Rp. 1.000.000.000,- ( satu miliar rupiah ), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah celana warna hitam; 1 (satu) buah plastik klip bening yang didalamnya berisi : 1 (satu) poket plastic klip bening yang didalamnya berisikan Kristal bening yang diduga narkotika jenis sabu dengan berat brutto 0,32 (Nol koma tiga dua) gram Kode A; 1 (satu) poket plastic klip bening yang didalamnya berisikan Kristal bening yang diduga narkotika jenis sabu dengan berat brutto 0,32 (Nol koma tiga dua) gram Kode BDirampas untuk dimusnahkan; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>Menyatakan Terdakwa Nurul Pajriah Als Uyun binti M. Yusuf (Alm) tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menawarkan untuk dijual, menjual Narkotika Golongan I? sebagaimana dalam dakwaan alternatif ke 1 (satu); Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan pidana denda sejumlah Rp.1.000.000.000,- (satu milyar milyar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 6 (enam) butir ekstasi dengan logo LV warna cokelat dengan berat bersih keseluruhan 2,219 (dua koma dua satu sembilan) gram; dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara atas nama Lalu Adit Juniawan Als Adit bin Lalu Juni Hariawan; 1 (satu) buah HP iPhone warna hitam dengan case warna merah muda yang didalamnya terdapat simcard dengan nomor +6287757232895; dirampas untuk negara; 1 (satu) unit sepeda motor Honda PCX dengan Nopol DR 4787 YM warna merah berikut STNK atas nama WIRONATA; 1 (satu) buah kartu ATM BCA dengan nomor 53794130 6431 1530; dikembalikan kepada Nurul Pajriah Als Uyun binti M. Yusuf (Alm); 1 (satu) buah tas selempang wanita warna hijau muda; dirampas untuk dimusnahkan; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>376/Pid.Sus/2024/PN Mtr</t>
+          <t>379/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -754,19 +754,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>: 1 (satu) HP iPhone Warna Putih Emas dengan Case warna biru dan simcard dan</t>
+          <t>: Narkotika jenis ganja (kode 1) dengan berat bruto keseluruhan 2039,78 (dua ribu tiga sembilan koma tujuh delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1069,95 (seribu enam sembilan koma sembilan lima) gram. Narkotika jenis ganja (kode 2) dengan berat bruto keseluruhan 18,40 (delapan belas koma empat puluh) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 15,54 (lima belas koma lima empat) gram. 1 (satu) batang pohon NARKOTIKA - POHON GANJA, 1 (satu) buah polybag besar warna hijau yang ditanami 1 buah pohon ganja 1 (satu) buah Kartu ATM CIMB NIAGA Syariah dengan nomor 5576 9220 01043734. 1 (satu) buah paket Lion Parcel dengan nomor resi 11LP1707295579392 pengirim SYAHPUTRA, 628*********13 Medan dan penerima ANDREY 6281915668887 YUME KOS NO. 4 JL. RW. INDAH, DASAN CERMEN KEC. SANDUBAYA KOTA MATARAM, NUSA TENGGARA BARAT 83232 (pembungkus 1 (satu) narkotika jenis ganja kode 1) 1 (satu) buah klip alumunium foil warna hitam (pembungkus narkotika jenis ganja kode 2) 1 (satu) buah Lain-lain, kardus warna coklat bekas bungkusan paket J&amp;T Cargo yang didalamnya berisi pakaian. Dirampas untuk dimusnahkan. 1 (satu) buah Handphone, iphone warna putih yang didalamnya terdapat simcard dengan nomor +6287838996420. Dirampas untuk negara</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Menyatakan Terdakwa Lalu Adit Juniawan Alias Adit Bin Lalu Juni Hariawan tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menjual, membeli, menerima, menyerahkan Narkotika Golongan I? sebagaimana dalam dakwaan alternatif ke 1 (satu); Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan pidana denda sejumlah Rp 1.000.000.000. (satu milyar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) HP iPhone Warna Putih Emas dengan Case warna biru dan simcard dan ; 1 (satu) buah HP iPhone warna hitam dengan case warna merah muda yang didalamnya terdapatsimcarddengan nomor +6287757232895; Dirampas untuk negara; 1 (satu) buah kartu ATM BRI dengan nomor 5221843186812058; Dikembalikan kepada Terdakwa ; 1 (satu) buah tas selempang wanita warna hijau muda; Dirampas untuk dimusnahkan; 1 (satu) unit sepeda motor Honda PCX dengan Nopol DR 4787 YM warna merah berikut STNK atas nama WIRONATA dan; 1 (satu) buah kartu ATM BCA dengan nomor 53794130 6431 1530; Dikembalikan kepada saksi Nurul Pajriah Als Uyun binti M. Yusuf (Alm); 6 (enam) butir ekstasi dengan logo LV warna coklat dengan berat bersih keseluruhan 2,219 (dua koma dua satu sembilan) gram; Dikembalikan kepada Penuntut Umum untuk di perguanakan dalam perkara atas nama Terdakwa HARSONO Alias ONO BIN SAPAAT ELI ;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Terdakwa Muhamad Firja Firdaus Als Firja Bin Hasan tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana permufakatan jahat untuk melakukan tindak pidana narkotika golongan I yang beratnya melebihi 1 (satu) kilogram sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 (Tujuh) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: Narkotika jenis ganja (kode 1) dengan berat bruto keseluruhan 2039,78 (dua ribu tiga sembilan koma tujuh delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1069,95 (seribu enam sembilan koma sembilan lima) gram. Narkotika jenis ganja (kode 2) dengan berat bruto keseluruhan 18,40 (delapan belas koma empat puluh) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 15,54 (lima belas koma lima empat) gram. 1 (satu) batang pohon NARKOTIKA - POHON GANJA, 1 (satu) buah polybag besar warna hijau yang ditanami 1 buah pohon ganja 1 (satu) buah Kartu ATM CIMB NIAGA Syariah dengan nomor 5576 9220 01043734. 1 (satu) buah paket Lion Parcel dengan nomor resi 11LP1707295579392 pengirim SYAHPUTRA, 628*********13 Medan dan penerima ANDREY 6281915668887 YUME KOS NO. 4 JL. RW. INDAH, DASAN CERMEN KEC. SANDUBAYA KOTA MATARAM, NUSA TENGGARA BARAT 83232 (pembungkus 1 (satu) narkotika jenis ganja kode 1) 1 (satu) buah klip alumunium foil warna hitam (pembungkus narkotika jenis ganja kode 2) 1 (satu) buah Lain-lain, kardus warna coklat bekas bungkusan paket J&amp;T Cargo yang didalamnya berisi pakaian. Dirampas untuk dimusnahkan. 1 (satu) buah Handphone, iphone warna putih yang didalamnya terdapat simcard dengan nomor +6287838996420. Dirampas untuk negara; 1 (satu) buah HP Iphone 11 warna hijau yang didalamnya terdapat simcard dengan nomor 085954996433; Dikembalikan kepada Penuntut Umum untuk digunakan dalam berkas perkara Faris Afandi Al Karomi Als Faris Bin M. Ahyarudin Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>378/Pid.Sus/2024/PN Mtr</t>
+          <t>386/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -776,19 +776,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>: 6 (enam) butir ekstasi dengan logo LV warna cokelat dengan berat bersih keseluruhan 2,219 (dua koma dua satu sembilan) gram</t>
+          <t>: 1 (satu) lipatan kertas Koran yang di dalam lipatan kertas Koran tersebut berisi batang, daun dan biji kering di duga narkotika jenis ganja</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Menyatakan Terdakwa Nurul Pajriah Als Uyun binti M. Yusuf (Alm) tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menawarkan untuk dijual, menjual Narkotika Golongan I? sebagaimana dalam dakwaan alternatif ke 1 (satu); Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan pidana denda sejumlah Rp.1.000.000.000,- (satu milyar milyar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 6 (enam) butir ekstasi dengan logo LV warna cokelat dengan berat bersih keseluruhan 2,219 (dua koma dua satu sembilan) gram; dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara atas nama Lalu Adit Juniawan Als Adit bin Lalu Juni Hariawan; 1 (satu) buah HP iPhone warna hitam dengan case warna merah muda yang didalamnya terdapat simcard dengan nomor +6287757232895; dirampas untuk negara; 1 (satu) unit sepeda motor Honda PCX dengan Nopol DR 4787 YM warna merah berikut STNK atas nama WIRONATA; 1 (satu) buah kartu ATM BCA dengan nomor 53794130 6431 1530; dikembalikan kepada Nurul Pajriah Als Uyun binti M. Yusuf (Alm); 1 (satu) buah tas selempang wanita warna hijau muda; dirampas untuk dimusnahkan; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah).</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa I Indra Nauvaldi Haris als Valdi dan Terdakwa II Ahmad Yani als Yani telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? telah melakukan percobaan atau pemufakatan jahat Tanpa Hak Menguasai Narkotika Golongan I dalam bentuk Tanaman? sebagaimana dakwaan Jaksa Penuntut Umum pada dakwaan alternatif kedua ; Menjatuhkan pidana kepada terdakwa tersebut oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda Rp. 1.000.000.000,- (satu milyar rupiah) ; Menetapkan apabila denda tersebut tidak dibayar maka akan diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  Memerintahkan agar terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) lipatan kertas Koran yang di dalam lipatan kertas Koran tersebut berisi batang, daun dan biji kering di duga narkotika jenis ganja; 1 (satu) buah timbangan digital merk GSF 5kgx 1g warna putih; Dirampas untuk di musnahkan; Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>386/Pid.Sus/2024/PN Mtr</t>
+          <t>390/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>: 1 (satu) lipatan kertas Koran yang di dalam lipatan kertas Koran tersebut berisi batang, daun dan biji kering di duga narkotika jenis ganja</t>
+          <t>: 1 (satu) buah lain ? lain, tas selempang merk EIGER warna hitam</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa I Indra Nauvaldi Haris als Valdi dan Terdakwa II Ahmad Yani als Yani telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? telah melakukan percobaan atau pemufakatan jahat Tanpa Hak Menguasai Narkotika Golongan I dalam bentuk Tanaman? sebagaimana dakwaan Jaksa Penuntut Umum pada dakwaan alternatif kedua ; Menjatuhkan pidana kepada terdakwa tersebut oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda Rp. 1.000.000.000,- (satu milyar rupiah) ; Menetapkan apabila denda tersebut tidak dibayar maka akan diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  Memerintahkan agar terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) lipatan kertas Koran yang di dalam lipatan kertas Koran tersebut berisi batang, daun dan biji kering di duga narkotika jenis ganja; 1 (satu) buah timbangan digital merk GSF 5kgx 1g warna putih; Dirampas untuk di musnahkan; Membebankan kepada terdakwa untuk membayar biaya perkara sejumlah Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>Memperhatikan Pasal 112 ayat (1) jo Psal 132 ayat (1) Undang-Undang Republik Indonesia Nomor 35 tahun 2009 tentang Narkotika dan Undang-undang Nomor 8 Tahun 1981 tentang Hukum Acara Pidana serta peraturan perundang-undangan lain yang bersangkutan;MENGADILI: Menyatakan Terdakwa Syafrudin Alias Cengong Bin Ihsan (ALM) tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?melakukan permufakatan jahat tanpa hak memiliki, menyimpan, menguasai atau menyediakan Narkotika Golongan I bukan tanaman? sebagaimana dakwaan Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun. dan denda sebesar Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan diganti dengan pidana penjara selama 6 (enam) Bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) buah lain ? lain, tas selempang merk EIGER warna hitam; 1 (satu) buah ATM, BNI dengan nomor 5371 7603 8100 5304; 1 (satu) buah lain ? lain, dompet kulit merk Levis warna coklat; 1 (satu) lembar lain ? lain, tisu warna putih; 1 (satu) butir ekstasi dengan logo LV warna coklat dengan berat bersih keseluruhan 0,358 (nol koma tiga lima delapan). Dirampas untuk dimusnahkan; 1 (satu) buah hand phone android merk oppo warna ungu dengan case transparan yang di dalamnya terdapat simcard dengan nomor +6287864215641 dan +62881037575675; 1 (satu) buah kendaraan, sepeda motor honda beat dengan Nopol DR. 4041 MO warna putih berikut STNK atas nama SUHADAH; Dirampas untuk Negara; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>388/Pid.Sus/2024/PN Mtr</t>
+          <t>404/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -820,19 +820,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>: 1 (satu) kotak bekas bungkus rokok merk LUCKY STRIKE yang didalamnya terdapat 3 (tiga) bungkus plastik klip transparan yang didalamnya masing-masing terdapat 2 (dua) bungkus kristal putih narkotika jenis shabu yang dibungkus menggunakan plastik klip warna bening masing-masing berat bersih 0,030 (nol koma nol tiga puluh) gram, 0,038 (nol koma nol tiga puluh delapan) gram, 0,042 (nol koma nol empat puluh dua) gram, 0,034 (nol koma nol tiga puluh empat) gram, 0,043 (nol koma nol empat puluh tiga) gram dan 0,038 (nol koma nol tiga puluh delapan) gram</t>
+          <t>: 1 (satu) buah dompet warna hitam yang didalamnya berisikan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Abdul Holiq als. Holiq bin Mahyudin tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Permufakatan jahat tanpa hak atau melawan hukum menjual, membeli dan menerima Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu Penuntut Umum ; Menjatuhkan kepada Terdakwa oleh karena itu pidana penjara selama 6 (enam) Tahun dan pidana denda sejumlah Rp 1.000.000.000,- (satu miliar rupiah), dengan ketentuan apabila pidana denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan ; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) kotak bekas bungkus rokok merk LUCKY STRIKE yang didalamnya terdapat 3 (tiga) bungkus plastik klip transparan yang didalamnya masing-masing terdapat 2 (dua) bungkus kristal putih narkotika jenis shabu yang dibungkus menggunakan plastik klip warna bening masing-masing berat bersih 0,030 (nol koma nol tiga puluh) gram, 0,038 (nol koma nol tiga puluh delapan) gram, 0,042 (nol koma nol empat puluh dua) gram, 0,034 (nol koma nol tiga puluh empat) gram, 0,043 (nol koma nol empat puluh tiga) gram dan 0,038 (nol koma nol tiga puluh delapan) gram; Uang tunai sejumlah Rp. 10.000 (sepuluh ribu rupiah); 1 (satu) celana pendek merk DARLENE; 1 (satu) Handphone merk Nokia Warna Orange dengan nomor simcard XL 087718992613; 1 (satu) Handphone Android Merk Redmi warna Abu dengan nomor simcard IM3 085737516942; 1 (satu) handphone merk PRIME warna merah metalik tanpa kartu; 1 (satu) tabung berwarna kuning yang bertuliskan LUCKY yang didalamnya berisi: 1 (satu) pipet kaca bening yang dibungkus dengan menggunakan tissue; 1 (satu) bendel plastik transparan yang bertuliskan UNGGUL PLASTIK; 2 (dua) pipet plastik berwarna putih bergaris merah berbentuk skop.; 1 (satu) bekas tutup botol yang terdapat 2 (dua) buah lubang yang mana salah satu lubangnya berisi 1 (satu) pipet berwarna putih bergaris merah berbentuk L;Dikembalikan kepada Penuntut Umum untuk dipergunakan dalam Perkara No. 380/Pid.Sus/2024/PN Mtr atas nama Heri Hidayatullah alias Hari bin Zaenudin ; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI: Menyatakan Terdakwa AHMAD YUDA RAMDANI terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjual Narkotika golongan I sebagaimana dalam dakwaan alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan 6 (enam) bulan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa : 1 (satu) buah dompet warna hitam yang didalamnya berisikan ;   1 (satu) plastic klip bening Kode A berisi 6 (enam) poket plastic klip bening Kode A1 s/d Kode A6 berisi kristal bening diduga narkotika jenis sabu;   2 (dua) bendel plastic klip bening; 1 (satu) buah korek api gas tanpa tutup kepala;  Dirampas untuk dimusnahkan; Uang tunai sebesar Rp.200.000,- (dua ratus ribu rupiah)  Dirampas untuk Negara;6. Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp 2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>390/Pid.Sus/2024/PN Mtr</t>
+          <t>410/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -842,19 +842,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah lain ? lain, tas selempang merk EIGER warna hitam</t>
+          <t>:  2 (dua) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klip wama bening masing-masing berat bersih 0,005 (nol koma nol nol lima) gram dan 0,007 (nol koma nolnol tujuh) gram yang di ikat menggunakan peniti didalam topi berwama merah yang bertuliskan HARDCORE UNITED"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Memperhatikan Pasal 112 ayat (1) jo Psal 132 ayat (1) Undang-Undang Republik Indonesia Nomor 35 tahun 2009 tentang Narkotika dan Undang-undang Nomor 8 Tahun 1981 tentang Hukum Acara Pidana serta peraturan perundang-undangan lain yang bersangkutan;MENGADILI: Menyatakan Terdakwa Syafrudin Alias Cengong Bin Ihsan (ALM) tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?melakukan permufakatan jahat tanpa hak memiliki, menyimpan, menguasai atau menyediakan Narkotika Golongan I bukan tanaman? sebagaimana dakwaan Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun. dan denda sebesar Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan diganti dengan pidana penjara selama 6 (enam) Bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) buah lain ? lain, tas selempang merk EIGER warna hitam; 1 (satu) buah ATM, BNI dengan nomor 5371 7603 8100 5304; 1 (satu) buah lain ? lain, dompet kulit merk Levis warna coklat; 1 (satu) lembar lain ? lain, tisu warna putih; 1 (satu) butir ekstasi dengan logo LV warna coklat dengan berat bersih keseluruhan 0,358 (nol koma tiga lima delapan). Dirampas untuk dimusnahkan; 1 (satu) buah hand phone android merk oppo warna ungu dengan case transparan yang di dalamnya terdapat simcard dengan nomor +6287864215641 dan +62881037575675; 1 (satu) buah kendaraan, sepeda motor honda beat dengan Nopol DR. 4041 MO warna putih berikut STNK atas nama SUHADAH; Dirampas untuk Negara; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI : Menyatakan Terdakwa Herwan Jayadi Alias Wan Bin Darwan tersebut di atas terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjadi perantara dalam jual beli Narkotika golongan I sebagaimana dalam dakwaan alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3(tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa :  2 (dua) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klip wama bening masing-masing berat bersih 0,005 (nol koma nol nol lima) gram dan 0,007 (nol koma nolnol tujuh) gram yang di ikat menggunakan peniti didalam topi berwama merah yang bertuliskan HARDCORE UNITED";   1 (satu) tas kecil berwarna coklat bertuliskan VOLCOM yang didalamnya berisi: 1 (satu) ATM Bank BCA dengan nomor kartu 6019 0050 5821 2858; 1 (satu) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klipwama bening dan masih terdapat peniti dengan berat bersih 0,059 (nol koma nol lima puluh sembilan) gram; 1 (satu) plastik klip warna bening kosong; 1 (satu) plastik klip warna bening yang didalamnya terdapat 13 (tiga belas) plastik klip wama bening kosong; Dirampas untuk dimusnahkan ; Uang Tunai sejumlah Rp 400.000,00 (empat ratus ribu rupiah); 1 (satu) HP Android merk VIVO berwarna Biru Metalik yang berisi 1 (satu) sim card TRI dengan nomor 089653998337;  Dirampas untuk negara;  6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>410/Pid.Sus/2024/PN Mtr</t>
+          <t>411/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -864,19 +864,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>:  2 (dua) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klip wama bening masing-masing berat bersih 0,005 (nol koma nol nol lima) gram dan 0,007 (nol koma nolnol tujuh) gram yang di ikat menggunakan peniti didalam topi berwama merah yang bertuliskan HARDCORE UNITED"</t>
+          <t>:1. 1 (satu) dompet warna biru yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MENGADILI : Menyatakan Terdakwa Herwan Jayadi Alias Wan Bin Darwan tersebut di atas terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjadi perantara dalam jual beli Narkotika golongan I sebagaimana dalam dakwaan alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3(tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa :  2 (dua) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klip wama bening masing-masing berat bersih 0,005 (nol koma nol nol lima) gram dan 0,007 (nol koma nolnol tujuh) gram yang di ikat menggunakan peniti didalam topi berwama merah yang bertuliskan HARDCORE UNITED";   1 (satu) tas kecil berwarna coklat bertuliskan VOLCOM yang didalamnya berisi: 1 (satu) ATM Bank BCA dengan nomor kartu 6019 0050 5821 2858; 1 (satu) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klipwama bening dan masih terdapat peniti dengan berat bersih 0,059 (nol koma nol lima puluh sembilan) gram; 1 (satu) plastik klip warna bening kosong; 1 (satu) plastik klip warna bening yang didalamnya terdapat 13 (tiga belas) plastik klip wama bening kosong; Dirampas untuk dimusnahkan ; Uang Tunai sejumlah Rp 400.000,00 (empat ratus ribu rupiah); 1 (satu) HP Android merk VIVO berwarna Biru Metalik yang berisi 1 (satu) sim card TRI dengan nomor 089653998337;  Dirampas untuk negara;  6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>Menyatakan Terdakwa Saidah Bin (Alm) Lupak tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I, sebagaimana dalam dakwaan pertama; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 7 (tujuh) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa:1. 1 (satu) dompet warna biru yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;2. 1 (satu) jaket warna hitam di kantong terdapat:- 1 (satu) dompet kecil warna putih motif bunga yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;Dirampas untuk dimusnahkan; 1 (satu) dompet warna hitam merek Consina yang di dalamnya terdapat uang tunai sejumlah Rp1.300.000,-(satu juta tiga ratus ribu rupiah);Dikembalikan kepada Terdakwa; 1 (satu) unit HP Samsung warna hitam dengan nomor IMEI : 351907102698850 dengan nomor SIM Cardnya : 087730359404; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 356381083391189 dan IMEI 2 : 356382083391187 dengan nomor SIM Cardnya : 081999418103; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 357542061584926 dan IMEI 2 : 357543061584924 dengan nomor SIM Cardnya : 081935932000; Uang sejumlah Rp654.000(enam ratus lima puluh empat ribu rupiah);Dirampas untuk negara; Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>411/Pid.Sus/2024/PN Mtr</t>
+          <t>413/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -886,19 +886,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>:1. 1 (satu) dompet warna biru yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan</t>
+          <t>: a. 1 (satu) bungkus rokok Surya 12 yang didalamnya terdapat 1 (satu) klip plastic transfaran yang didalamnya berisi 1 (satu) klip plastic didalamnya berisi Kristal beningnarkotika jenis shabu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Menyatakan Terdakwa Saidah Bin (Alm) Lupak tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I, sebagaimana dalam dakwaan pertama; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 7 (tujuh) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa:1. 1 (satu) dompet warna biru yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;2. 1 (satu) jaket warna hitam di kantong terdapat:- 1 (satu) dompet kecil warna putih motif bunga yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;Dirampas untuk dimusnahkan; 1 (satu) dompet warna hitam merek Consina yang di dalamnya terdapat uang tunai sejumlah Rp1.300.000,-(satu juta tiga ratus ribu rupiah);Dikembalikan kepada Terdakwa; 1 (satu) unit HP Samsung warna hitam dengan nomor IMEI : 351907102698850 dengan nomor SIM Cardnya : 087730359404; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 356381083391189 dan IMEI 2 : 356382083391187 dengan nomor SIM Cardnya : 081999418103; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 357542061584926 dan IMEI 2 : 357543061584924 dengan nomor SIM Cardnya : 081935932000; Uang sejumlah Rp654.000(enam ratus lima puluh empat ribu rupiah);Dirampas untuk negara; Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa Adam Husaini als. Adam telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?penyalahguna Narkotika Golongan I untuk diri sendiri? sebagamana dalam dakwaan Alternatif Kedua Penuntut Umum ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 2 (dua) tahun; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : a. 1 (satu) bungkus rokok Surya 12 yang didalamnya terdapat 1 (satu) klip plastic transfaran yang didalamnya berisi 1 (satu) klip plastic didalamnya berisi Kristal beningnarkotika jenis shabu; Dirampas untuk dimusnahkan ; b. 1(satu) unit HP OPPO warna Gold Dirampas untuk negara ;   6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>428/Pid.Sus/2024/PN Mtr</t>
+          <t>424/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -908,19 +908,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>: 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 2,30 (dua koma tiga nol) gram</t>
+          <t>:1. 1 (satu) paket dari kotak kardus yang dililit lakban warna coklat dengan nomor Resi JD0367049030 atas nama pengirim : Heru, Lubuk Pakam, No. Telp : 081399444142 dan nama penerima : Toko Aki Yona, Jl. Jendral Sudirman Kec. Cakranegara Kota Mataram (simpang empat Sayang ? Sayang), No Telp. 082235314541 yang didalamnya berisi:a. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putuh Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,66 (sembilan sembilan koma enam enam) gram</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa IMAM HIDAYAT Alias YAYAT Bin M. RUSLYN, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum, memiliki Narkotika Golongan 1 dalam bentuk tanaman,? sebagaimana dalam Dakwaan Kedua Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa IMAM HIDAYAT Alias YAYAT Bin M. RUSLYN, dengan pidana penjara selama 4 ( empat ) Tahun dan pidana Denda sebesar Rp. 800.000.000,- ( delapan ratus juta rupiah ), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 2,30 (dua koma tiga nol) gram; 1 (satu) linting yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 0,41 (nol koma empat satu) gram; 1 (satu) buah dompet kulit warna cokelat; 1 (satu) buah box plastik transparan yang didalamnya berisi: 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga narkotika jenis Ganja dengan berat bruto 3,45 (tiga koma empat lima) Gram; 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga narkotika jenis Ganja dengan berat bruto 0,95 (nol koma sembilan lima) Gram; 1 (satu) bungkus klip plastik bening merk Nasional; 1 (satu) unit timbangan digital warna silver; 1 (satu) unit timbangan digital warna hitam; 1 (satu) pack paper merk Smoke-Box; 1 (satu) pack paper merk Raw. 1 (satu) buah plastik bening yang berisi 10 (sepuluh) buah daun pisang yang di bentuk kerucut (kojong) yang masing-masing kojong didalamnya berisi jamur (Mushroom) dengan rincian : Kojong pertama dengan berat bruto 9,49 (sembilan koma empat sembilan) gram; Kojong kedua dengan berat bruto 7,79 (tujuh koma tujuh sembilan) gram; Kojong ketiga dengan berat bruto 8,51 (delapan koma lima satu) gram; Kojong keempat dengan berat bruto 7,58 (tujuh koma lima delapan) gram; Kojong kelima dengan berat bruto 7,69 (tujuh koma enam sembilan) gram; Kojong keenam dengan berat bruto 9,13 (sembilan koma satu tiga) gram; Kojong ketujuh dengan berat bruto 9,88 (sembilan koma delapan delapan) gram; Kojong kedelapan dengan berat bruto 7,24 (tujuh koma dua empat) gram; Kojong kesembilan dengan berat bruto 8,49 (delapan koma empat sembilan) gram; Kojong kesepuluh dengan berat bruto 11,16 (sebelas koma satu enam) gram; Dirampas untuk dimusnahkan. 1 (satu) Unit Handphone (hp) merk Iphone 7 warna hitam dengan cassing warna ungu. Uang tunai sejumlah Rp.600.000,- (enam ratus ribu rupiah); Dirampas untuk negara ; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI:1. Menyatakan Terdakwa Robinson Bin (alm) Joni Musta?al Alias Robi tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menerima NarkotikaGolongan I yang beratnya melebihi 5(lima) gram, sebagaimana dalam dakwaan kesatu;2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 14 (empat belas) .tahun dan denda sejumlah Rp.2.000.000.000,00 (dua miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;4. Menetapkan agar Terdakwa tetap ditahan;5. Menetapkan barang bukti berupa:1. 1 (satu) paket dari kotak kardus yang dililit lakban warna coklat dengan nomor Resi JD0367049030 atas nama pengirim : Heru, Lubuk Pakam, No. Telp : 081399444142 dan nama penerima : Toko Aki Yona, Jl. Jendral Sudirman Kec. Cakranegara Kota Mataram (simpang empat Sayang ? Sayang), No Telp. 082235314541 yang didalamnya berisi:a. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putuh Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,66 (sembilan sembilan koma enam enam) gram;2. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putih Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,54 (sembilan sembilan koma lima empat) gram;3. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putih Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,41(sembilan sembilan koma empat satu) gram;Jadi berat bersih keseluruhan dari 3 (tiga) bungkus kristal putih Narkotikajenis shabu tersebut seberat 298,61(dua sembilan delapan koma enam satu) gram. Kemudian telah disisihkan untuk pengujian secara laboratorium di Balai Besar Pom Mataram seberat 0,06 (nol koma nol enam) gram dan disisihkan untuk barang bukti dipersidangan sebanyak 0,06 (nol koma nol enam) gram sedangkan sisanya sebanyak 298,49 (dua ratus embilan puluh delapan koma empat sembilan) gram dimusnahkan di Kantor Ditrektorat Reserse Narkoba Polda NTB;b. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing - masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat pil ekstasi:a. seberat 37,60 ( tiga tujuh koma enam nol) gram;b. seberat 36,78 ( tiga enam koma tujuh delapan) gram;c. seberat 37,55 ( tiga tujuh koma lima lima) gram;2) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing-masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat pil ekstasi:a. seberat 37,64 ( tiga tujuh koma enam empat) gram;b. seberat 37,10 ( tiga tujuh koma satu nol) gram;c. seberat 37,50 ( tiga tujuh koma lima nol) gram;3) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing-masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat yang diduga pil ekstasi:a. seberat 37,52 ( tiga tujuh koma lima dua) gram;b. seberat 37,35 ( tiga tujuh koma tiga lima) gram;c. seberat 37,64 ( tiga tujuh koma enam empat) gram;Jadi jumlah berat bersih keseluruhan 9 (sembilan) bungkus plastik transparan yang berisi pil berbentuk segitiga warna coklat yang Narkotikajenis pil ekstasi sejumlah 900 (sembilan ratus) butir seberat 336,68 (tiga tiga enam koma enam delapan) gram. Kemudian disisihkan untuk pengujian secara Laboratorium di Balai Besar Pom Mataram sebanyak 0,36 (nol koma tiga enam) gram dan disisihkan untuk barang bukti dipersidangan sebanyak 0,37 (nol koma tiga tujuh) gram sedangkan sisanya 335,95 (tiga ratus tiga puluh lima koma sembilan lima) gram dimusnahkan di Kantor Ditrektorat Reserse Narkoba Polda NTB;Dirampas untuk dimusnahkan;2. 1 (satu) HP Infinix Note 30 warna biru gelap dengan nomor IMEI 1 : 356785873029140 dan IMEI 2: 356785873029157 dengan nomor simcard Simpati : 082235314541 dan simcar XL : 087815880578;3. 1 (satu) HP OPPO A3S warna hitam dengan nomor IMEI 1 : 862113045804893 dan nomor IMEI 2 : 862113045804885 dengan nomor simcard XL : 087851412427;Dirampas untuk negara;5. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>435/Pid.Sus/2024/PN Mtr</t>
+          <t>428/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -930,19 +930,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>:  1 (satu) dus paket bertuliskan J&amp;T Express AMI-AMI02-02 JD0376088851 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 1 (satu) buah tas bertuliskan McDonald?s yang di dalamnya terdapat 1 (satu) buah tas plastic warna ungu yang di dalamnya terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat dengan berat Brutto Kode A 992,86 (sembilan ratus sembilan puluh dua koma delapan enam) gram 1 (satu) dus paket bertuliskan JNE nomor Connote : 440930000646924 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 2 (dua) buah buah kardus/kotak warna coklat yang di dalamnya masing-masing terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat, masing-masing dengan berat Brutto Kode B 952,95 (sembilan ratus lima puluh dua koma sembilan lima) gram dan Kode C 940,69 (sembilan ratus empat puluh koma enam sembilan) gram 2 (dua) buah amplop warna cokelat   Dirampas untuk dimusnahkan 1 (satu) buah HP android merk Samsung warna Navi Dirampas oleh Negara   6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah)</t>
+          <t>: 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 2,30 (dua koma tiga nol) gram</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>M E N G A D I L I: Menyatakan Terdakwa NOVA KURNIAWAN SYAHPUTRA telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak dan melawan hukum membeli dan menjual Narkotika Golongan I dalam bentuk tanaman beratnya melebihi 1 (satu) kilogram sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 13 (tiga belas) tahun dan denda sebesar Rp1.000.000.000,00 (satu milyar) dengan ketentuan jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa :  1 (satu) dus paket bertuliskan J&amp;T Express AMI-AMI02-02 JD0376088851 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 1 (satu) buah tas bertuliskan McDonald?s yang di dalamnya terdapat 1 (satu) buah tas plastic warna ungu yang di dalamnya terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat dengan berat Brutto Kode A 992,86 (sembilan ratus sembilan puluh dua koma delapan enam) gram 1 (satu) dus paket bertuliskan JNE nomor Connote : 440930000646924 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 2 (dua) buah buah kardus/kotak warna coklat yang di dalamnya masing-masing terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat, masing-masing dengan berat Brutto Kode B 952,95 (sembilan ratus lima puluh dua koma sembilan lima) gram dan Kode C 940,69 (sembilan ratus empat puluh koma enam sembilan) gram 2 (dua) buah amplop warna cokelat   Dirampas untuk dimusnahkan 1 (satu) buah HP android merk Samsung warna Navi Dirampas oleh Negara   6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa IMAM HIDAYAT Alias YAYAT Bin M. RUSLYN, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum, memiliki Narkotika Golongan 1 dalam bentuk tanaman,? sebagaimana dalam Dakwaan Kedua Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa IMAM HIDAYAT Alias YAYAT Bin M. RUSLYN, dengan pidana penjara selama 4 ( empat ) Tahun dan pidana Denda sebesar Rp. 800.000.000,- ( delapan ratus juta rupiah ), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 2,30 (dua koma tiga nol) gram; 1 (satu) linting yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 0,41 (nol koma empat satu) gram; 1 (satu) buah dompet kulit warna cokelat; 1 (satu) buah box plastik transparan yang didalamnya berisi: 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga narkotika jenis Ganja dengan berat bruto 3,45 (tiga koma empat lima) Gram; 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga narkotika jenis Ganja dengan berat bruto 0,95 (nol koma sembilan lima) Gram; 1 (satu) bungkus klip plastik bening merk Nasional; 1 (satu) unit timbangan digital warna silver; 1 (satu) unit timbangan digital warna hitam; 1 (satu) pack paper merk Smoke-Box; 1 (satu) pack paper merk Raw. 1 (satu) buah plastik bening yang berisi 10 (sepuluh) buah daun pisang yang di bentuk kerucut (kojong) yang masing-masing kojong didalamnya berisi jamur (Mushroom) dengan rincian : Kojong pertama dengan berat bruto 9,49 (sembilan koma empat sembilan) gram; Kojong kedua dengan berat bruto 7,79 (tujuh koma tujuh sembilan) gram; Kojong ketiga dengan berat bruto 8,51 (delapan koma lima satu) gram; Kojong keempat dengan berat bruto 7,58 (tujuh koma lima delapan) gram; Kojong kelima dengan berat bruto 7,69 (tujuh koma enam sembilan) gram; Kojong keenam dengan berat bruto 9,13 (sembilan koma satu tiga) gram; Kojong ketujuh dengan berat bruto 9,88 (sembilan koma delapan delapan) gram; Kojong kedelapan dengan berat bruto 7,24 (tujuh koma dua empat) gram; Kojong kesembilan dengan berat bruto 8,49 (delapan koma empat sembilan) gram; Kojong kesepuluh dengan berat bruto 11,16 (sebelas koma satu enam) gram; Dirampas untuk dimusnahkan. 1 (satu) Unit Handphone (hp) merk Iphone 7 warna hitam dengan cassing warna ungu. Uang tunai sejumlah Rp.600.000,- (enam ratus ribu rupiah); Dirampas untuk negara ; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>438/Pid.Sus/2024/PN Mtr</t>
+          <t>433/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -952,19 +952,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 2,30 (dua koma tiga nol) gram</t>
+          <t>: 1 (Satu) Bungkus rokok merk TWIZZ warna ungu yang didalamnya terdapat :  1 (Satu) klip plastik transparan yang didalam klip plastik berisi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa SALMAN, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan tanpa hak atau melawan hukum, menjual atau menjadi perantara dalam jual beli Narkotika Golongan 1 bukan tanaman, yang beratnya melebihi 5 (lima) gram? sebagaimana dalam Dakwaan Kesatu Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa SALMAN, dengan pidana penjara selama 12 (dua belas) Tahun dan pidana Denda sebesar Rp. 1.000.000.000,00 (satu miliar rupiah), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 2,30 (dua koma tiga nol) gram; 1 (satu) buah plastic klip bening Kode B berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 1,07 (satu koma nol tujuh) gram; 1 (satu) buah plastic klip bening Kode C bertuliskan ?150? berisi 5 (lima) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode C1 s/d Kode C5 dengan berat Brutto 1,46 (satu koma empat enam); 1 (satu) buah plastic klip bening Kode D bertuliskan ?200? berisi 10 (sepuluh) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode D1 s/d Kode D10 dengan berat Brutto 3,01 (tiga koma nol satu); 1 (satu) buah plastic klip bening Kode E bertuliskan ?150? berisi 6 (enam) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode E1 s/d Kode E6 dengan berat Brutto 1,67 (satu koma enam tujuh); 1 (satu) buah plastic klip bening Kode F bertuliskan ?150? berisi 5 (lima) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode F1 s/d Kode F5 dengan berat Brutto 1,43 (satu koma empat tiga); 1 (satu) buah plastic klip bening Kode G bertuliskan ?150? berisi 5 (lima) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode G1 s/d Kode G5 dengan berat Brutto 1,42 (satu koma empat dua); 1 (satu) buah plastic klip bening Kode H bertuliskan ?100? berisi 13 (tiga belas) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode H1 s/d Kode H13 dengan berat Brutto 3,39 (tiga koma tiga sembilan); 1 (satu) buah plastic klip bening Kode I bertuliskan ?100? berisi 10 (sepuluh) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode I1 s/d Kode I10 dengan berat Brutto 2,65 (dua koma enam lima); 1 (satu) buah plastic klip bening Kode J bertuliskan ?100? berisi 10 (sepuluh) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode J1 s/d Kode J10 dengan berat Brutto 2,65 (dua koma enam lima); 1 (satu) buah plastic klip bening kosong berukuran besar; 1 (satu) lembar catatan penjualan; 1 (satu) buah timbangan elektrik warna hitam; 1 (satu) buah pipet plastic yang ujungnya telah diruncingkan; Dirampas untuk dimusnahkan 1 (satu) unit HP Android merk SAMSUNG warna hitam; Uang Tunai sejumlah Rp 300.000,- (tiga ratus ribu rupiah). Dirampas oleh Negara; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa Soni Sanjaya Als.Soni telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak memiliki,dan menguasai Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kedua Penuntut Umum ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan denda sebesar Rp.800.000.000,- (delapan ratus juta rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (Satu) Bungkus rokok merk TWIZZ warna ungu yang didalamnya terdapat :  1 (Satu) klip plastik transparan yang didalam klip plastik berisi ; 1 (satu) klip plastik transparan yang didalamnya berisi kristal bening diduga narkotika jenis shabu;   1 (Satu) buah tas tangan warna abu-abu bertuliskan PRIMUNOX IMUNE BOOSTER yang didalamnya berisi :  1 (Satu) buah dompet kecil warna cokelat bertuliskan TOKO MAS SINAR BERLIAN; 1 (Satu) Buah gunting kecil dengan gagang warna hijau; 1 (Satu) Buah potongan kuku merk DR; 2 (Dua) buah pipet Kaca ; 1 (Satu) Buah pipet plastik warna putih yang salah satu ujungnya sudah diruncingkan; 1 (Satu) Buah alat hisab sabu atau bong yang terbuat dari botol plastik; 1 (Satu) Buah kantong kain warna hitam yang didalamnya berisi : 1 (Satu) Buah Bekas pembungkus LCD Handphone warna hitam bertuliskan ORIGINAL QUALITY yang didalam pembungkus tersebut berisi 40 (Empat puluh) klip plastik transparan kosong;   Dirampas untuk dimusnahkan. 1 (Satu) buah handphone merk Oppo warna gold yang terpasang ; 1 (satu) buah sim card XL dengan nomor 085971647112; Dirampas untuk Negara; 1 (Satu) buah dompet warna hitam yang di dalamnya berisi uang tunai sebesar Rp. 200.000,- (dua ratus ribu rupiah) ; Dikembalikan kepada terdakwa ; Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>441/Pid.Sus/2024/PN Mtr</t>
+          <t>434/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -974,19 +974,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah bungkus rokok merk CONNEXT warna coklat yang mana pada bagian plastiknya terdapat gulungan tissue didalamnya berisikan 1 (satu) poket kristal bening diduga Narkotika 2 jenis Sabu</t>
+          <t>: 1 (satu) buah bungkus rokok merk CONNEXT yang didalamnya terdapat gulungan tissue yang didalamnya terdapat 1 (satu) buah klip bening yang didalamnya terdapat 1 (satu) buah klip bening berisikan kristal bening diduga Narkotika jenis Sabu dengan berat brutto 5,05 (lima koma nol lima) / netto 4,74 (empat koma tujuh empat) gram</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MENGADILI : Menyatakan Terdakwa Pahrozi tersebut di atas terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjadi perantara dalam jual beli Narkotika golongan I sebagaimana dalam dakwaan Alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan 6 (enam) bulan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa : 1 (satu) buah bungkus rokok merk CONNEXT warna coklat yang mana pada bagian plastiknya terdapat gulungan tissue didalamnya berisikan 1 (satu) poket kristal bening diduga Narkotika 2 jenis Sabu; 1 (satu) buah kantong kain warna hitam didalamnya terdapat 2 (dua) bendel plastik klip bening; 1 (satu) buah dompet warna putih bertuliskan Toko Emas Hidayat Dua didalamnya terdapat :   2 (dua) buah pipa kaca. 1 (satu) buah korek api gas tanpa tutup kepala. 1 (satu) buah pipet plastik yang ujungnya telah di runcingkan.  Dirampas untuk dimusnahkan ;  1 (satu) buah hp android merk realmi warna biru ;\ Dirampas Untuk Negara;  Uang tunai sejumlah Rp. 507.000,-;  Dikembalikan kepada Terdakwa ; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00(dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI: Menyatakan Terdakwa I. Ahmad Jalaludin, Terdakwa II. Febriyanto, Terdakwa III. Riska Haryani, tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana permufakatan jahat untuk melakukan tindak pidana narkotika golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 6 (enam) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar lima ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) buah bungkus rokok merk CONNEXT yang didalamnya terdapat gulungan tissue yang didalamnya terdapat 1 (satu) buah klip bening yang didalamnya terdapat 1 (satu) buah klip bening berisikan kristal bening diduga Narkotika jenis Sabu dengan berat brutto 5,05 (lima koma nol lima) / netto 4,74 (empat koma tujuh empat) gram; 1 (satu) buah timbangan elektrik merk CAMRY; 1 (satu) buah pisau; Dirampas untuk dimusnahkan 1 (satu) buah hp android merk Infinix warna hijau milik RISKA HARYANI; 1 (satu) buah hp Redmi warna abu milik FEBRIYANTO; 1 (satu) buah hp Redmi warna biru milik AHMAD JALALUDIN; Dirampas oleh Negara 1 (satu) unit sepeda motor merk yamaha mio M3 warna kuning; Dikembalikan kepada pemilik motor Atas Nama CANDRAWATI6. Membebankan kepada Para Terdakwa membayar biaya perkara masing-masing sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>443/Pid.Sus/2024/PN Mtr</t>
+          <t>435/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -996,19 +996,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>:  1 (satu) buah tas selempang warna biru muda yang didalamnya berisi :  1 (satu) klip plastic warna bening yang didalamnya beriis dua poket klip plastic warna bening yang masing-masing poket tersebut berisi Kristal bening diduga Narkotika jenis shabu</t>
+          <t>:  1 (satu) dus paket bertuliskan J&amp;T Express AMI-AMI02-02 JD0376088851 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 1 (satu) buah tas bertuliskan McDonald?s yang di dalamnya terdapat 1 (satu) buah tas plastic warna ungu yang di dalamnya terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat dengan berat Brutto Kode A 992,86 (sembilan ratus sembilan puluh dua koma delapan enam) gram 1 (satu) dus paket bertuliskan JNE nomor Connote : 440930000646924 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 2 (dua) buah buah kardus/kotak warna coklat yang di dalamnya masing-masing terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat, masing-masing dengan berat Brutto Kode B 952,95 (sembilan ratus lima puluh dua koma sembilan lima) gram dan Kode C 940,69 (sembilan ratus empat puluh koma enam sembilan) gram 2 (dua) buah amplop warna cokelat   Dirampas untuk dimusnahkan 1 (satu) buah HP android merk Samsung warna Navi Dirampas oleh Negara   6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MENGADILI: 1. Menyatakan Terdakwa Pataya Nurahim Alias Didik bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman? sebagaimana dalam surat dakwaan alternatief Kedua Penuntut Umum. 2. Menjatuhkan pidana kepada Terdakwa Pataya Nurahim Alias Didik berupa pidana penjara selama 5 (lima) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) apa bila denda tidak dibayar maka diganti 3 (tiga) bulan penjara ; 3. Menetapkan lamanya Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menyatakan barang bukti berupa :  1 (satu) buah tas selempang warna biru muda yang didalamnya berisi :  1 (satu) klip plastic warna bening yang didalamnya beriis dua poket klip plastic warna bening yang masing-masing poket tersebut berisi Kristal bening diduga Narkotika jenis shabu; 1 (satu) buah pipet warna putih yang sudah dimodifikasi menyerupai skop; 1 (satu) buah kater warna kuning; 1 (satu) buah Hp OPPO warna biru lembayung dengan sofcase warna coklat dengan no Wa 089535531133298;  Dirampas untuk dimusnahkan;6. Menetapkan agar Terdakwa membayar biaya perkara sebesar Rp2.500,00 (dua ribu lima ratus rupiah).</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa NOVA KURNIAWAN SYAHPUTRA telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak dan melawan hukum membeli dan menjual Narkotika Golongan I dalam bentuk tanaman beratnya melebihi 1 (satu) kilogram sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 13 (tiga belas) tahun dan denda sebesar Rp1.000.000.000,00 (satu milyar) dengan ketentuan jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa :  1 (satu) dus paket bertuliskan J&amp;T Express AMI-AMI02-02 JD0376088851 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 1 (satu) buah tas bertuliskan McDonald?s yang di dalamnya terdapat 1 (satu) buah tas plastic warna ungu yang di dalamnya terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat dengan berat Brutto Kode A 992,86 (sembilan ratus sembilan puluh dua koma delapan enam) gram 1 (satu) dus paket bertuliskan JNE nomor Connote : 440930000646924 dengan nama penerima PUTRI ANGSARI WIDIATI dengan Nomor HP 087840018603 didalamnya terdapat 2 (dua) buah buah kardus/kotak warna coklat yang di dalamnya masing-masing terdapat 1 (satu) ball batang, daun dan biji kering diduga narkotika jenis ganja yang dilakban dengan lakban warna coklat, masing-masing dengan berat Brutto Kode B 952,95 (sembilan ratus lima puluh dua koma sembilan lima) gram dan Kode C 940,69 (sembilan ratus empat puluh koma enam sembilan) gram 2 (dua) buah amplop warna cokelat   Dirampas untuk dimusnahkan 1 (satu) buah HP android merk Samsung warna Navi Dirampas oleh Negara   6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>444/Pid.Sus/2024/PN Mtr</t>
+          <t>436/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1018,19 +1018,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>: 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN</t>
+          <t>: 1 (satu) buah klip bening didalamnya berisikan kristal bening diduga narkotika jenis Shabu dengan berat brutto 1,26 (satu koma dua enam) gram</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa LALU SAMSUL RIADI Als SAMSUL Bin LALU SUPARDI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?dengan sengaja tidak melaporkan adanya tindak pidana,? sebagaimana dalam Dakwaan Ketiga Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa LALU SAMSUL RIADI Als SAMSUL Bin LALU SUPARDI, dengan pidana penjara selama 1 ( satu ) Tahun ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN ;6. Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa I I MADE HINDU dan Terdakwa II I KETUT BUDI KUSUMA tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, menyerahkan Narkotika Golongan I? sebagaimana dalam dakwaan alternatif pertama? ; Menjatuhkan Pidana kepada Terdakwa I I MADE HINDU dan Terdakwa II I KETUT BUDI KUSUMA dengan pidana penjara masing ? masing selama 6 (enam) tahun dan 6 (enam) bulan serta denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan ; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan agar Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa : 1 (satu) buah klip bening didalamnya berisikan kristal bening diduga narkotika jenis Shabu dengan berat brutto 1,26 (satu koma dua enam) gram; 1 (satu) bendel plastik klip bening; 2 (dua) buah pipet plastik yang ujungnya telah diruncingkan; 1 (satu) buah timbangan elektrik; 1 (satu) buah bong/alat hisap shabu yang masih terpasang pipa kaca; 2 (dua) buah korep api gas; 2 (dua) buah gunting;Dirampas untuk dimusnahkan ; Uang tunai Rp. 565.000,-(lima ratus enam puluh lima ribu rupiah); 1 (satu) buah hp android merk Oppo warna hitam; 1 (satu) buah hp kecil merk Nokia warna putih; 1 (satu) buah hp kecil merk Nokia warna hitamDirampas oleh Negara ;6. Membebankan kepada Para Terdakwa untuk membayar biaya perkara masing-masing sejumlah Rp2.500,- (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>445/Pid.Sus/2024/PN Mtr</t>
+          <t>438/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1040,19 +1040,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>: Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). Dirampas Untuk Negara. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462. Tepatnya di saku celana yang terdakwa RAMDAN pergunakan saat terjadinya penangkapan 2 (dua) bungkus plastik klip transparan yang didalamnya terdapat kristal putih yang diduga narkotika jenis sabu masing-masing berat bersih 0,10 (nol koma nol sepuluh) gram dan 1,50 (satu koma lima puluh) gram. 1 (satu) bungkus plastik klip transparan yang didalmnya terdapat bubuk putih yang diduga narkotika jenis sabu dengan berat bersih 0,94 (nol koma Sembilan puluh empat) gram. 2 (dua) bungkus daun kering yang diduga narkotika jenis ganja masing-masing berat bersih 1,03 (satu koma nol tiga) gram dan 2,89 (dua koma delpan puluh Sembilan) gram. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone merk Redmi warna abu. 1 (satu) pipet kaca masih berisi sabu sisa pakai. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 (tiga) alat hisap (bong). 3 (tiga) korek api gas. 1 (satu) KTP atas nama BAHRAIN. Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN Dijadikan bukti didalam berkas perkara BAHRAIN Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah)</t>
+          <t>: 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 2,30 (dua koma tiga nol) gram</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa RAMDAN Alias RAMDAN Bin (Alm) MARWI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan permufakatan jahat, secara melawan hukum menjadi perantara dalam jual beli Narkotika Golongan I? sebagaimana dalam Dakwaan Kesatu Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa RAMDAN Alias RAMDAN Bin (Alm) MARWI, dengan pidana penjara selama 7 ( tujuh ) Tahun dan 6 ( enam ) bulan, dan pidana Denda sebesar Rp. 1.000.000.000,- ( satu Milyar rupiah), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). Dirampas Untuk Negara. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462. Tepatnya di saku celana yang terdakwa RAMDAN pergunakan saat terjadinya penangkapan 2 (dua) bungkus plastik klip transparan yang didalamnya terdapat kristal putih yang diduga narkotika jenis sabu masing-masing berat bersih 0,10 (nol koma nol sepuluh) gram dan 1,50 (satu koma lima puluh) gram. 1 (satu) bungkus plastik klip transparan yang didalmnya terdapat bubuk putih yang diduga narkotika jenis sabu dengan berat bersih 0,94 (nol koma Sembilan puluh empat) gram. 2 (dua) bungkus daun kering yang diduga narkotika jenis ganja masing-masing berat bersih 1,03 (satu koma nol tiga) gram dan 2,89 (dua koma delpan puluh Sembilan) gram. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone merk Redmi warna abu. 1 (satu) pipet kaca masih berisi sabu sisa pakai. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 (tiga) alat hisap (bong). 3 (tiga) korek api gas. 1 (satu) KTP atas nama BAHRAIN. Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN Dijadikan bukti didalam berkas perkara BAHRAIN Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa SALMAN, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan tanpa hak atau melawan hukum, menjual atau menjadi perantara dalam jual beli Narkotika Golongan 1 bukan tanaman, yang beratnya melebihi 5 (lima) gram? sebagaimana dalam Dakwaan Kesatu Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa SALMAN, dengan pidana penjara selama 12 (dua belas) Tahun dan pidana Denda sebesar Rp. 1.000.000.000,00 (satu miliar rupiah), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 2,30 (dua koma tiga nol) gram; 1 (satu) buah plastic klip bening Kode B berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 1,07 (satu koma nol tujuh) gram; 1 (satu) buah plastic klip bening Kode C bertuliskan ?150? berisi 5 (lima) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode C1 s/d Kode C5 dengan berat Brutto 1,46 (satu koma empat enam); 1 (satu) buah plastic klip bening Kode D bertuliskan ?200? berisi 10 (sepuluh) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode D1 s/d Kode D10 dengan berat Brutto 3,01 (tiga koma nol satu); 1 (satu) buah plastic klip bening Kode E bertuliskan ?150? berisi 6 (enam) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode E1 s/d Kode E6 dengan berat Brutto 1,67 (satu koma enam tujuh); 1 (satu) buah plastic klip bening Kode F bertuliskan ?150? berisi 5 (lima) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode F1 s/d Kode F5 dengan berat Brutto 1,43 (satu koma empat tiga); 1 (satu) buah plastic klip bening Kode G bertuliskan ?150? berisi 5 (lima) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode G1 s/d Kode G5 dengan berat Brutto 1,42 (satu koma empat dua); 1 (satu) buah plastic klip bening Kode H bertuliskan ?100? berisi 13 (tiga belas) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode H1 s/d Kode H13 dengan berat Brutto 3,39 (tiga koma tiga sembilan); 1 (satu) buah plastic klip bening Kode I bertuliskan ?100? berisi 10 (sepuluh) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode I1 s/d Kode I10 dengan berat Brutto 2,65 (dua koma enam lima); 1 (satu) buah plastic klip bening Kode J bertuliskan ?100? berisi 10 (sepuluh) poket plastic klip bening berisi kristal bening diduga narkotika jenis sabu dari Kode J1 s/d Kode J10 dengan berat Brutto 2,65 (dua koma enam lima); 1 (satu) buah plastic klip bening kosong berukuran besar; 1 (satu) lembar catatan penjualan; 1 (satu) buah timbangan elektrik warna hitam; 1 (satu) buah pipet plastic yang ujungnya telah diruncingkan; Dirampas untuk dimusnahkan 1 (satu) unit HP Android merk SAMSUNG warna hitam; Uang Tunai sejumlah Rp 300.000,- (tiga ratus ribu rupiah). Dirampas oleh Negara; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>446/Pid.Sus/2024/PN Mtr</t>
+          <t>441/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1062,19 +1062,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>: 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN</t>
+          <t>: 1 (satu) buah bungkus rokok merk CONNEXT warna coklat yang mana pada bagian plastiknya terdapat gulungan tissue didalamnya berisikan 1 (satu) poket kristal bening diduga Narkotika 2 jenis Sabu</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa GUNAWAN Alias GUN Bin KAMARUDIN, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?dengan sengaja tidak melaporkan adanya tindak pidana,? sebagaimana dalam Dakwaan Ketiga Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa GUNAWAN Alias GUN Bin KAMARUDIN, dengan pidana penjara selama 1 ( satu ) Tahun ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN ; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI : Menyatakan Terdakwa Pahrozi tersebut di atas terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjadi perantara dalam jual beli Narkotika golongan I sebagaimana dalam dakwaan Alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan 6 (enam) bulan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa : 1 (satu) buah bungkus rokok merk CONNEXT warna coklat yang mana pada bagian plastiknya terdapat gulungan tissue didalamnya berisikan 1 (satu) poket kristal bening diduga Narkotika 2 jenis Sabu; 1 (satu) buah kantong kain warna hitam didalamnya terdapat 2 (dua) bendel plastik klip bening; 1 (satu) buah dompet warna putih bertuliskan Toko Emas Hidayat Dua didalamnya terdapat :   2 (dua) buah pipa kaca. 1 (satu) buah korek api gas tanpa tutup kepala. 1 (satu) buah pipet plastik yang ujungnya telah di runcingkan.  Dirampas untuk dimusnahkan ;  1 (satu) buah hp android merk realmi warna biru ;\ Dirampas Untuk Negara;  Uang tunai sejumlah Rp. 507.000,-;  Dikembalikan kepada Terdakwa ; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00(dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>463/Pid.Sus/2024/PN Mtr</t>
+          <t>442/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1084,19 +1084,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>:  1 (satu) celana pendek warna coklat yang di dalamnya terdapat 1 (satu) bungkus plastik klip transparan yang didalamnya terdapat 3 (tiga) bungkus kristal putih yang diduga Narkotika jenis sabu masing-masing dengan berat bersih seberat 0,050 (nol koma nol lima puluh) gram, 0,042 (nol koma nol empat puluh dua) gram dan 0,054 (nol koma nol lima puluh empat) gram 1 (satu) bungkus klip transparan yang di dalamnya terdapat kristal putih yang diduga Narkotika jenis sabu dengan berat bersih 0,151 (nol koma seratus lima puluh satu) gram 1 (satu) kotak kaca mata warna hitam yang di dalamnya terdapat   2 (dua) bungkus klip transparan bekas pembungkus Narkotika jenis sabu. 4 (empat) plastik klip transparan. 1 (satu) tutup botol warna oranye yang sudah tersambung dengan 1 (satu) pipet plastik warna putih bergaris merah dan 1 (satu) pipet plastik warna putih. 3 (tiga) pipet plastik warna putih bergaris merah yang ujungnya berbentuk sekop. 1 (satu) korek api gas 1 (satu) pipet kaca 1 (satu) sumbu warna merah muda yang tersambung dengan kertas rokok warna emas 1 (satu) sumbu warna kuning yang tersambung dengan kertas rokok warna emas.  1 (satu) unit Handphone merek Nokia warna hitam dengan sim card XL (087864796972) 1 (satu) unit Handphone merek Vivo warna hitam dengan Sim card Tri (08954000871939) 1 (satu) Handphone merek Redmi warna hitam dengan Sim card XL (087796789582) Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah)   Dipergunakan dalam perkara atas nama I GEDE OKA SUARTANA Alias GEDE</t>
+          <t>: 2 (dua) klip plastik transparan yang pada masing-masing dari klip plastik tersebut di dalamnya berisi kristal bening Narkotika jenis shabu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>M E N G A D I L I Menyatakan Terdakwa I GEDE MATARAM Alias LALAM telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Permufakatan ?Tanpa Hak Menjual Narkotika Golongan I? sebagaimana dakwaan alternatif pertama Penuntut Umum; Menjatuhkan Pidana terhadap Terdakwa tersebut oleh karena itu dengan pidana penjara selama 7 (tujuh) Tahun Dan pidada senda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan jika denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Memerintahkan agar barang bukti berupa :  1 (satu) celana pendek warna coklat yang di dalamnya terdapat 1 (satu) bungkus plastik klip transparan yang didalamnya terdapat 3 (tiga) bungkus kristal putih yang diduga Narkotika jenis sabu masing-masing dengan berat bersih seberat 0,050 (nol koma nol lima puluh) gram, 0,042 (nol koma nol empat puluh dua) gram dan 0,054 (nol koma nol lima puluh empat) gram 1 (satu) bungkus klip transparan yang di dalamnya terdapat kristal putih yang diduga Narkotika jenis sabu dengan berat bersih 0,151 (nol koma seratus lima puluh satu) gram 1 (satu) kotak kaca mata warna hitam yang di dalamnya terdapat   2 (dua) bungkus klip transparan bekas pembungkus Narkotika jenis sabu. 4 (empat) plastik klip transparan. 1 (satu) tutup botol warna oranye yang sudah tersambung dengan 1 (satu) pipet plastik warna putih bergaris merah dan 1 (satu) pipet plastik warna putih. 3 (tiga) pipet plastik warna putih bergaris merah yang ujungnya berbentuk sekop. 1 (satu) korek api gas 1 (satu) pipet kaca 1 (satu) sumbu warna merah muda yang tersambung dengan kertas rokok warna emas 1 (satu) sumbu warna kuning yang tersambung dengan kertas rokok warna emas.  1 (satu) unit Handphone merek Nokia warna hitam dengan sim card XL (087864796972) 1 (satu) unit Handphone merek Vivo warna hitam dengan Sim card Tri (08954000871939) 1 (satu) Handphone merek Redmi warna hitam dengan Sim card XL (087796789582) Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah)   Dipergunakan dalam perkara atas nama I GEDE OKA SUARTANA Alias GEDE; Menetapkan supaya terdakwa dibebani biaya perkara sebesar Rp. 2.500,- (dua ribu lima ratus rupiah);</t>
+          <t>Menyatakan Terdakwa Irawan Jayadi Alias Dona, tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjadi perantara dalam jual beli Narkotika Golongan I, sebagaimana dalam dakwaan pertama; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 7 (tujuh) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 2 (dua) klip plastik transparan yang pada masing-masing dari klip plastik tersebut di dalamnya berisi kristal bening Narkotika jenis shabu; Dirampas untuk dimusnahkan; 1 (satu) buah Handphone merk Huawei warna putih dengan nomor WA (082340568449); 1 (satu) buah Handphone merk Nokia warna biru yang terpasang 1 (satu) buah sim card Telkomsel dengan nomor (082340568449); Uang tunai sejumlah Rp.234.000,-(dua ratus tiga puluh empat ribu rupiah). Dirampas untuk Negara; Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>469/Pid.Sus/2024/PN Mtr</t>
+          <t>443/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>: 10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram</t>
+          <t>:  1 (satu) buah tas selempang warna biru muda yang didalamnya berisi :  1 (satu) klip plastic warna bening yang didalamnya beriis dua poket klip plastic warna bening yang masing-masing poket tersebut berisi Kristal bening diduga Narkotika jenis shabu</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Rosiana Putri Als Putri Kocet Binti Ahmad Fikri tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 ( Tujuh ) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram; 1 (satu) bendel plastik klip transparan Merk NASIONAL; 1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop; Uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah); 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry; 1 (satu) buah tas wanita warna putih tulang; 1 (satu) buah HP iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080. Uang tunai sejumlah Rp. 2.190.000,- (dua juta seratus sembilan puluh ribu rupiah); 1 (satu) buah Dompet Kulit Merk Levi?s warna coklat; 1 (satu) buah HP Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195; 1 (satu) buah HP android merk oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664; 1 (satu) buah Dompet warna hitam; 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493; 1 (satu) buah HP android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345; 1 (satu) unit Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT; Dijadikan barang bukti dalam perkara lain atas nama terdakwa Ni Nyoman Hartini Als Sri Binti Sahri Jupri Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (Dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: 1. Menyatakan Terdakwa Pataya Nurahim Alias Didik bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman? sebagaimana dalam surat dakwaan alternatief Kedua Penuntut Umum. 2. Menjatuhkan pidana kepada Terdakwa Pataya Nurahim Alias Didik berupa pidana penjara selama 5 (lima) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) apa bila denda tidak dibayar maka diganti 3 (tiga) bulan penjara ; 3. Menetapkan lamanya Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menyatakan barang bukti berupa :  1 (satu) buah tas selempang warna biru muda yang didalamnya berisi :  1 (satu) klip plastic warna bening yang didalamnya beriis dua poket klip plastic warna bening yang masing-masing poket tersebut berisi Kristal bening diduga Narkotika jenis shabu; 1 (satu) buah pipet warna putih yang sudah dimodifikasi menyerupai skop; 1 (satu) buah kater warna kuning; 1 (satu) buah Hp OPPO warna biru lembayung dengan sofcase warna coklat dengan no Wa 089535531133298;  Dirampas untuk dimusnahkan;6. Menetapkan agar Terdakwa membayar biaya perkara sebesar Rp2.500,00 (dua ribu lima ratus rupiah).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>470/Pid.Sus/2024/PN Mtr</t>
+          <t>444/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1128,19 +1128,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>: HP iPhone warna gold dengan case transparan yang didalamnya terdapat simcard dengan nomor 087716324493 1 (satu) buah Dompet merk Hush Puppies warna coklat 1 (satu) buah Kartu ATM Mandiri dengan nomor 4616 9948 0986 4889 Dirampas untuk dimusnahkan</t>
+          <t>: 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Nurrahman Als Rahman Bin Aripin tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 9 (Sembilan) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: HP iPhone warna gold dengan case transparan yang didalamnya terdapat simcard dengan nomor 087716324493 1 (satu) buah Dompet merk Hush Puppies warna coklat 1 (satu) buah Kartu ATM Mandiri dengan nomor 4616 9948 0986 4889 Dirampas untuk dimusnahkan; Uang tunai sejumlah Rp. 400.000,- (empat ratus ribu rupiah) Dirampas Untuk Negara; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa LALU SAMSUL RIADI Als SAMSUL Bin LALU SUPARDI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?dengan sengaja tidak melaporkan adanya tindak pidana,? sebagaimana dalam Dakwaan Ketiga Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa LALU SAMSUL RIADI Als SAMSUL Bin LALU SUPARDI, dengan pidana penjara selama 1 ( satu ) Tahun ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN ;6. Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>478/Pid.Sus/2024/PN Mtr</t>
+          <t>445/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah tas sling bag warna hitam</t>
+          <t>: Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). Dirampas Untuk Negara. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462. Tepatnya di saku celana yang terdakwa RAMDAN pergunakan saat terjadinya penangkapan 2 (dua) bungkus plastik klip transparan yang didalamnya terdapat kristal putih yang diduga narkotika jenis sabu masing-masing berat bersih 0,10 (nol koma nol sepuluh) gram dan 1,50 (satu koma lima puluh) gram. 1 (satu) bungkus plastik klip transparan yang didalmnya terdapat bubuk putih yang diduga narkotika jenis sabu dengan berat bersih 0,94 (nol koma Sembilan puluh empat) gram. 2 (dua) bungkus daun kering yang diduga narkotika jenis ganja masing-masing berat bersih 1,03 (satu koma nol tiga) gram dan 2,89 (dua koma delpan puluh Sembilan) gram. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone merk Redmi warna abu. 1 (satu) pipet kaca masih berisi sabu sisa pakai. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 (tiga) alat hisap (bong). 3 (tiga) korek api gas. 1 (satu) KTP atas nama BAHRAIN. Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN Dijadikan bukti didalam berkas perkara BAHRAIN Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Hanafi Als. Fi Bin. H.Kamil Ikhsan, tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I, sebagaimana dalam dakwaan pertama; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 6 (enam) tahun, 6(enam) bulan dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah), dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) buah tas sling bag warna hitam; 1 (satu) buah klip plastik bening yang di dalamnya terdapat: 1 (satu) buah klip plastik bening pertama yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,39 (nol koma tiga sembilan) gram; 1 (satu) buah klip plastik bening kedua yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,36 (nol koma tiga enam) gram; 1 (satu) buah klip plastik bening ketiga yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,33 (nol koma tiga tiga) gram; 1 (satu) buah klip plastik bening keempat yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,33 (nol koma tiga tiga) gram; 1 (satu) buah klip plastik bening kosong;  2 (dua) buah korek api gas; 1 (satu) buah klip plastik bening yang di dalamnya berisi 1 (satu) buah klip plastik yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,54 (nol koma lima empat) gram; 1 (satu) buah potongan pipet plastik warna putih yang salah satu ujungnya diruncingkan; 2 (dua) buah korek api gas; 1 (satu) buah kotak warna hitam yang di dalamnya terdapat barang atau benda berupa:   1 (satu) buah gunting warna hitam; 3 (tiga) buah korek api gas yang sudah dimodifikasi; 2 (dua) buah korek api gas; 1 (satu) buah potongan pipet plastik warna putih yang salah satu ujungnya diruncingkan; 1 (satu) buah alat pemotong kuku; 3 (tiga) buah sumbu; 7 (tujuh) buah klip plastik bening;  1 (satu) buah alat hisap sabu (bong) yang di dalamnya terdapat air dengan di bagian tutupnya terpasang 1 (satu) buah potongan pipet plastik warna putih berbentuk huruf L dan 1 (satu) buah tabung kaca;  Dirampas untuk dimusnahkan; Uang sejumlah Rp.511.000,-(lima ratus sebelas ribu rupiah); 1 (satu) unit sepeda motor honda beat warna hitam dengan nomor polisi DR 2965 HI,Dikembalikan kepada Terdakwa; 1 (satu) handphone merk oppo A3S warna hitam;Dirampas untuk negara; Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa RAMDAN Alias RAMDAN Bin (Alm) MARWI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan permufakatan jahat, secara melawan hukum menjadi perantara dalam jual beli Narkotika Golongan I? sebagaimana dalam Dakwaan Kesatu Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa RAMDAN Alias RAMDAN Bin (Alm) MARWI, dengan pidana penjara selama 7 ( tujuh ) Tahun dan 6 ( enam ) bulan, dan pidana Denda sebesar Rp. 1.000.000.000,- ( satu Milyar rupiah), dengan ketentuan apabila pidana Denda tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). Dirampas Untuk Negara. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462. Tepatnya di saku celana yang terdakwa RAMDAN pergunakan saat terjadinya penangkapan 2 (dua) bungkus plastik klip transparan yang didalamnya terdapat kristal putih yang diduga narkotika jenis sabu masing-masing berat bersih 0,10 (nol koma nol sepuluh) gram dan 1,50 (satu koma lima puluh) gram. 1 (satu) bungkus plastik klip transparan yang didalmnya terdapat bubuk putih yang diduga narkotika jenis sabu dengan berat bersih 0,94 (nol koma Sembilan puluh empat) gram. 2 (dua) bungkus daun kering yang diduga narkotika jenis ganja masing-masing berat bersih 1,03 (satu koma nol tiga) gram dan 2,89 (dua koma delpan puluh Sembilan) gram. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone merk Redmi warna abu. 1 (satu) pipet kaca masih berisi sabu sisa pakai. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 (tiga) alat hisap (bong). 3 (tiga) korek api gas. 1 (satu) KTP atas nama BAHRAIN. Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN Dijadikan bukti didalam berkas perkara BAHRAIN Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>479/Pid.Sus/2024/PN Mtr</t>
+          <t>446/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1172,19 +1172,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>:  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. 1 (satu) bendel plastik klip transparan Merk NASIONAL</t>
+          <t>: 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Sulhan Amrullah Als Samsul Als Bulat Bin Jamaludin tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 9 (Sembilan) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa:  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. 1 (satu) bendel plastik klip transparan Merk NASIONAL; 1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop. Uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry. 1 (satu) buah tas wanita warna putih tulang. 1 (satu) buah HP iPhone warna biru muda yang didalamnya terdapat simcard dengannomor 087762944564 dan nomor whatsapp +6282236727080. Uang tunai sejumlah Rp. 2.190.000,- (dua juta seratus sembilan puluh ribu rupiah). 1 (satu) buah Dompet Kulit Merk Levi?s warna coklat 1 (satu) buah HP Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195. 1 (satu) buah HP android merk oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 Di kembalikan pada Penuntut Umum untuk dipergunakan dalam perkara Nur Fitriani alias Fitri Binti M. Darun Nur;Barang bukti berupa :   1 (satu) buah Dompet warna hitam; 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493. 1 (satu) unit Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT. dikembalikan pada Terdakwa SULHAN AMRULLAH ALS SAMSUL ALS BULAT BIN JAMALUDIN ;Barang bukti berupa :   1 (satu) buah HP android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345; Uang tunai sejumlah Rp. 299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) Dirampas untuk negara; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I : Menyatakan Terdakwa GUNAWAN Alias GUN Bin KAMARUDIN, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?dengan sengaja tidak melaporkan adanya tindak pidana,? sebagaimana dalam Dakwaan Ketiga Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa GUNAWAN Alias GUN Bin KAMARUDIN, dengan pidana penjara selama 1 ( satu ) Tahun ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 2 (dua) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip dan 1 (satu) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip. 2 (dua) bungkus daun, biji dan batang kering yang diduga narkotika jenis ganja. 1 (satu) pipet plastik warna putih berbentuk sendok. 1 (satu) unit handphone. 2 (dua) alat hisap (bong) yang salah satunya sudah tersambung 1 (satu) pipet kaca masih berisi Kristal putih yang diduga narkotika jenis shabu. 3 (tiga) bekas bungkus plastik klip kosong sisa pakai. 3 korek api gas.Tepatnya di atas lantai kamar ruko milik sdr. BAHRAIN. Uang tunai Rp 518.000 (lima ratus delapan belas ribu rupiah). 1 (satu) unit Handphone merk oppo yang didalamnya berisi 1 (satu) Simcard XL 087847347574. 1 (satu) buah korek api gas.Tepatnya disaku celana yang dipergunakan oleh sdr. HANZAN WADI Alias ZAN Bin IHZAN saat terjadinya penangkapan. 1 (satu) unit handphone merk readmi yang didalamnya berisi 1 (satu) Simcard XL 087835753823. 1 (satu) dompet didalamnya berisi uang tunai rp. 12.000 dan 1 (satu) ATM Bank Mandiri.Tepatnya di saku celana yang dipergunakan oleh sdr. SAEFUL HADI Alias HADI Bin AHMAD saat terjadinya penangkapan. 1 (satu) unit handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085947287179. Uang tunai Rp. 493.000 (empat ratus Sembilan puluh tiga ribu rupiah). 1 (satu) buah dompet berisi identitas KTP an. WELI MARDIKA.Tepatnya di saku celana yang dipakai oleh sdr. WELI MARDIKA Alias WELI saat terjadinya penangkapan. Uang tunai rp 50.000 (lima puluh ribu rupiah). 1 (satu) unit kunci kontak sepeda motor Honda.Tepatnya di saku celana yang dipergunakan oleh sdr. ISNAIDI Alias IS Bin TUHUR saat terjadinya penangkapan. 1 (satu) unit handphone merk oppo yang didalamnya berisi 1 (satu) Simcard Telkomsel 081 238354911.Tepatnya di saku celana yang dipergunakan oleh sdr. GUNAWAN Alias GUN Bin KAMARUDIN saat terjadinya penangkapan. Uang tunai Rp 3.554.000 (tiga juta lima ratus lima puluh empat ribu rupiah). 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 085940897462.Tepatnya di saku celana yang sdr. RAMDAN pergunakan saat terjadinya penangkapan. 1 (satu) unit Handphone merk Samsung yang didalamnya berisi 1 (satu) Simcard XL 087830030707. 2 (dua) kunci kontak sepeda motor. 1 (satu) dompet didalamnya berisi uang tunai Rp. 100.000 (seratus ribu rupiah). 1 (satu) lembar KTP an. LALU SAMSUL RIADI. DIpergunakan dalam perkara RAMDAN ; Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>480/Pid.Sus/2024/PN Mtr</t>
+          <t>448/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>:1 (satu) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip putih transparan dengan berat 0,043 (nol koma empat tiga) gram1 (satu) dompet yang didalamnya terdapat 1 (satu) ATM BCA dengan nomor 5379412117222488,1 (satu) bukti Transfer BCA a.n. SRILAWATI, 1 (satu) unit HP SAMSUNG warna hitam dengan nomor IMEI 1 : 352617370737509 dan dengan nomor IMEI 2 : 752617400737503 dan Nomor SIM Cardnya : 085940898742,1 (satu) gulungan Matras,1 (satu) pipet kaca yang dililit dengan tisu warna putih,3 pipet plastik warna putih,1 tutup botol warna orange yang terdapat 2 (dua) lobang yang dimana 1 (satu) lobangnya terdapat 1 (satu) pipet plastik warna putih, 1 (satu) sumbu,1 (satu) korek api gas,1 (satu) gunting dan1 (satu) timbangan elektrik warna silverDirampas untuk dimusnahkan danuang tunai sebesar 204.000,- (dua ratus empat ribu rupiah),Uang tunai sebesar Rp. 2.230.000,- (dua juta dua ratus tiga puluh ribu rupiah)Dirampas untuk Negara.Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah)</t>
+          <t>: 1 (satu) buah pipa plastik dengan penutupnya warna putih yang didalamnya berisi :  1 ( satu ) klip plastik transparan yang didalam klip plastik tersebut berisi 1 (satu) klip plastik transparan yang didalamnya berisi kristal bening diduga narkotika jenis sabhu. 1 (satu) klip plastik transparan yang didalamnya berisi kristal bening diduga narkotika jenis sabhu.   1 (satu) buah pipet kaca.  1 (satu) buah pipet plastik yang salah satu ujungnya diruncingkan warna putih garis merah.   3 (tiga) buah potongan pipet plastik warna putih garis merah.  1 (satu) buah pipet plastik yang salah satu ujungnya ditekuk menyerupai huruf L warna putih garis merah.   - 1 (satu) buah pipet plastik warna putih garis merah</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>M E N G A D I L I:Menyatakan Terdakwa LALU DARMAWANBIN (ALM) H. LALU ISMAUN HAK ALIAS MAMIQ DAR telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana? tanpa hak dan melawan hukum membeli dan menjual Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kesatu Penuntut Umum ;Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ;Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;Menetapkan Terdakwa tetap berada dalam tahanan ;Menetapkan barang bukti berupa :1 (satu) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip putih transparan dengan berat 0,043 (nol koma empat tiga) gram1 (satu) dompet yang didalamnya terdapat 1 (satu) ATM BCA dengan nomor 5379412117222488,1 (satu) bukti Transfer BCA a.n. SRILAWATI, 1 (satu) unit HP SAMSUNG warna hitam dengan nomor IMEI 1 : 352617370737509 dan dengan nomor IMEI 2 : 752617400737503 dan Nomor SIM Cardnya : 085940898742,1 (satu) gulungan Matras,1 (satu) pipet kaca yang dililit dengan tisu warna putih,3 pipet plastik warna putih,1 tutup botol warna orange yang terdapat 2 (dua) lobang yang dimana 1 (satu) lobangnya terdapat 1 (satu) pipet plastik warna putih, 1 (satu) sumbu,1 (satu) korek api gas,1 (satu) gunting dan1 (satu) timbangan elektrik warna silverDirampas untuk dimusnahkan danuang tunai sebesar 204.000,- (dua ratus empat ribu rupiah),Uang tunai sebesar Rp. 2.230.000,- (dua juta dua ratus tiga puluh ribu rupiah)Dirampas untuk Negara.Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I Menyatakan terdakwa SAHRONI PANDANI Als RONI telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Tanpa hak atau menguasai Narkotika Golongan I bukan tanaman jenis Sabu-sabu sebagaimana dakwaan alternatif ke-1 (satu) Surat dakwaan Penuntut Umum; Menjatuhkan Pidana terhadap Terdakwa tersebut oleh karena itu dengan pidana penjara selama 6 (enam) Tahun Dan piada senda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan jika denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Memerintahkan agar barang bukti berupa : 1 (satu) buah pipa plastik dengan penutupnya warna putih yang didalamnya berisi :  1 ( satu ) klip plastik transparan yang didalam klip plastik tersebut berisi 1 (satu) klip plastik transparan yang didalamnya berisi kristal bening diduga narkotika jenis sabhu. 1 (satu) klip plastik transparan yang didalamnya berisi kristal bening diduga narkotika jenis sabhu.   1 (satu) buah pipet kaca.  1 (satu) buah pipet plastik yang salah satu ujungnya diruncingkan warna putih garis merah.   3 (tiga) buah potongan pipet plastik warna putih garis merah.  1 (satu) buah pipet plastik yang salah satu ujungnya ditekuk menyerupai huruf L warna putih garis merah.   - 1 (satu) buah pipet plastik warna putih garis merah; - 1 (satu) buah tas pinggang warna hitammerk ?RDV? yang didalamnya berisi : - 1 (satu) buah korek gas yang sudah dimodifikasi warna ungu,  1 (satu) buah gunting kecil dengan gagang warna hitam.  Dirampas untuk dimusnahkan. - 1 (satu) unit HP OPPO warna biru metalik dengan soft case warna merah maron;. - Uang tunai sebesar Rp. 400.000,- ( empat ratus ribu rupiah );.  Dirampas untuk Negara; Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp. 2.500.,- ( dua ribu Lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>484/Pid.Sus/2024/PN Mtr</t>
+          <t>452/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>: 1 bungkus rokok Gudang garam surya yang didalamnya terdapat 3 klip plastic bening yang masing-masing klipnya berisi kristal bening didiuga Narkotika golongan I jenis shabu</t>
+          <t>: 1 (satu) poket plastik klip bening yang didalamnya berisikan kristal bening Narkotika jenis sabu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MENGADILI : Menyatakan Terdakwa Leboh tersebut di atas terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjual Narkotika golongan I sebagaimana dalam dakwaan alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima ) Tahun dan 6 (enam) bulan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6(enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa : 1 bungkus rokok Gudang garam surya yang didalamnya terdapat 3 klip plastic bening yang masing-masing klipnya berisi kristal bening didiuga Narkotika golongan I jenis shabu; 1 buah pipat plastic yang ujungnya telah diruncingkan; 1 bungkus rokok Gudang garam surya didalamnya terdapat beberapa klip plastic bening; 1 buah botol plastic yang pada tutupnya terdapat 2 lubang; 1 buah korek api gas; Dirampas untuk dimusnahkan; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00(dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI: Menyatakan Terdakwa Ahmad Azmi tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak menjual Narkotika Golongan I?, sebagaimana dalam dakwaan kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 6 (enam) tahun dan denda masing-masing sejumlah Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) poket plastik klip bening yang didalamnya berisikan kristal bening Narkotika jenis sabu; Dirampas untuk dimusnahkan; 1 (satu) buah HP Android merk VIVO warna biru; Dirampas untuk negara;6. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>49/Pid.Sus/2021/PN Mtr</t>
+          <t>463/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1238,19 +1238,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah tas selempang merk Eiger berisi 1 (satu) klip berisi Narkotika jenis shabu netto 0,63 gram dan 1 (satu) buah HP merk Samsung warna putih, dirampas untuk dimusnahkan. Uang tunai Rp.50.000,-, dirampas untuk Negara. 1 (satu) unit SPM merk Supra fit warna merah putih yang sudah di modifikasi dan 1 (satu) buah dompet merk Levis berisi uang tunai Rp.37.000,- dikembalikan pada terdakwa.. Membebani Terdakwa untuk membayar biaya perkara masing-masing sebesar Rp. 2500. (dua ribu lima ratus rupiah)</t>
+          <t>:  1 (satu) celana pendek warna coklat yang di dalamnya terdapat 1 (satu) bungkus plastik klip transparan yang didalamnya terdapat 3 (tiga) bungkus kristal putih yang diduga Narkotika jenis sabu masing-masing dengan berat bersih seberat 0,050 (nol koma nol lima puluh) gram, 0,042 (nol koma nol empat puluh dua) gram dan 0,054 (nol koma nol lima puluh empat) gram 1 (satu) bungkus klip transparan yang di dalamnya terdapat kristal putih yang diduga Narkotika jenis sabu dengan berat bersih 0,151 (nol koma seratus lima puluh satu) gram 1 (satu) kotak kaca mata warna hitam yang di dalamnya terdapat   2 (dua) bungkus klip transparan bekas pembungkus Narkotika jenis sabu. 4 (empat) plastik klip transparan. 1 (satu) tutup botol warna oranye yang sudah tersambung dengan 1 (satu) pipet plastik warna putih bergaris merah dan 1 (satu) pipet plastik warna putih. 3 (tiga) pipet plastik warna putih bergaris merah yang ujungnya berbentuk sekop. 1 (satu) korek api gas 1 (satu) pipet kaca 1 (satu) sumbu warna merah muda yang tersambung dengan kertas rokok warna emas 1 (satu) sumbu warna kuning yang tersambung dengan kertas rokok warna emas.  1 (satu) unit Handphone merek Nokia warna hitam dengan sim card XL (087864796972) 1 (satu) unit Handphone merek Vivo warna hitam dengan Sim card Tri (08954000871939) 1 (satu) Handphone merek Redmi warna hitam dengan Sim card XL (087796789582) Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah)   Dipergunakan dalam perkara atas nama I GEDE OKA SUARTANA Alias GEDE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Menyatakan terdakwa terdakwa AHSAN alis CAN terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Secara tanpa hak atau melawan hukum memiki narkotika golongan-I bukan tanaman ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sebesar Rp 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan; Menetapkan masa penahanan terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan terdakwa tetap dalam tahanan; Menetapkan barang bukti berupa : 1 (satu) buah tas selempang merk Eiger berisi 1 (satu) klip berisi Narkotika jenis shabu netto 0,63 gram dan 1 (satu) buah HP merk Samsung warna putih, dirampas untuk dimusnahkan. Uang tunai Rp.50.000,-, dirampas untuk Negara. 1 (satu) unit SPM merk Supra fit warna merah putih yang sudah di modifikasi dan 1 (satu) buah dompet merk Levis berisi uang tunai Rp.37.000,- dikembalikan pada terdakwa.. Membebani Terdakwa untuk membayar biaya perkara masing-masing sebesar Rp. 2500. (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I Menyatakan Terdakwa I GEDE MATARAM Alias LALAM telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Permufakatan ?Tanpa Hak Menjual Narkotika Golongan I? sebagaimana dakwaan alternatif pertama Penuntut Umum; Menjatuhkan Pidana terhadap Terdakwa tersebut oleh karena itu dengan pidana penjara selama 7 (tujuh) Tahun Dan pidada senda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan jika denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Memerintahkan agar barang bukti berupa :  1 (satu) celana pendek warna coklat yang di dalamnya terdapat 1 (satu) bungkus plastik klip transparan yang didalamnya terdapat 3 (tiga) bungkus kristal putih yang diduga Narkotika jenis sabu masing-masing dengan berat bersih seberat 0,050 (nol koma nol lima puluh) gram, 0,042 (nol koma nol empat puluh dua) gram dan 0,054 (nol koma nol lima puluh empat) gram 1 (satu) bungkus klip transparan yang di dalamnya terdapat kristal putih yang diduga Narkotika jenis sabu dengan berat bersih 0,151 (nol koma seratus lima puluh satu) gram 1 (satu) kotak kaca mata warna hitam yang di dalamnya terdapat   2 (dua) bungkus klip transparan bekas pembungkus Narkotika jenis sabu. 4 (empat) plastik klip transparan. 1 (satu) tutup botol warna oranye yang sudah tersambung dengan 1 (satu) pipet plastik warna putih bergaris merah dan 1 (satu) pipet plastik warna putih. 3 (tiga) pipet plastik warna putih bergaris merah yang ujungnya berbentuk sekop. 1 (satu) korek api gas 1 (satu) pipet kaca 1 (satu) sumbu warna merah muda yang tersambung dengan kertas rokok warna emas 1 (satu) sumbu warna kuning yang tersambung dengan kertas rokok warna emas.  1 (satu) unit Handphone merek Nokia warna hitam dengan sim card XL (087864796972) 1 (satu) unit Handphone merek Vivo warna hitam dengan Sim card Tri (08954000871939) 1 (satu) Handphone merek Redmi warna hitam dengan Sim card XL (087796789582) Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah)   Dipergunakan dalam perkara atas nama I GEDE OKA SUARTANA Alias GEDE; Menetapkan supaya terdakwa dibebani biaya perkara sebesar Rp. 2.500,- (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>493/Pid.Sus/2024/PN Mtr</t>
+          <t>469/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1260,19 +1260,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>: Barang bukti yang disita dari ROSIANA PUTRI Alias PUTRI KOCET BINTI AHMAD FIKRI sebagai berikut berupa :  1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop 1 (satu) bendel plastik klip transparan Merk NASIONAL 1 (satu) buah tas wanita warna putih tulang 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry 1 (satu) buah Handphone iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080 315 (tiga ratus lima belas) lembar uang, uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) dengan rincian : 15 lembar pecahan Rp.100.000,- 1 lembar pecahan Rp.75.000,- 68 lembar pecahan Rp.50.000,- 35 lembar pecahan Rp.20.000,- 74 lembar pecahan Rp.10.000,- 102 lembar pecahan Rp.5.000,- 17 lembar pecahan Rp.2.000,- 3 lembar pecahan Rp.1.000,-  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. Bahwa barang bukti yang disita dari SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN sebagai berikut berupa :  1 (satu) buah Handphone android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345 1 (satu) buah Dompet warna hitam 1 (satu) unit Kendaraan Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493 16 (enam belas) lembar uang, uang tunai sejumlah Rp.299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) dengan rincian : 5 lembar pecahan Rp.50.000,- 1 lembar pecahan Rp.10.000,- 7 lembar pecahan Rp.5.000,- 1 lembar pecahan Rp.2.000,- 2 lembar pecahan Rp.1.000,- Diserahkan kepada Penuntut Umum sebagai barang bukti dalam perkara atas nama terdakwa SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN. Bahwa barang bukti yang disita dari terdakwa NI NYOMAN HARTINI Alias SRI BINTI SAHRI JUPRI sebagai berikut berupa :  1 (satu) buah Dompet Kulit Merk Levi?s warna coklat Dirampas untuk dimusnahkan.  1 (satu) buah Handphone Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195 1 (satu) buah Handphone android merk Oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 37 (tiga puluh tujuh) lembar uang, uang tunai sejumlah Rp.2.190.000,- (dua juta seratus sembilan puluh ribu rupiah) dengan rincian 8 lembar pecahan Rp.100.000,- 27 lembar pecahan Rp.50.000,- 2 lembar pecahan Rp.20.000,- Dirampas untuk negara. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah)</t>
+          <t>: 10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan Terdakwa Ni Nyoman Hartini Als Sri Binti Sahri Jupri tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 9 ( sembilan ) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: Barang bukti yang disita dari ROSIANA PUTRI Alias PUTRI KOCET BINTI AHMAD FIKRI sebagai berikut berupa :  1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop 1 (satu) bendel plastik klip transparan Merk NASIONAL 1 (satu) buah tas wanita warna putih tulang 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry 1 (satu) buah Handphone iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080 315 (tiga ratus lima belas) lembar uang, uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) dengan rincian : 15 lembar pecahan Rp.100.000,- 1 lembar pecahan Rp.75.000,- 68 lembar pecahan Rp.50.000,- 35 lembar pecahan Rp.20.000,- 74 lembar pecahan Rp.10.000,- 102 lembar pecahan Rp.5.000,- 17 lembar pecahan Rp.2.000,- 3 lembar pecahan Rp.1.000,-  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. Bahwa barang bukti yang disita dari SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN sebagai berikut berupa :  1 (satu) buah Handphone android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345 1 (satu) buah Dompet warna hitam 1 (satu) unit Kendaraan Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493 16 (enam belas) lembar uang, uang tunai sejumlah Rp.299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) dengan rincian : 5 lembar pecahan Rp.50.000,- 1 lembar pecahan Rp.10.000,- 7 lembar pecahan Rp.5.000,- 1 lembar pecahan Rp.2.000,- 2 lembar pecahan Rp.1.000,- Diserahkan kepada Penuntut Umum sebagai barang bukti dalam perkara atas nama terdakwa SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN. Bahwa barang bukti yang disita dari terdakwa NI NYOMAN HARTINI Alias SRI BINTI SAHRI JUPRI sebagai berikut berupa :  1 (satu) buah Dompet Kulit Merk Levi?s warna coklat Dirampas untuk dimusnahkan.  1 (satu) buah Handphone Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195 1 (satu) buah Handphone android merk Oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 37 (tiga puluh tujuh) lembar uang, uang tunai sejumlah Rp.2.190.000,- (dua juta seratus sembilan puluh ribu rupiah) dengan rincian 8 lembar pecahan Rp.100.000,- 27 lembar pecahan Rp.50.000,- 2 lembar pecahan Rp.20.000,- Dirampas untuk negara. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Terdakwa Rosiana Putri Als Putri Kocet Binti Ahmad Fikri tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 ( Tujuh ) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram; 1 (satu) bendel plastik klip transparan Merk NASIONAL; 1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop; Uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah); 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry; 1 (satu) buah tas wanita warna putih tulang; 1 (satu) buah HP iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080. Uang tunai sejumlah Rp. 2.190.000,- (dua juta seratus sembilan puluh ribu rupiah); 1 (satu) buah Dompet Kulit Merk Levi?s warna coklat; 1 (satu) buah HP Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195; 1 (satu) buah HP android merk oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664; 1 (satu) buah Dompet warna hitam; 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493; 1 (satu) buah HP android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345; 1 (satu) unit Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT; Dijadikan barang bukti dalam perkara lain atas nama terdakwa Ni Nyoman Hartini Als Sri Binti Sahri Jupri Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (Dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>51/Pid.Sus/2021/PN Mtr</t>
+          <t>470/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1282,19 +1282,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>: 1. 1 (satu) klip plastic transparan yang berisi yang dibungkus dengan menggunakan 1 ( satu ) lembar kertas warna putih bergaris yang didalam klip tersebut berisi : - 1 (satu) poket klip plastic klip transparan yang didalamnya berisi kristal bening yang diduga narkotika jenis shabu dengan berat bruto 0,50 ( nol koma lima nol ) gram, dan berat bersih 0,14 ( nol koma satu empat ) gram</t>
+          <t>: HP iPhone warna gold dengan case transparan yang didalamnya terdapat simcard dengan nomor 087716324493 1 (satu) buah Dompet merk Hush Puppies warna coklat 1 (satu) buah Kartu ATM Mandiri dengan nomor 4616 9948 0986 4889 Dirampas untuk dimusnahkan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MENGADILI : Menyatakan Terdakwa Agus Jayadi Alias Bagok telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak atau melawan hukum menguasai narkotika golongan 1 bukan tanaman?; Menjatuhkan pidana oleh karena itu kepada Terdakwa Agus Jayadi Alias Bagok dengan pidana penjara selama 6 ( enam ) tahun dan denda sebesar Rp.800.000.000.00(delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menyatakan barang bukti berupa : 1. 1 (satu) klip plastic transparan yang berisi yang dibungkus dengan menggunakan 1 ( satu ) lembar kertas warna putih bergaris yang didalam klip tersebut berisi : - 1 (satu) poket klip plastic klip transparan yang didalamnya berisi kristal bening yang diduga narkotika jenis shabu dengan berat bruto 0,50 ( nol koma lima nol ) gram, dan berat bersih 0,14 ( nol koma satu empat ) gram; - 1 (satu) poket klip plastic klip transparan yang didalamnya berisi kristal bening yang diduga narkotika jenis shabu dengan berat bruto 0,52 ( nol koma lima dua ) gram, dan berat bersih 0,14 ( nol koma satu empat ) gram; - 1 (satu) poket klip plastic klip transparan yang didalamnya berisi kristal bening yang diduga narkotika jenis shabu dengan berat bruto 0,58 ( nol koma lima delapan ) gram, dan berat bersih 0,24 ( nol koma dua empat ) gram; - 1 (satu) poket klip plastic klip transparan yang didalamnya berisi kristal bening yang diduga narkotika jenis shabu dengan berat bruto 0,62 ( nol koma enam dua ) gram, dan berat bersih 0,26 ( nol koma dua enam ) gram; - 1 (satu) poket klip plastic klip transparan yang didalamnya berisi kristal bening yang diduga narkotika jenis shabu dengan berat bruto 0,3 ( nol koma tiga satu ) gram, ( sisa pemakaian ) ; ( Barang bukti narkotika shabu yang dipergunakan dipersidangan berdasarkan Berita Acara Penimbangan dan penyisihan barang bukti tanggal 12 Oktober 2020 ) ; 2. 1 (satu) buah dompet warna hitam abu ? abu yang didalamnya berisi : - 1 (satu) buah korek api gas yang sudah dimodifikasi merk Marlboro warna merha putih; - 1 (satu) klip transparan yang didalamnya berisi 6 ( enam ) buah klip plastic transparan kosong; - 1 (satu) buah gunting;  - 1 (satu) buah Handphone merk Nokia warna hitam ; - 1 (satu) buah korek api gas merk Sampoerna warna putih; - Uang tunai sebesar Rp. 450. 000,00(empat ratus lima puluh ribu rupiah); - 1 (satu) buah bong yang terbuat dari botol minuman nutrisi boost lengkap dengan 2 (dua) buah pipet plastic yang terpasang pada tutup botol; - 1 (satu) buah korek api gas merk WETA warna merah;  Dirampas untuk dimusnahkan; 3. 1 (satu) buah tas pinggang warna hitam Uang tunai sebesar Rp 450.000 (empat ratus lima puluh ribu rupiah) ; 1 (satu) unit sepeda motor merk Honda Vario warna hitam dengan Nopol. DR 5496 TQ dan 1 (satu) buah tas pinggang Dikembalikan kepada pemiliknya Umardi alias Gopek.6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp 2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Terdakwa Nurrahman Als Rahman Bin Aripin tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 9 (Sembilan) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: HP iPhone warna gold dengan case transparan yang didalamnya terdapat simcard dengan nomor 087716324493 1 (satu) buah Dompet merk Hush Puppies warna coklat 1 (satu) buah Kartu ATM Mandiri dengan nomor 4616 9948 0986 4889 Dirampas untuk dimusnahkan; Uang tunai sejumlah Rp. 400.000,- (empat ratus ribu rupiah) Dirampas Untuk Negara; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>510/Pid.Sus/2024/PN Mtr</t>
+          <t>478/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1304,19 +1304,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>:1) 1 (satu) buah tas slempang warna hijau bertuliskan ?CRUISER? yang didalamnya terdapat:a. 1 (satu) buah bungkus rokok merk ESSE warna biru didalamnya terdapat :1. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 4,57 (empat koma lima tujuh) gram / Netto 4,21 (empat koma dua satu) gram</t>
+          <t>: 1 (satu) buah tas sling bag warna hitam</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MENGADILI:1. Menyatakan Terdakwa Jamiludin Akmal telah terbukti bersalah secara sah dan meyakinkan melakukan Tindak Pidana ?menjual dan membeli Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram? melanggar Pasal 114 Ayat (2) Undang-Undang RI No. 35 Tahun 2009 Tentang Narkotika sebagaimana dalam dakwaan alternatif pertama Penuntut Umum2. Menjatuhkan pidana terhadap Terdakwa Jamiludin Akmal oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila tidak dibayar maka diganti dengan pidana penjara selama 3 (Tiga) bulan.3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan tersebut;4. Menetapkan Terdakwa tetap berada dalam tahanan;5. Menyatakan barang bukti berupa :1) 1 (satu) buah tas slempang warna hijau bertuliskan ?CRUISER? yang didalamnya terdapat:a. 1 (satu) buah bungkus rokok merk ESSE warna biru didalamnya terdapat :1. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 4,57 (empat koma lima tujuh) gram / Netto 4,21 (empat koma dua satu) gram;2. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode B berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 1,87 (satu koma delapan tujuh) gram / Netto 1,42 (satu koma empat dua) gram;b. 1 (satu) buah plastic klip bening berisikan 10 (sepuluh) butir pil diduga narkotika jenis ekstasi dengan rincian sebagai berikut :1. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,36 (nol koma tiga enam) gram, Kode C1;2. 1 (satu) butir pil logo Pinguin warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,25 (nol koma dua lima) gram, Kode C2;3. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,39 (nol koma tiga sembilan) gram, Kode C3;4. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,38 (nol koma tiga delapan) gram, Kode C4;5. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C5;6. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C6;7. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C7;8. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C8;9. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,32 (nol koma tiga dua) gram, Kode C9;10. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,34 (nol koma tiga empat) gram, Kode C10;2) 1 (satu) buah buku kecil catatan penjualan.Dirampas untuk dimusnahkan.1) 1 (satu) unit HP Android merk SAMSUNG warna Hitam;2) Uang Tunai sejumlah Rp 800.000,- (delapan ratus ribu rupiah);Dirampas untuk Negara.5. Membebankan kepada Terdakwa membayar biaya perkara sejumlahRp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Terdakwa Hanafi Als. Fi Bin. H.Kamil Ikhsan, tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I, sebagaimana dalam dakwaan pertama; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 6 (enam) tahun, 6(enam) bulan dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah), dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) buah tas sling bag warna hitam; 1 (satu) buah klip plastik bening yang di dalamnya terdapat: 1 (satu) buah klip plastik bening pertama yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,39 (nol koma tiga sembilan) gram; 1 (satu) buah klip plastik bening kedua yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,36 (nol koma tiga enam) gram; 1 (satu) buah klip plastik bening ketiga yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,33 (nol koma tiga tiga) gram; 1 (satu) buah klip plastik bening keempat yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,33 (nol koma tiga tiga) gram; 1 (satu) buah klip plastik bening kosong;  2 (dua) buah korek api gas; 1 (satu) buah klip plastik bening yang di dalamnya berisi 1 (satu) buah klip plastik yang di dalamnya berisi kristal bening Narkotika jenis sabu dengan berat bruto 0,54 (nol koma lima empat) gram; 1 (satu) buah potongan pipet plastik warna putih yang salah satu ujungnya diruncingkan; 2 (dua) buah korek api gas; 1 (satu) buah kotak warna hitam yang di dalamnya terdapat barang atau benda berupa:   1 (satu) buah gunting warna hitam; 3 (tiga) buah korek api gas yang sudah dimodifikasi; 2 (dua) buah korek api gas; 1 (satu) buah potongan pipet plastik warna putih yang salah satu ujungnya diruncingkan; 1 (satu) buah alat pemotong kuku; 3 (tiga) buah sumbu; 7 (tujuh) buah klip plastik bening;  1 (satu) buah alat hisap sabu (bong) yang di dalamnya terdapat air dengan di bagian tutupnya terpasang 1 (satu) buah potongan pipet plastik warna putih berbentuk huruf L dan 1 (satu) buah tabung kaca;  Dirampas untuk dimusnahkan; Uang sejumlah Rp.511.000,-(lima ratus sebelas ribu rupiah); 1 (satu) unit sepeda motor honda beat warna hitam dengan nomor polisi DR 2965 HI,Dikembalikan kepada Terdakwa; 1 (satu) handphone merk oppo A3S warna hitam;Dirampas untuk negara; Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp.2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>521/Pid.Sus/2024/PN Mtr</t>
+          <t>479/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1326,19 +1326,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>:1. 1 (satu) timbangan elektrik warna silver merk HARNIC</t>
+          <t>:  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. 1 (satu) bendel plastik klip transparan Merk NASIONAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MENGADILI1. Menyatakan Terdakwa Herman Bin (Alm) Muksin Als Ucok tersebut diatas, terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menjual, membeli, menukar, menyerahkan atau menerima Narkotika Golongan I dalam bentuk bukan tanaman beratnya 5 (lima) gram? sebagaimana dalam dakwaan alternatif ke 1 (satu);2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan pidana denda sejumlah Rp1.000.000.000,00 (satu miliyar rupiah ) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;4. Menetapkan Terdakwa tetap ditahan;5. Menetapkan barang bukti berupa :1. 1 (satu) timbangan elektrik warna silver merk HARNIC;2. 1 (satu) korek api gas;3. 1 (satu) unit HP NOKIA warna Hitam dengan nomor IMEI 357907042891692 dengan Nomor SIM Card 087847425892;4. 1 (satu) bong;5. 1 (satu) gunting;6. 1 (satu) korek api gas;7. 1 (satu) potongan bamboo;8. 1 (satu) unit HP REALME warna Biru dengan nomor IMEI 1 : 866066041391172 dan IMEI 2 : 866066041391164 dengan Nomor SIM Card 087847491673;9. 1 (satu) kantong kain warna hitam yang didalamnya terdapat :- 16 (enam belas) plastik klip putih transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan;- 1 (satu) potongan pipet plastik warna putih garis merah;- 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;10. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan;11. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan;12. Uang tunai sebesar Rp 550.000 (lima ratus lima puluh ribu rupiah);13. 1 (satu) silet;14. 3 (tiga) bong;15. 4 (empat) korek api gas;16. 2 (dua) isolasi bening;17. 3 (tiga) potongan pipet plastik putih transparan;18. 2 (dua) bungkus plastik klip putih transparan;19. 3 (tiga) plastik klip putih transparan;20. 1 (satu) pipet kaca;21. 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;22. 4 (empat) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan ;23. 1 (satu) unit HP SAMSUNG warna Biru dengan nomor IMEI 1 : 355203101577964 dan IMEI 2 : 355204101577962 dengan Nomor SIM Card 081775700275 ;24. 1 (satu) bungkus plastik klip putih transparan ;25. 5 (lima) plastik klip putih transparan ;26. 1 (satu) tas ransel warna biru ;27. 1 (satu) bungkus plastik klip putih transparan ;28. 1 (satu) tutup botol plastik warna biru yang telah terangkai dengan potongan pipet plastik warna putih garis merah ;29. 1 (satu) potongan pipet plastik warna putih garis merah ;30. 1 (satu) kotak aluminium ;31. 1 (satu) tisu ;32. 3 (tiga) plastik klip putih transparan ;33. 1 (satu) potongan pipet plastik warna putih garis merah ;34. 1 (satu) sweter warna abu ;35. 1 (satu) bungkus kristal putih narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan ; Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Purwadi bin Mastar Als Pur;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah).</t>
+          <t>MENGADILI: Menyatakan Terdakwa Sulhan Amrullah Als Samsul Als Bulat Bin Jamaludin tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 9 (Sembilan) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa:  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. 1 (satu) bendel plastik klip transparan Merk NASIONAL; 1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop. Uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry. 1 (satu) buah tas wanita warna putih tulang. 1 (satu) buah HP iPhone warna biru muda yang didalamnya terdapat simcard dengannomor 087762944564 dan nomor whatsapp +6282236727080. Uang tunai sejumlah Rp. 2.190.000,- (dua juta seratus sembilan puluh ribu rupiah). 1 (satu) buah Dompet Kulit Merk Levi?s warna coklat 1 (satu) buah HP Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195. 1 (satu) buah HP android merk oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 Di kembalikan pada Penuntut Umum untuk dipergunakan dalam perkara Nur Fitriani alias Fitri Binti M. Darun Nur;Barang bukti berupa :   1 (satu) buah Dompet warna hitam; 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493. 1 (satu) unit Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT. dikembalikan pada Terdakwa SULHAN AMRULLAH ALS SAMSUL ALS BULAT BIN JAMALUDIN ;Barang bukti berupa :   1 (satu) buah HP android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345; Uang tunai sejumlah Rp. 299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) Dirampas untuk negara; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>522/Pid.Sus/2024/PN Mtr</t>
+          <t>480/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1348,19 +1348,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>:1) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,168 (nol koma enam delapan ) Gram</t>
+          <t>:1 (satu) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip putih transparan dengan berat 0,043 (nol koma empat tiga) gram1 (satu) dompet yang didalamnya terdapat 1 (satu) ATM BCA dengan nomor 5379412117222488,1 (satu) bukti Transfer BCA a.n. SRILAWATI, 1 (satu) unit HP SAMSUNG warna hitam dengan nomor IMEI 1 : 352617370737509 dan dengan nomor IMEI 2 : 752617400737503 dan Nomor SIM Cardnya : 085940898742,1 (satu) gulungan Matras,1 (satu) pipet kaca yang dililit dengan tisu warna putih,3 pipet plastik warna putih,1 tutup botol warna orange yang terdapat 2 (dua) lobang yang dimana 1 (satu) lobangnya terdapat 1 (satu) pipet plastik warna putih, 1 (satu) sumbu,1 (satu) korek api gas,1 (satu) gunting dan1 (satu) timbangan elektrik warna silverDirampas untuk dimusnahkan danuang tunai sebesar 204.000,- (dua ratus empat ribu rupiah),Uang tunai sebesar Rp. 2.230.000,- (dua juta dua ratus tiga puluh ribu rupiah)Dirampas untuk Negara.Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MENGADILI:1. Menyatakan Terdakwa Saepul Anwar Bin Masdah alias Epul tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Permufakatan jahat tanpa hak menjadi perantara dalam jual beli Narkotika golongan I yang beratnya melebihi 5 (lima) gram? sebagaimana dalam dakwaan alternatif pertama Penuntut Umum;2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan pidana denda sejumlah Rp1.000.000.000,- dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;4. Menetapkan Terdakwa tetap berada dalam tahanan;5. Menetapkan barang bukti berupa:1) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,168 (nol koma enam delapan ) Gram ;2) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,288 (nol dua delapan delapan) gram ;3) Uang tunai sebesar Rp.5.50.000,- (lima ratus lima puluh ribu rupiah) ;4) 1 (satu) silet ;5) 3 (tiga) Bong ;6) 4 (empat) korek api gas ;7) 2 (dua) isolasi bening ;8) 3 (tiga) bungkus plastik klip putih transparan ;9) 2 (dua) bungkus plastik putih transparan ;10) 3 (tiga) plastik klip putih transparan ;11) 1 (satu) pipet kaca ;12) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan ;13) 4 (empat) plastik klip putih transparan bekas shabu disimpan di dalam plastik klip putih transparan ;14) 1 (satu) unit HP.SAMSUNG Warna biru dengan Nomor :IMEI.1.35503101577964 dan IMEI 2.355204101577962 dengan Nomor SIM CAR 081775700275 ;15) 1 (satu) bungkus Kristal putih yang diduga Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih dengan berat bersih 6,553 (enam koma lima lima tiga) Gram ;16) 1 (satu) timbangan Elekterik warna silver merk HARNIC ;17) 1 (satu) korek api Gas ;18) 1 (satu) unit HP.NOKIA warna hitam dengan Nomor IMEI 357907042891692 dengan Nomor SIM CARD 087847425892 ;19) 1 (satu) tas ransel warna biru yang didalamnya terdapat :- 1 (satu) bungkus plastik klip putih teransparan ;- 1 (satu) tutup botol plastic warna biru yang telah dirangkai dengan potongan pipet plastik warna putih garis merah ;20) 1 (satu) tissue ;21) 3 (tiga) plastik klip putih transparan ;22) 1 (satu) potongan pipet plastik warna putih garis merah ;23) 1 (satu) sweter warna abu ;24) 1 (satu) bong ;25) 1 (satu) gunting ;26) 1 (satu) korek api Gas ;27) 1 (satu) potongan bambu;28) 1 (satu) unit HP REALME warna biru dengan Nomor IMEI 1 866041391172 dan IMEI 2 2866066041391164 dengan Nomor Sim Card 087847491673;29) 1 (satu) kantong kain warna hitam yang di dalamnya terdapat :- 16 (enam belas) plastic klip transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan ;- 1 (satu) potongan pipet plastik warna putih garis merah ;30) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan. ;Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Herman Bin (Alm) Muksin Alias Ucok;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>M E N G A D I L I:Menyatakan Terdakwa LALU DARMAWANBIN (ALM) H. LALU ISMAUN HAK ALIAS MAMIQ DAR telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana? tanpa hak dan melawan hukum membeli dan menjual Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Kesatu Penuntut Umum ;Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ;Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;Menetapkan Terdakwa tetap berada dalam tahanan ;Menetapkan barang bukti berupa :1 (satu) bungkus kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastic klip putih transparan dengan berat 0,043 (nol koma empat tiga) gram1 (satu) dompet yang didalamnya terdapat 1 (satu) ATM BCA dengan nomor 5379412117222488,1 (satu) bukti Transfer BCA a.n. SRILAWATI, 1 (satu) unit HP SAMSUNG warna hitam dengan nomor IMEI 1 : 352617370737509 dan dengan nomor IMEI 2 : 752617400737503 dan Nomor SIM Cardnya : 085940898742,1 (satu) gulungan Matras,1 (satu) pipet kaca yang dililit dengan tisu warna putih,3 pipet plastik warna putih,1 tutup botol warna orange yang terdapat 2 (dua) lobang yang dimana 1 (satu) lobangnya terdapat 1 (satu) pipet plastik warna putih, 1 (satu) sumbu,1 (satu) korek api gas,1 (satu) gunting dan1 (satu) timbangan elektrik warna silverDirampas untuk dimusnahkan danuang tunai sebesar 204.000,- (dua ratus empat ribu rupiah),Uang tunai sebesar Rp. 2.230.000,- (dua juta dua ratus tiga puluh ribu rupiah)Dirampas untuk Negara.Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>523/Pid.Sus/2024/PN Mtr</t>
+          <t>483/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1370,19 +1370,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>: 6 (Enam) butir Ekstasi dengan Logo LV warna Coklat dengan Berat bersih 2,219 (Dua Koma Dua satu Sembilan) gram dijadikan bukti dalam berkas perkara terdakwa NURUL PAJRIAH Alias UYUN dan Terdakwa SYAFRUDIN Alias CENGONG. 1 (satu) buah HP android Merk Redmi warna Hitam dengan nomor whatsapp +31685463042Dirampas untuk di musnahkan.6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp2.500,00 (dua ribu lima ratus rupiah)</t>
+          <t>:  1 (satu) paketan barang yang terbungkus dengan menggunakan plastikwarna hitam terdapat lembar pengiriman dari J&amp;T Express dengan No Resi JP0735772130 identitas pengirim : Storeadventure 6282272378063 dengan alamat Kota Medan, Penerima Ary Nugraha Ramadhan dengan alamat Jalan Raya Penimbung Timur, Penimbung Gunungsari, Kabupaten Lombok Barat Nusa Tenggara Barat (NTB), Batas Kirim 05-03-2024, No Pesan : 240301UXG6V2C4, dengan nama Produk yang dikirim Sleeping Bag Bulu Angsa dan Tenda yang didalamnya berisi 4 (empat) bungkus daun, batang dan biji kering yang diduga narkotika jenis Ganja masing-masing dengan berat bersih 483,29 (empat ratus delapan puluh tiga koma dua puluh sembilan) gram, 491,81 (empat ratus sembilan puluh satu koma delapan puluh satu) gram, 489,08 (empat ratus delapan puluh sembilan koma nol delapan) gram, dan 489,59 (empat ratus delapan puluh sembilan koma lima puluh sembilan) gram, dengan berat keseluruhan seberat 1.956,77 (seribu sembilan ratus lima puluh enam koma tujuh puluh tujuh) gram, selanjutnya disisihkan untuk Uji Laboratorium di Balai Pom Mataram seberat 1,00 (satu koma nol nol) gram, dimusnahkan seberat 1.951,77 (seribu sembilan ratus lima puluh satu koma tujuh puluh tujuh) gram dan 4 (empat) gram untuk keperluan barang bukti dipersidangan sesuai Surat Ketetapan Status Barang Sitaan Narkotika Kepala Kejaksaan Negeri Mataram No. : 56/N.2.10/Enz.1/03/2024 tanggal 14 Maret 2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M E N G A D I L I : Menyatakan Terdakwa HARSONO ALS ONO BIN SYAFAAT ELI telah terbukti secara sah dan meyakinkan bersalah melakukan ?percobaan atau permufakatan jahat untuk melakukan tindak pidana narkotika dengan tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I dalam bentuk bukan tanaman 6 ( Enam) butir Ekstasi dengan Logo LV warna coklat dengan berat bersih/Netto 2,219 gram? sebagaimana dalam dakwaan alternatif pertama Jaksa Penuntut Umum. Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sebesar Rp1.000.000.000,00 (satu milyar), apabila denda tersebut tidak dibayar maka akan diganti dengan pidana penjara selama 3 (tiga) bulan penjara ; Menetapkan masa penangkapan dan penahanan yang telah dijalani terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan tersebut; Memerintahkan agar terdakwa tetap ditahan; Menetapkan barang bukti berupa : 6 (Enam) butir Ekstasi dengan Logo LV warna Coklat dengan Berat bersih 2,219 (Dua Koma Dua satu Sembilan) gram dijadikan bukti dalam berkas perkara terdakwa NURUL PAJRIAH Alias UYUN dan Terdakwa SYAFRUDIN Alias CENGONG. 1 (satu) buah HP android Merk Redmi warna Hitam dengan nomor whatsapp +31685463042Dirampas untuk di musnahkan.6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>Menyatakan Terdakwa Try Haryono alias Try bin Teguh Wiyono tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum membeli, menerima Narkotika Golongan I yang dalam bentuk tanaman beratnya melebihi 1 (satu) kilogram?sebagaimana dalam dakwaan kesatu; Menjatuhkan kepada Terdakwa oleh karena itu pidana penjara selama 9 (sembilan) tahundan pidana dendasebesarRp1.000.000.000,00 (satu miliarrupiah)dengan ketentuan apabila pidana denda tersebut tidak dibayar, diganti dengan pidana penjara selama3 (tiga) bulan ; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa:  1 (satu) paketan barang yang terbungkus dengan menggunakan plastikwarna hitam terdapat lembar pengiriman dari J&amp;T Express dengan No Resi JP0735772130 identitas pengirim : Storeadventure 6282272378063 dengan alamat Kota Medan, Penerima Ary Nugraha Ramadhan dengan alamat Jalan Raya Penimbung Timur, Penimbung Gunungsari, Kabupaten Lombok Barat Nusa Tenggara Barat (NTB), Batas Kirim 05-03-2024, No Pesan : 240301UXG6V2C4, dengan nama Produk yang dikirim Sleeping Bag Bulu Angsa dan Tenda yang didalamnya berisi 4 (empat) bungkus daun, batang dan biji kering yang diduga narkotika jenis Ganja masing-masing dengan berat bersih 483,29 (empat ratus delapan puluh tiga koma dua puluh sembilan) gram, 491,81 (empat ratus sembilan puluh satu koma delapan puluh satu) gram, 489,08 (empat ratus delapan puluh sembilan koma nol delapan) gram, dan 489,59 (empat ratus delapan puluh sembilan koma lima puluh sembilan) gram, dengan berat keseluruhan seberat 1.956,77 (seribu sembilan ratus lima puluh enam koma tujuh puluh tujuh) gram, selanjutnya disisihkan untuk Uji Laboratorium di Balai Pom Mataram seberat 1,00 (satu koma nol nol) gram, dimusnahkan seberat 1.951,77 (seribu sembilan ratus lima puluh satu koma tujuh puluh tujuh) gram dan 4 (empat) gram untuk keperluan barang bukti dipersidangan sesuai Surat Ketetapan Status Barang Sitaan Narkotika Kepala Kejaksaan Negeri Mataram No. : 56/N.2.10/Enz.1/03/2024 tanggal 14 Maret 2024; 1 (satu) bungkus plastik transparan merk Nasional; Dirampas untuk dimusnahkan;  1 (satu) unit Handphone merk Redmi warna biru yang berisi 1 (satu) Simcard XL 087730092108; 1 (satu) unit Handphone merk Oppo biru yang berisi 1 (satu) Simcard XL 087720032311; Dirampas untuk negara;  1 (satu) tas pinggang warna putih motif kotak-kotak yang didalamnya berisi uang sejumlah Rp. 497.000 (empat ratus sembilan puluh tujuh ribu rupiah),dikembalikan kepada Terdakwa Try Haryono Alias Try Bin Teguh Wiyono; 1 (satu) unit sepeda motor merk Honda PCX warna hitam dengan Nopol DR 4496 EN,dikembalikan kepada Sdr. Mohammad Iqbal; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>524/Pid.Sus/2024/PN Mtr</t>
+          <t>484/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1392,19 +1392,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>: 1 (satu) dompet warna coklat yang didalamnya terdapat : 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,36 (nol koma tiga enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,86 (nol koma delapan enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,87 (nol koma delapan tujuh) gram dengan jumlah berat bersih keseluruhan 3 (tiga) plastik klip yang didalamnya terdapat kristal putih diduga narkotika jenis shabu adalah 2,09 (dua koma nol sembilan) gram, 1 (satu) klip transparan yang didalamnya terdapat 28 (dua puluh tujuh) klip dalam keadaan kosong, 1 (satu) pipet warna hijau bergaris putih berbentuk sekop, 1 (satu) pipet warna bening berbentuk sekop dirampas untuk dimusnahkan Uang sejumlah Rp.700.000 (tujuh ratus ribu rupiah), 1 (satu) HP merk Redmi 4a dengan nomor IMEI 1 : 865407038708724 dan IMEI 2 865407038708732 dengan nomor simcard XL 085974178479, 1 (satu) HP Merk NOKIA 105 warna hitam dengan Nomor IMEI 358562082238945 tanpa Simcard dan 1 (satu) HP Nokia C3 Warna hitam dengan Nomor IMEI 354844046800085 dengan nomr Simcard AXIS 083835363003 dirampas untuk negara. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah)</t>
+          <t>: 1 bungkus rokok Gudang garam surya yang didalamnya terdapat 3 klip plastic bening yang masing-masing klipnya berisi kristal bening didiuga Narkotika golongan I jenis shabu</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>M E N G A D I L I: Menyatakan Terdakwa Henry Darusman Sukasa Bin Suaibun Daeng Alias Henry telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak menjual dan membeli Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Pertama ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 9 (sembilan) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) dompet warna coklat yang didalamnya terdapat : 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,36 (nol koma tiga enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,86 (nol koma delapan enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,87 (nol koma delapan tujuh) gram dengan jumlah berat bersih keseluruhan 3 (tiga) plastik klip yang didalamnya terdapat kristal putih diduga narkotika jenis shabu adalah 2,09 (dua koma nol sembilan) gram, 1 (satu) klip transparan yang didalamnya terdapat 28 (dua puluh tujuh) klip dalam keadaan kosong, 1 (satu) pipet warna hijau bergaris putih berbentuk sekop, 1 (satu) pipet warna bening berbentuk sekop dirampas untuk dimusnahkan Uang sejumlah Rp.700.000 (tujuh ratus ribu rupiah), 1 (satu) HP merk Redmi 4a dengan nomor IMEI 1 : 865407038708724 dan IMEI 2 865407038708732 dengan nomor simcard XL 085974178479, 1 (satu) HP Merk NOKIA 105 warna hitam dengan Nomor IMEI 358562082238945 tanpa Simcard dan 1 (satu) HP Nokia C3 Warna hitam dengan Nomor IMEI 354844046800085 dengan nomr Simcard AXIS 083835363003 dirampas untuk negara. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI : Menyatakan Terdakwa Leboh tersebut di atas terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menjual Narkotika golongan I sebagaimana dalam dakwaan alternatif pertama ; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima ) Tahun dan 6 (enam) bulan dan pidana denda sebesar Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6(enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap ditahan ; Menetapkan barang bukti berupa : 1 bungkus rokok Gudang garam surya yang didalamnya terdapat 3 klip plastic bening yang masing-masing klipnya berisi kristal bening didiuga Narkotika golongan I jenis shabu; 1 buah pipat plastic yang ujungnya telah diruncingkan; 1 bungkus rokok Gudang garam surya didalamnya terdapat beberapa klip plastic bening; 1 buah botol plastic yang pada tutupnya terdapat 2 lubang; 1 buah korek api gas; Dirampas untuk dimusnahkan; Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00(dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>525/Pid.Sus/2024/PN Mtr</t>
+          <t>491/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>:  1 (satu) wadah Gatsby warna merah hitam di dalamnya terdapat 1 (satu) buah plastik klip bening berisikan kristal bening Narkotika jenis sabu</t>
+          <t>: 1 (satu) celana pendek warna coklat yang di dalamnya terdapat 1 (satu) bungkus plastik klip transparan yang didalamnya terdapat 3 (tiga) bungkus kristal putih Narkotika jenis sabu masing-masing dengan berat bersih seberat 0,050 (nol koma nol lima puluh) gram, 0,042 (nol koma nol empat puluh dua) gram dan 0,054 (nol koma nol lima puluh empat) gram. 1 (satu) bungkus klip transparan yang di dalamnya terdapat kristal putih Narkotika jenis sabu dengan berat bersih 0,151 (nol koma seratus lima puluh satu) gram</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Menyatakan Terdakwa Rudianto tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak memiliki NarkotikaGolongan I dalam bentuk bukan tanaman, sebagaimanadalam dakwaankedua; Menjatuhkan pidana kepada Terdakwaoleh karena itu dengan pidana penjara selama5 (lima) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah), dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapandan penahanan yang telah dijalani oleh Terdakwadikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwatetap ditahan; Menetapkanbarang bukti berupa:  1 (satu) wadah Gatsby warna merah hitam di dalamnya terdapat 1 (satu) buah plastik klip bening berisikan kristal bening Narkotika jenis sabu; 1 (satu) buah pipet plastik yang ujungnya telah diruncingkan dan 2 (dua) buah plastik klip bening kosong; 1 (satu) bendel plastik klip bening kosong; 1 (satu) buah pipet yang ujungnya telah diruncingkan; Dirampas untuk dimusnahkan;  1(satu) unit HP kecil merk Nokia warna hitam; Uang tunai sejumlah Rp.150.000 (seratus lima puluh ribu rupiah); Dirampas untuk negara;  6. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
+          <t>Menyatakan Terdakwa I Gede Oka Suartana Alias Gede tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?permufakatan jahat tanpa hak menjadi perantara dalam jual beli Narkotika Golongan I sebagaimana dalam dakwaan kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sejumlah Rp 1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3(tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) celana pendek warna coklat yang di dalamnya terdapat 1 (satu) bungkus plastik klip transparan yang didalamnya terdapat 3 (tiga) bungkus kristal putih Narkotika jenis sabu masing-masing dengan berat bersih seberat 0,050 (nol koma nol lima puluh) gram, 0,042 (nol koma nol empat puluh dua) gram dan 0,054 (nol koma nol lima puluh empat) gram. 1 (satu) bungkus klip transparan yang di dalamnya terdapat kristal putih Narkotika jenis sabu dengan berat bersih 0,151 (nol koma seratus lima puluh satu) gram; 1 (satu) kotak kaca mata warna hitam yang di dalamnya terdapat : 2 (dua) bungkus klip transparan bekas pembungkus Narkotika jenis sabu. 4 (empat) plastik klip transparan. 1 (satu) tutup botol warna oranye yang sudah tersambung dengan 1 (satu) pipet plastik warna putih bergaris merah dan 1 (satu) pipet plastik warna putih. 3 (tiga) pipet plastik warna putih bergaris merah yang ujungnya berbentuk sekop. 1 (satu) korek api gas 1 (satu) pipet kaca 1 (satu) sumbu warna merah muda yang tersambung dengan kertas rokok warna emas 1 (satu) sumbu warna kuning yang tersambung dengan kertas rokok warna emas. Dirampas untuk dimusnahkan ; 1 (satu) unit Handphone merek Nokia warna hitam dengan sim card XL (087864796972) 1 (satu) unit Handphone merek Vivo warna hitam dengan Sim card Tri (08954000871939) 1 (satu) Handphone merek Redmi warna hitam dengan Sim card XL (087796789582); Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah); Dirampas untuk Negara ; 6. Membebankan kepada Terdakwa membayar biaya perkara ini sejumlah Rp2.500,00.-(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>531/Pid.Sus/2024/PN Mtr</t>
+          <t>493/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1436,19 +1436,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>:  Uang tunai sejumlah Rp.31.276.000, (tiga puluh satu juta dua ratus tujuh puluh enam ribu rupiah</t>
+          <t>: Barang bukti yang disita dari ROSIANA PUTRI Alias PUTRI KOCET BINTI AHMAD FIKRI sebagai berikut berupa :  1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop 1 (satu) bendel plastik klip transparan Merk NASIONAL 1 (satu) buah tas wanita warna putih tulang 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry 1 (satu) buah Handphone iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080 315 (tiga ratus lima belas) lembar uang, uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) dengan rincian : 15 lembar pecahan Rp.100.000,- 1 lembar pecahan Rp.75.000,- 68 lembar pecahan Rp.50.000,- 35 lembar pecahan Rp.20.000,- 74 lembar pecahan Rp.10.000,- 102 lembar pecahan Rp.5.000,- 17 lembar pecahan Rp.2.000,- 3 lembar pecahan Rp.1.000,-  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. Bahwa barang bukti yang disita dari SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN sebagai berikut berupa :  1 (satu) buah Handphone android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345 1 (satu) buah Dompet warna hitam 1 (satu) unit Kendaraan Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493 16 (enam belas) lembar uang, uang tunai sejumlah Rp.299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) dengan rincian : 5 lembar pecahan Rp.50.000,- 1 lembar pecahan Rp.10.000,- 7 lembar pecahan Rp.5.000,- 1 lembar pecahan Rp.2.000,- 2 lembar pecahan Rp.1.000,- Diserahkan kepada Penuntut Umum sebagai barang bukti dalam perkara atas nama terdakwa SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN. Bahwa barang bukti yang disita dari terdakwa NI NYOMAN HARTINI Alias SRI BINTI SAHRI JUPRI sebagai berikut berupa :  1 (satu) buah Dompet Kulit Merk Levi?s warna coklat Dirampas untuk dimusnahkan.  1 (satu) buah Handphone Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195 1 (satu) buah Handphone android merk Oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 37 (tiga puluh tujuh) lembar uang, uang tunai sejumlah Rp.2.190.000,- (dua juta seratus sembilan puluh ribu rupiah) dengan rincian 8 lembar pecahan Rp.100.000,- 27 lembar pecahan Rp.50.000,- 2 lembar pecahan Rp.20.000,- Dirampas untuk negara. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Menyatakan Terdakwa Andre Hartanto Soetonegoro Alias Andre Bin Takari Soetonegoro tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I yang beratnya melebihi 5 (lima) gram, sebagaimana dalam dakwaan pertama; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan denda sejumlah Rp.2.000.000.000,00 (dua miliar lima ratus juta rupiah), dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 4 (empat) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa:  Uang tunai sejumlah Rp.31.276.000, (tiga puluh satu juta dua ratus tujuh puluh enam ribu rupiah; 1 (satu) buah HP Android merk realme warna hitam dengan case warna hijau dengan nomor +6287892708326; 1 (satu) buah HP Android merk Oppo warna hitam dengan case transparan dengan nomor +6287747379481, Dirampas untuk negara; d). 1 (satu) buah kotak warna abu tempat menyimpan 47 (empat puluh tujuh) buah plastik bening transparan yang di dalamnya berisi Narkotika jenis shabu dengan berat bersih keseluruhan 10,475 gr (sepuluh koma empat tujuh lima) gram; e). 1 (satu) buah white board yang bertuliskan jumlah penjualan dan harga shabu; f). 1 (satu) buah pipet plastik air minum warna merah putih yang ujungnya diruncingkan atau biasa disebut sekop; g). 1 (satu) buah kotak warna hijau yang bertuliskan Everbest; h). 2 (dua) bendel plastik klip transparan merk Unggul; i). 16 (enam belas) buah klip transparan yang bertempelkan tulisan harga dan jumlah poketan shabu; J). 2 (dua) lembar kertas label; k). 3 (tiga) buah gunting warna hitam; l). 1 (satu) buah timbangan digital warna silver; m). 1 (satu) buah pipet plastik warna hitam yang ujungnya diruncingkan atau biasa disebut sekop; n). 9 (sembilan) buah korek api gas; o). 1 (satu) buah pipet kaca bening; p). 1 (satu) buah tas kresek warna putih; q). 1 (satu) buah tas pinggang merk Eiger warna hitam; r). 1 (satu) buah dompet warna hitam; s). 1 (satu) buah kartu ATM BCA dengan nomor 6019 0095 1363 9556; Dirampas untuk dimusnahkan; Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI: Menyatakan Terdakwa Ni Nyoman Hartini Als Sri Binti Sahri Jupri tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak melakukan permufakatan jahat untuk menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I sebagaimana dalam dakwaan alternatif kesatu; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 9 ( sembilan ) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: Barang bukti yang disita dari ROSIANA PUTRI Alias PUTRI KOCET BINTI AHMAD FIKRI sebagai berikut berupa :  1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop 1 (satu) bendel plastik klip transparan Merk NASIONAL 1 (satu) buah tas wanita warna putih tulang 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry 1 (satu) buah Handphone iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080 315 (tiga ratus lima belas) lembar uang, uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) dengan rincian : 15 lembar pecahan Rp.100.000,- 1 lembar pecahan Rp.75.000,- 68 lembar pecahan Rp.50.000,- 35 lembar pecahan Rp.20.000,- 74 lembar pecahan Rp.10.000,- 102 lembar pecahan Rp.5.000,- 17 lembar pecahan Rp.2.000,- 3 lembar pecahan Rp.1.000,-  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. Bahwa barang bukti yang disita dari SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN sebagai berikut berupa :  1 (satu) buah Handphone android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345 1 (satu) buah Dompet warna hitam 1 (satu) unit Kendaraan Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493 16 (enam belas) lembar uang, uang tunai sejumlah Rp.299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) dengan rincian : 5 lembar pecahan Rp.50.000,- 1 lembar pecahan Rp.10.000,- 7 lembar pecahan Rp.5.000,- 1 lembar pecahan Rp.2.000,- 2 lembar pecahan Rp.1.000,- Diserahkan kepada Penuntut Umum sebagai barang bukti dalam perkara atas nama terdakwa SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN. Bahwa barang bukti yang disita dari terdakwa NI NYOMAN HARTINI Alias SRI BINTI SAHRI JUPRI sebagai berikut berupa :  1 (satu) buah Dompet Kulit Merk Levi?s warna coklat Dirampas untuk dimusnahkan.  1 (satu) buah Handphone Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195 1 (satu) buah Handphone android merk Oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 37 (tiga puluh tujuh) lembar uang, uang tunai sejumlah Rp.2.190.000,- (dua juta seratus sembilan puluh ribu rupiah) dengan rincian 8 lembar pecahan Rp.100.000,- 27 lembar pecahan Rp.50.000,- 2 lembar pecahan Rp.20.000,- Dirampas untuk negara. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>543/Pid.Sus/2024/PN Mtr</t>
+          <t>510/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>: 1 (satu) buah pipet plastic warna putih bergaris merah yang salah satu ujungnya ditekuk menyerupai huruf ?L? 1 (satu) buah pipet plastic warna putih 1 (satu) buah pipet kaca 1 (satu) buah sumbu yang terbuat dari kertas alumunium Foil 1 (satu) buah alat hisap/bong yang terbuat dari botol plastic transparan dengan tutup berwarna merah dan pada tutup tersebut terpasang 1 (satu) buah pipet plastic warna putih bergaris merah yang ditekuk menyerupai huruf ?L? 1 (satu) buah handphone merk OPPO A 98 warna biru metalik dengan softcase transparan yang terpasang 1 (satu) buah kartu simcard XL dengan nomor 087860635225 1 (satu) buah topi warna hitam bertuliskan LA. 1 (satu) buah alat hisap/bong yang terbuat dari botol kaca lengkap dengan tutupnya yang sudah terpasang 2 (dua) buah pipet plastik berwarna putih bergaris merah yang ditekuk menyerupai huruf ?L? 1 (satu) buah kaleng snack merk "PRINGLES ORIGINAL" warna merah yang didalamnya berisi: 1 (satu) buah korek api gas warna putih yang sudah dimodifikasi 1 (satu) buah korek api gas warna merah 2 (dua) buah pipet plastik warna putih bergaris merah yang pada ujungnya sudah diruncingkan 1 (satu) buah pipet plastik transparan yang salah satu ujungnya sudah diruncingkan 2 (dua) buah sumbu 1 (satu) buah jarum pentul 20 (dua puluh) buah klip plastik transparan bekas kemasan sabu 1 (satu) bendel klip plastik transparan merk ?Plastik Seal NASIONAL? 1 (satu) buah pipet plastik transparan bergaris putih kuning ukuran besar yang salah satu ujungnya sudah diruncingkan 1 (satu) buah gunting dengan gagang berwarna merah muda 1 (satu) buah gunting dengan gagang berwarna hitam 1 (satu) buah handphone merk OPPO A 16 warna biru dongker yang terpasang 1 (satu) buah sim card XL dengan nomor 081999968661 Dirampas untuk dimusnahkan. Membebankan kepada para Terdakwa untuk membayar biaya perkara, masing-masing sebesar Rp. 2.500,- (dua ribu lima ratus rupiah)</t>
+          <t>:1) 1 (satu) buah tas slempang warna hijau bertuliskan ?CRUISER? yang didalamnya terdapat:a. 1 (satu) buah bungkus rokok merk ESSE warna biru didalamnya terdapat :1. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 4,57 (empat koma lima tujuh) gram / Netto 4,21 (empat koma dua satu) gram</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>M E N G A D I L I Menyatakan Terdakwa I. AS DINATA Alias Tomi dan Terdakwa II. SALMAN ALFARISI Alias Salman telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum menggunakan Narkotika Golongan I untuk diri sendiri? sebagaimana dalam Dakwaan Kedua Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa I. AS DINATA Alias Tomi dan Terdakwa II. SALMAN ALFARISI Alias Salman, dengan pidana penjara masing-masing selama 1 ( satu ) tahun ; Menetapkan masa penangkapan dan masa selama para Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan para Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) buah pipet plastic warna putih bergaris merah yang salah satu ujungnya ditekuk menyerupai huruf ?L? 1 (satu) buah pipet plastic warna putih 1 (satu) buah pipet kaca 1 (satu) buah sumbu yang terbuat dari kertas alumunium Foil 1 (satu) buah alat hisap/bong yang terbuat dari botol plastic transparan dengan tutup berwarna merah dan pada tutup tersebut terpasang 1 (satu) buah pipet plastic warna putih bergaris merah yang ditekuk menyerupai huruf ?L? 1 (satu) buah handphone merk OPPO A 98 warna biru metalik dengan softcase transparan yang terpasang 1 (satu) buah kartu simcard XL dengan nomor 087860635225 1 (satu) buah topi warna hitam bertuliskan LA. 1 (satu) buah alat hisap/bong yang terbuat dari botol kaca lengkap dengan tutupnya yang sudah terpasang 2 (dua) buah pipet plastik berwarna putih bergaris merah yang ditekuk menyerupai huruf ?L? 1 (satu) buah kaleng snack merk "PRINGLES ORIGINAL" warna merah yang didalamnya berisi: 1 (satu) buah korek api gas warna putih yang sudah dimodifikasi 1 (satu) buah korek api gas warna merah 2 (dua) buah pipet plastik warna putih bergaris merah yang pada ujungnya sudah diruncingkan 1 (satu) buah pipet plastik transparan yang salah satu ujungnya sudah diruncingkan 2 (dua) buah sumbu 1 (satu) buah jarum pentul 20 (dua puluh) buah klip plastik transparan bekas kemasan sabu 1 (satu) bendel klip plastik transparan merk ?Plastik Seal NASIONAL? 1 (satu) buah pipet plastik transparan bergaris putih kuning ukuran besar yang salah satu ujungnya sudah diruncingkan 1 (satu) buah gunting dengan gagang berwarna merah muda 1 (satu) buah gunting dengan gagang berwarna hitam 1 (satu) buah handphone merk OPPO A 16 warna biru dongker yang terpasang 1 (satu) buah sim card XL dengan nomor 081999968661 Dirampas untuk dimusnahkan. Membebankan kepada para Terdakwa untuk membayar biaya perkara, masing-masing sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>MENGADILI:1. Menyatakan Terdakwa Jamiludin Akmal telah terbukti bersalah secara sah dan meyakinkan melakukan Tindak Pidana ?menjual dan membeli Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram? melanggar Pasal 114 Ayat (2) Undang-Undang RI No. 35 Tahun 2009 Tentang Narkotika sebagaimana dalam dakwaan alternatif pertama Penuntut Umum2. Menjatuhkan pidana terhadap Terdakwa Jamiludin Akmal oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila tidak dibayar maka diganti dengan pidana penjara selama 3 (Tiga) bulan.3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan tersebut;4. Menetapkan Terdakwa tetap berada dalam tahanan;5. Menyatakan barang bukti berupa :1) 1 (satu) buah tas slempang warna hijau bertuliskan ?CRUISER? yang didalamnya terdapat:a. 1 (satu) buah bungkus rokok merk ESSE warna biru didalamnya terdapat :1. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 4,57 (empat koma lima tujuh) gram / Netto 4,21 (empat koma dua satu) gram;2. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode B berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 1,87 (satu koma delapan tujuh) gram / Netto 1,42 (satu koma empat dua) gram;b. 1 (satu) buah plastic klip bening berisikan 10 (sepuluh) butir pil diduga narkotika jenis ekstasi dengan rincian sebagai berikut :1. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,36 (nol koma tiga enam) gram, Kode C1;2. 1 (satu) butir pil logo Pinguin warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,25 (nol koma dua lima) gram, Kode C2;3. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,39 (nol koma tiga sembilan) gram, Kode C3;4. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,38 (nol koma tiga delapan) gram, Kode C4;5. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C5;6. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C6;7. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C7;8. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C8;9. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,32 (nol koma tiga dua) gram, Kode C9;10. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,34 (nol koma tiga empat) gram, Kode C10;2) 1 (satu) buah buku kecil catatan penjualan.Dirampas untuk dimusnahkan.1) 1 (satu) unit HP Android merk SAMSUNG warna Hitam;2) Uang Tunai sejumlah Rp 800.000,- (delapan ratus ribu rupiah);Dirampas untuk Negara.5. Membebankan kepada Terdakwa membayar biaya perkara sejumlahRp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>544/Pid.Sus/2024/PN Mtr</t>
+          <t>521/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1480,19 +1480,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>:  1 (satu) Klip Plastik Transparan Yang Didalam Beisi 1 (satu) Klip Plastik Transparan Yang Didalamnya Berisi Kristal Bening Diduga Narkotika Jenis Sabhu 1 (satu) Unit Hp Infinix Warna Biru Metalik 1 (satu) Buah Hp Oppo A37 Wama Silver Menggunakan Softcase Warna Biru 1 (satu) Buah Korek Api Gas Warma Ungu Yang Sudah Dimodifikasi Barang bukti dirampas untuk dimusnahkan  1 (satu) Unit Sepeda Motor Honda Vario Wama Hitam Dr 2318 Mg, No Rangka Mh1jfx119hk267053, No Mesin Jfx1e-1266437, Nama Pemilk Titik agustiana Barang bukti dikembalikan kepada terdakwa I Pradito Tri Sulistyono Alias Dito6. Membebani para terdakwa untuk membayar biaya perkara masing-masing sebesar RP.2.500,-(dua ribu lima ratus rupiah)</t>
+          <t>:1. 1 (satu) timbangan elektrik warna silver merk HARNIC</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MENGADILI: Menyatakan terdakwa I . Pradito Tri Sulistyono Alias Dito dan terdakwa II. Achmad Teguh Rinaldi Alias Aldibersalah melakukan tindak pidana ?penyalahguna Narkotika Golongan I bagi diri sendiri? sebagaimana dalam dakwaan Alternatife Kedua Penuntut Umum; Menjatuhkan pidana terhadap terdakwa I Pradito Tri Sulistyono Alias Dito dan terdakwa II Achmad Teguh Rinaldi Alias Aldi berupa pidana penjara masing-masing selama 1 (satu) Tahun dan 4 (empat) bulan ; Menetapkan penahanan yang telah dijalani oleh para terdakwa dikurangkan seluruhnhya dari pidana yang dijatuhkan; MenetapkanPara Terdakwa Tetap ditahan; Menatapkana barang bukti berupa :  1 (satu) Klip Plastik Transparan Yang Didalam Beisi 1 (satu) Klip Plastik Transparan Yang Didalamnya Berisi Kristal Bening Diduga Narkotika Jenis Sabhu 1 (satu) Unit Hp Infinix Warna Biru Metalik 1 (satu) Buah Hp Oppo A37 Wama Silver Menggunakan Softcase Warna Biru 1 (satu) Buah Korek Api Gas Warma Ungu Yang Sudah Dimodifikasi Barang bukti dirampas untuk dimusnahkan  1 (satu) Unit Sepeda Motor Honda Vario Wama Hitam Dr 2318 Mg, No Rangka Mh1jfx119hk267053, No Mesin Jfx1e-1266437, Nama Pemilk Titik agustiana Barang bukti dikembalikan kepada terdakwa I Pradito Tri Sulistyono Alias Dito6. Membebani para terdakwa untuk membayar biaya perkara masing-masing sebesar RP.2.500,-(dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI1. Menyatakan Terdakwa Herman Bin (Alm) Muksin Als Ucok tersebut diatas, terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Melakukan permufakatan jahat tanpa hak atau melawan hukum menjual, membeli, menukar, menyerahkan atau menerima Narkotika Golongan I dalam bentuk bukan tanaman beratnya 5 (lima) gram? sebagaimana dalam dakwaan alternatif ke 1 (satu);2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan pidana denda sejumlah Rp1.000.000.000,00 (satu miliyar rupiah ) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;4. Menetapkan Terdakwa tetap ditahan;5. Menetapkan barang bukti berupa :1. 1 (satu) timbangan elektrik warna silver merk HARNIC;2. 1 (satu) korek api gas;3. 1 (satu) unit HP NOKIA warna Hitam dengan nomor IMEI 357907042891692 dengan Nomor SIM Card 087847425892;4. 1 (satu) bong;5. 1 (satu) gunting;6. 1 (satu) korek api gas;7. 1 (satu) potongan bamboo;8. 1 (satu) unit HP REALME warna Biru dengan nomor IMEI 1 : 866066041391172 dan IMEI 2 : 866066041391164 dengan Nomor SIM Card 087847491673;9. 1 (satu) kantong kain warna hitam yang didalamnya terdapat :- 16 (enam belas) plastik klip putih transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan;- 1 (satu) potongan pipet plastik warna putih garis merah;- 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;10. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan;11. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan;12. Uang tunai sebesar Rp 550.000 (lima ratus lima puluh ribu rupiah);13. 1 (satu) silet;14. 3 (tiga) bong;15. 4 (empat) korek api gas;16. 2 (dua) isolasi bening;17. 3 (tiga) potongan pipet plastik putih transparan;18. 2 (dua) bungkus plastik klip putih transparan;19. 3 (tiga) plastik klip putih transparan;20. 1 (satu) pipet kaca;21. 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;22. 4 (empat) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan ;23. 1 (satu) unit HP SAMSUNG warna Biru dengan nomor IMEI 1 : 355203101577964 dan IMEI 2 : 355204101577962 dengan Nomor SIM Card 081775700275 ;24. 1 (satu) bungkus plastik klip putih transparan ;25. 5 (lima) plastik klip putih transparan ;26. 1 (satu) tas ransel warna biru ;27. 1 (satu) bungkus plastik klip putih transparan ;28. 1 (satu) tutup botol plastik warna biru yang telah terangkai dengan potongan pipet plastik warna putih garis merah ;29. 1 (satu) potongan pipet plastik warna putih garis merah ;30. 1 (satu) kotak aluminium ;31. 1 (satu) tisu ;32. 3 (tiga) plastik klip putih transparan ;33. 1 (satu) potongan pipet plastik warna putih garis merah ;34. 1 (satu) sweter warna abu ;35. 1 (satu) bungkus kristal putih narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan ; Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Purwadi bin Mastar Als Pur;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>552/Pid.Sus/2024/PN Mtr</t>
+          <t>522/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1502,19 +1502,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>:- 1 (satu) poket klip plasik transparan yang didalamnya berisi kristal bening diduga narkotika jenis shabu</t>
+          <t>:1) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,168 (nol koma enam delapan ) Gram</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MENGADILI:1. Menyatakan Terdakwa Ahwal Firmansyah Alias Firman terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum menguasai Narkotika golongan I sebagaimana dalam dakwaan alternatif kedua ;2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan 6 (enam) bulan dan pidana denda sejumlah Rp.800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa, dikurangkan seluruhnya dari pidana yang dijatuhkan ;4. Menetapkan Terdakwa tetap ditahan ;5. Menetapkan barang bukti berupa :- 1 (satu) poket klip plasik transparan yang didalamnya berisi kristal bening diduga narkotika jenis shabu;- 1 (satu) klip plastic transparan kosong bekas penyimpanan narkotika jenis sabhu;- 1 (satu) buah pipet plastic warna putih bergaris merah yang salah satu ujungnya sudah diruncingkan;- 1 (satu) buah pipet plastic warna putih yang salah satu ujungnya sudah diruncingkan;- 1 (satu) buah sumbu yang terbuat dari jarum spet ;- 1 (satu) buah alat hisap/bong yang terbuat dari botol plastic transparan dengan tutup berwarna gold (emas) dan pada tutup tersebut terpasang 2 (dua) buah pipet plastic warna putih yang ditekuk menyerupai huruf ?L?;- 1 (satu) buah alat hisap/bong yang terbuat dari botol plastic transparan dengan tutup berwarna putih dan pada tutup tersebut terpasang 2 (dua) buah pipet plastic warna putih bergaris merah yang ditekuk menyerupai huruf ?L?;- 1 (satu) buah pipet kaca yang salah satu lubangnya berisi potongan pipet plastic warna putih bergaris merah;- 4 (empat) buah korek api gas warna merah yang sudah dimodifikasi;Dirampas untuk dimusnahkan;- 1 (satu) buah handphone merk OPPO warna hitam dengan softcase berwarna orange yang terpasang 1 (satu) buah sim card XL dengan nomor (085942336358);Dirampas untuk Negara.6. Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp 2.500,00 (dua ribu lima ratus rupiah);</t>
+          <t>MENGADILI:1. Menyatakan Terdakwa Saepul Anwar Bin Masdah alias Epul tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Permufakatan jahat tanpa hak menjadi perantara dalam jual beli Narkotika golongan I yang beratnya melebihi 5 (lima) gram? sebagaimana dalam dakwaan alternatif pertama Penuntut Umum;2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan pidana denda sejumlah Rp1.000.000.000,- dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 4 (empat) bulan;3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;4. Menetapkan Terdakwa tetap berada dalam tahanan;5. Menetapkan barang bukti berupa:1) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,168 (nol koma enam delapan ) Gram ;2) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,288 (nol dua delapan delapan) gram ;3) Uang tunai sebesar Rp.5.50.000,- (lima ratus lima puluh ribu rupiah) ;4) 1 (satu) silet ;5) 3 (tiga) Bong ;6) 4 (empat) korek api gas ;7) 2 (dua) isolasi bening ;8) 3 (tiga) bungkus plastik klip putih transparan ;9) 2 (dua) bungkus plastik putih transparan ;10) 3 (tiga) plastik klip putih transparan ;11) 1 (satu) pipet kaca ;12) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan ;13) 4 (empat) plastik klip putih transparan bekas shabu disimpan di dalam plastik klip putih transparan ;14) 1 (satu) unit HP.SAMSUNG Warna biru dengan Nomor :IMEI.1.35503101577964 dan IMEI 2.355204101577962 dengan Nomor SIM CAR 081775700275 ;15) 1 (satu) bungkus Kristal putih yang diduga Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih dengan berat bersih 6,553 (enam koma lima lima tiga) Gram ;16) 1 (satu) timbangan Elekterik warna silver merk HARNIC ;17) 1 (satu) korek api Gas ;18) 1 (satu) unit HP.NOKIA warna hitam dengan Nomor IMEI 357907042891692 dengan Nomor SIM CARD 087847425892 ;19) 1 (satu) tas ransel warna biru yang didalamnya terdapat :- 1 (satu) bungkus plastik klip putih teransparan ;- 1 (satu) tutup botol plastic warna biru yang telah dirangkai dengan potongan pipet plastik warna putih garis merah ;20) 1 (satu) tissue ;21) 3 (tiga) plastik klip putih transparan ;22) 1 (satu) potongan pipet plastik warna putih garis merah ;23) 1 (satu) sweter warna abu ;24) 1 (satu) bong ;25) 1 (satu) gunting ;26) 1 (satu) korek api Gas ;27) 1 (satu) potongan bambu;28) 1 (satu) unit HP REALME warna biru dengan Nomor IMEI 1 866041391172 dan IMEI 2 2866066041391164 dengan Nomor Sim Card 087847491673;29) 1 (satu) kantong kain warna hitam yang di dalamnya terdapat :- 16 (enam belas) plastic klip transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan ;- 1 (satu) potongan pipet plastik warna putih garis merah ;30) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan. ;Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Herman Bin (Alm) Muksin Alias Ucok;6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp2.500,00 (dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>553/Pid.Sus/2024/PN Mtr</t>
+          <t>524/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1524,19 +1524,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>: 1  (satu) buah dompet kulit warna hitam bertuliskan ?LEVI?S COPPER JEANS?</t>
+          <t>: 1 (satu) dompet warna coklat yang didalamnya terdapat : 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,36 (nol koma tiga enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,86 (nol koma delapan enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,87 (nol koma delapan tujuh) gram dengan jumlah berat bersih keseluruhan 3 (tiga) plastik klip yang didalamnya terdapat kristal putih diduga narkotika jenis shabu adalah 2,09 (dua koma nol sembilan) gram, 1 (satu) klip transparan yang didalamnya terdapat 28 (dua puluh tujuh) klip dalam keadaan kosong, 1 (satu) pipet warna hijau bergaris putih berbentuk sekop, 1 (satu) pipet warna bening berbentuk sekop dirampas untuk dimusnahkan Uang sejumlah Rp.700.000 (tujuh ratus ribu rupiah), 1 (satu) HP merk Redmi 4a dengan nomor IMEI 1 : 865407038708724 dan IMEI 2 865407038708732 dengan nomor simcard XL 085974178479, 1 (satu) HP Merk NOKIA 105 warna hitam dengan Nomor IMEI 358562082238945 tanpa Simcard dan 1 (satu) HP Nokia C3 Warna hitam dengan Nomor IMEI 354844046800085 dengan nomr Simcard AXIS 083835363003 dirampas untuk negara. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>M E N G A D I L I Menyatakan Terdakwa ZABIM KHIYASI RAMADHAN Als. ZABIM Bin. HALID ASWANDI telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum menggunakan Narkotika Golongan I untuk diri sendiri? sebagaimana dalam Dakwaan Ketiga Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa ZABIM KHIYASI RAMADHAN Als. ZABIM Bin. HALID ASWANDI, dengan pidana penjara selama 1 ( satu ) tahun; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1  (satu) buah dompet kulit warna hitam bertuliskan ?LEVI?S COPPER JEANS?; 2. 1 (satu) buah bungkus Rokok merk CAMEL warna ungu; 3. 1 (satu) buah poket klip plastik bening yang didalamnya berisi kristal bening yang diduga narkotika jenis sabu dengan berat bruto 0,30 (nol koma tiga nol) gram; 4. 6 (enam) buah klip plastik bening; 5. 1 (satu) buah gunting; 6. 1 (satu) buah kotak warna hitam yang bertuliskan MATRIX 5-40W yang didalamnya terdapat :  1 (satu) buah Alat Hisap Sabu (BONG) yang terbuat dari botol plastik kecil yang di tutupnya terdapat 2 (dua) buah lubang; 1 (satu) buah korek api gas berwarna merah yang sudah dimodifikasi; 1 (satu) buah tabung Kaca yang di dalamnya terdapat gulungan tisu warna putih; 1 (satu) buah potongan pipet plastik warna putih yang salah satu ujungnya diruncingkan; 1 (satu) buah potongan pipet plastik warna hitam yang salah satu ujungnya diruncingkan; 1 (satu) buah potongan pipet plastik warna putih berbentuk huruf L; 3 (tiga) buah potongan pipet plastik warna putih; 1 (satu) buah sumbu. 7. Uang tunai sejumlah Rp.275.000,-(dua ratus tujuh puluh lima ribu rupiah); 8. 1 (satu) unit Handphone Merk IPHONE 8 warna hitam dengan Cassing warna Hitam;Dipergunakan dalam perkara lain atas nama ADE SKY PRATAMA Alias SKY Bin EDIANTO.6. Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>M E N G A D I L I: Menyatakan Terdakwa Henry Darusman Sukasa Bin Suaibun Daeng Alias Henry telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ? tanpa hak menjual dan membeli Narkotika Golongan I? sebagamana dalam dakwaan Alternatif Pertama ; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 9 (sembilan) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah) jika denda tersebut tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan ; Memerintahkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) dompet warna coklat yang didalamnya terdapat : 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,36 (nol koma tiga enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,86 (nol koma delapan enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,87 (nol koma delapan tujuh) gram dengan jumlah berat bersih keseluruhan 3 (tiga) plastik klip yang didalamnya terdapat kristal putih diduga narkotika jenis shabu adalah 2,09 (dua koma nol sembilan) gram, 1 (satu) klip transparan yang didalamnya terdapat 28 (dua puluh tujuh) klip dalam keadaan kosong, 1 (satu) pipet warna hijau bergaris putih berbentuk sekop, 1 (satu) pipet warna bening berbentuk sekop dirampas untuk dimusnahkan Uang sejumlah Rp.700.000 (tujuh ratus ribu rupiah), 1 (satu) HP merk Redmi 4a dengan nomor IMEI 1 : 865407038708724 dan IMEI 2 865407038708732 dengan nomor simcard XL 085974178479, 1 (satu) HP Merk NOKIA 105 warna hitam dengan Nomor IMEI 358562082238945 tanpa Simcard dan 1 (satu) HP Nokia C3 Warna hitam dengan Nomor IMEI 354844046800085 dengan nomr Simcard AXIS 083835363003 dirampas untuk negara. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.2.500,00 (dua ribu lima ratus rupiah) ;</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>554/Pid.Sus/2024/PN Mtr</t>
+          <t>525/Pid.Sus/2024/PN Mtr</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>: 1 (satu) Buah Dompet Kulit Warna Hitam Bertuliskan ?levi?s Copper Jeans 1 (satu) Buah Bungkus Rokok Merk Camel Warna Ungu</t>
+          <t>:  1 (satu) wadah Gatsby warna merah hitam di dalamnya terdapat 1 (satu) buah plastik klip bening berisikan kristal bening Narkotika jenis sabu</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>M E N G A D I L I Menyatakan Terdakwa ADE SKY PRATAMA Als.SKY telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum menggunakan Narkotika Golongan I untuk diri sendiri? sebagaimana dalam Dakwaan Ketiga Penuntut Umum ; Menjatuhkan pidana kepada Terdakwa ADE SKY PRATAMA Als.SKY, dengan pidana penjara selama 1 ( satu ) tahun ; Menetapkan masa penangkapan dan masa selama Terdakwa berada dalam tahanan dikurangkan seluruhnya dari pidana yang dijatuhkan ; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa : 1 (satu) Buah Dompet Kulit Warna Hitam Bertuliskan ?levi?s Copper Jeans 1 (satu) Buah Bungkus Rokok Merk Camel Warna Ungu;- 1 (satu) Buah Poket Klip Plastik Bening Yang Didalamnya Berisi Kristal Bening Yang Diduga Narkotika Jenis Shabu Dengan Berat Bruto 0,30 (nol Koma Tiga Nol) Gram 6 (enam) Buah Klip Plastik Bening 1 (satu) Buah Gunting; 1 (satu) Buah Kotak Warna Hitam Yang Bertuliskan Matrix 5-40w: 1 (satu) Buah Alat Hisap Shabu (bong) Yang Terbuat Dari Botol Plastik Kecil Yang Di Tutupnya Terdapat 2 (dua) Buah Lubang 1 (satu) Buah Korek Api Gas Berwarna Merah Yang Sudah Dimodifikasi; 1 (satu) Buah Tabung Kaca Yang Di Dalamnya Terdapat Gulungan Tisu Warna Putih 1 (satu) Buah Potongan Pipet Plastik Warna Putih Yang Salah Satu Ujungnya Diruncingkan; 1 (satu) Buah Potongan Pipet Plastik Warna Hitam Yang Salah Satu Ujungnya Diruncingkan 1 (satu) Buah Potongan Pipet Plastik Warna Putih Berbentuk Huruf L 3 (tiga) Buah Potongan Pipet Plastik Warna Putih 1 (satu) Buah Sumbu Dirampas untuk dimusnahkan ; Uang Tunai Sejumlah Rp.275.000,-(dua Ratus Tujuh Puluh Lima Ribu Rupiah 1 (satu) Buah Handphone Merk Iphone 8 Warna Hitam Dengan Cassing Warna Hitam; Dirampas untuk Negara ; 6. Membebankan kepada Terdakwa untuk membayar biaya perkara, sebesar Rp. 2.500,- (dua ribu lima ratus rupiah) ;</t>
+          <t>Menyatakan Terdakwa Rudianto tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak memiliki NarkotikaGolongan I dalam bentuk bukan tanaman, sebagaimanadalam dakwaankedua; Menjatuhkan pidana kepada Terdakwaoleh karena itu dengan pidana penjara selama5 (lima) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliar rupiah), dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapandan penahanan yang telah dijalani oleh Terdakwadikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwatetap ditahan; Menetapkanbarang bukti berupa:  1 (satu) wadah Gatsby warna merah hitam di dalamnya terdapat 1 (satu) buah plastik klip bening berisikan kristal bening Narkotika jenis sabu; 1 (satu) buah pipet plastik yang ujungnya telah diruncingkan dan 2 (dua) buah plastik klip bening kosong; 1 (satu) bendel plastik klip bening kosong; 1 (satu) buah pipet yang ujungnya telah diruncingkan; Dirampas untuk dimusnahkan;  1(satu) unit HP kecil merk Nokia warna hitam; Uang tunai sejumlah Rp.150.000 (seratus lima puluh ribu rupiah); Dirampas untuk negara;  6. Membebankan kepada Terdakwa untuk membayar biaya perkara ini sejumlah Rp2.500,(dua ribu lima ratus rupiah);</t>
         </is>
       </c>
     </row>

--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>nomor</t>
+          <t>No Putusan</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lembaga_peradilan</t>
+          <t>Lembaga Peradilan</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>barang bukti</t>
+          <t>Barang Putusan</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>catatan_amar</t>
+          <t>Amar Putusan</t>
         </is>
       </c>
     </row>

--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Barang Putusan</t>
+          <t>Barang Bukti</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasmin/Documents/TKI/Dataset-Narkotika_075_090/Overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B99D9C-BEB7-E84B-B778-71D4FD5DBBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703E32A-D655-AB4A-969B-0281F0B04037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>: 1 (satu) buah plastic klip bening berisi kristal bening diduga narkotika jenis sabu; - 1 (satu) buah pipa kaca kosong; - 1 (satu) buah bong / alat hisap sabu; - 1 (satu) buah gunting; - 2 (dua) buah korek api gas tanpa tutup kepala Dirampas untuk dimusnahkan; - 1 (satu) unit HP Android merk REALME warna SILVER Dirampas untuk negara</t>
   </si>
   <si>
-    <t>: 1. 1 (satu) buah wadah berbentuk gelas warna hitam yang didalamnya berisi 1 (satu) buah plastik klip bening didalamnya berisi 4 (empat) poket klip bening berisi kristal bening diduga narkotika jenis sabu; 1 (satu) bendel plastik klip bening; 2 (dua) buah pipet kaca; 1 (satu) buah botol plastik merk. Narmada yang pada tutupnya terpasang pipet plastik; 1 (satu) buah klip bening; 1 (satu) buah jarum sumbu; 2 (dua) buah korek api gas tanpa tutu; 1 (satu) buah pipet plastik yang ujungnya diruncingkan; 1 (satu) buah gunting warna hitam; 1 (satu) buah HP lipat merk samsung warna putih Dirampas untuk dimusnahkan; 1 (satu) buah HP android merk. xiomi warna rose gold; 1 (satu) buah HP android merk. Samsung warna warna hitam Dirampas untuk Negara</t>
-  </si>
-  <si>
     <t>: - 1 (satu) dompet warna hitam - 1 (satu) unit ATM BCA dengan nomor 6019 0050 5808 9983; - 1 (satu) unit ATM BCA dengan nomor 6019 0075 8212 0078; - 1 (satu) unit HP Realme warna hijau dark dengan nomor IMEI 1 : 863874067866354 dan IMEI 2 : 863874067866347 dan nomor SIM Card : 081529629109 dan SIM Card 2 : 08176600552; Dirampas untuk dimusnahkan; - Uang tunai Rp.2.900.000,- (dua juta sembilan ratus ribu rupiah); Dirampas untuk Negara;</t>
   </si>
   <si>
@@ -411,15 +408,6 @@
     <t>:  2 (dua) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klip wama bening masing-masing berat bersih 0,005 (nol koma nol nol lima) gram dan 0,007 (nol koma nolnol tujuh) gram yang di ikat menggunakan peniti didalam topi berwama merah yang bertuliskan HARDCORE UNITED";   1 (satu) tas kecil berwarna coklat bertuliskan VOLCOM yang didalamnya berisi: 1 (satu) ATM Bank BCA dengan nomor kartu 6019 0050 5821 2858; 1 (satu) bungkus Kristal putih diduga narkotika jenis shabu yang dibungkus menggunakan plastic klipwama bening dan masih terdapat peniti dengan berat bersih 0,059 (nol koma nol lima puluh sembilan) gram; 1 (satu) plastik klip warna bening kosong; 1 (satu) plastik klip warna bening yang didalamnya terdapat 13 (tiga belas) plastik klip wama bening kosong; Dirampas untuk dimusnahkan ; Uang Tunai sejumlah Rp 400.000,00 (empat ratus ribu rupiah); 1 (satu) HP Android merk VIVO berwarna Biru Metalik yang berisi 1 (satu) sim card TRI dengan nomor 089653998337;  Dirampas untuk negara</t>
   </si>
   <si>
-    <t>:1. 1 (satu) dompet warna biru yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;2. 1 (satu) jaket warna hitam di kantong terdapat:- 1 (satu) dompet kecil warna putih motif bunga yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;Dirampas untuk dimusnahkan; 1 (satu) dompet warna hitam merek Consina yang di dalamnya terdapat uang tunai sejumlah Rp1.300.000,-(satu juta tiga ratus ribu rupiah);Dikembalikan kepada Terdakwa; 1 (satu) unit HP Samsung warna hitam dengan nomor IMEI : 351907102698850 dengan nomor SIM Cardnya : 087730359404; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 356381083391189 dan IMEI 2 : 356382083391187 dengan nomor SIM Cardnya : 081999418103; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 357542061584926 dan IMEI 2 : 357543061584924 dengan nomor SIM Cardnya : 081935932000; Uang sejumlah Rp654.000(enam ratus lima puluh empat ribu rupiah);Dirampas untuk negara</t>
-  </si>
-  <si>
-    <t>: a. 1 (satu) bungkus rokok Surya 12 yang didalamnya terdapat 1 (satu) klip plastic transfaran yang didalamnya berisi 1 (satu) klip plastic didalamnya berisi Kristal beningnarkotika jenis shabu; Dirampas untuk dimusnahkan</t>
-  </si>
-  <si>
-    <t>:1. 1 (satu) paket dari kotak kardus yang dililit lakban warna coklat dengan nomor Resi JD0367049030 atas nama pengirim : Heru, Lubuk Pakam, No. Telp : 081399444142 dan nama penerima : Toko Aki Yona, Jl. Jendral Sudirman Kec. Cakranegara Kota Mataram (simpang empat Sayang ? Sayang), No Telp. 082235314541 yang didalamnya berisi:a. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putuh Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,66 (sembilan sembilan koma enam enam) gram;2. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putih Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,54 (sembilan sembilan koma lima empat) gram;3. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putih Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,41(sembilan sembilan koma empat satu) gram;Jadi berat bersih keseluruhan dari 3 (tiga) bungkus kristal putih Narkotikajenis shabu tersebut seberat 298,61(dua sembilan delapan koma enam satu) gram. Kemudian telah disisihkan untuk pengujian secara laboratorium di Balai Besar Pom Mataram seberat 0,06 (nol koma nol enam) gram dan disisihkan untuk barang bukti dipersidangan sebanyak 0,06 (nol koma nol enam) gram sedangkan sisanya sebanyak 298,49 (dua ratus embilan puluh delapan koma empat sembilan) gram dimusnahkan di Kantor Ditrektorat Reserse Narkoba Polda NTB;b. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing - masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat pil ekstasi:a. seberat 37,60 ( tiga tujuh koma enam nol) gram;b. seberat 36,78 ( tiga enam koma tujuh delapan) gram;c. seberat 37,55 ( tiga tujuh koma lima lima) gram;2) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing-masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat pil ekstasi:a. seberat 37,64 ( tiga tujuh koma enam empat) gram;b. seberat 37,10 ( tiga tujuh koma satu nol) gram;c. seberat 37,50 ( tiga tujuh koma lima nol) gram;3) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing-masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat yang diduga pil ekstasi:a. seberat 37,52 ( tiga tujuh koma lima dua) gram;b. seberat 37,35 ( tiga tujuh koma tiga lima) gram;c. seberat 37,64 ( tiga tujuh koma enam empat) gram;Jadi jumlah berat bersih keseluruhan 9 (sembilan) bungkus plastik transparan yang berisi pil berbentuk segitiga warna coklat yang Narkotikajenis pil ekstasi sejumlah 900 (sembilan ratus) butir seberat 336,68 (tiga tiga enam koma enam delapan) gram. Kemudian disisihkan untuk pengujian secara Laboratorium di Balai Besar Pom Mataram sebanyak 0,36 (nol koma tiga enam) gram dan disisihkan untuk barang bukti dipersidangan sebanyak 0,37 (nol koma tiga tujuh) gram sedangkan sisanya 335,95 (tiga ratus tiga puluh lima koma sembilan lima) gram dimusnahkan di Kantor Ditrektorat Reserse Narkoba Polda NTB;Dirampas untuk dimusnahkan;2. 1 (satu) HP Infinix Note 30 warna biru gelap dengan nomor IMEI 1 : 356785873029140 dan IMEI 2: 356785873029157 dengan nomor simcard Simpati : 082235314541 dan simcar XL : 087815880578;3. 1 (satu) HP OPPO A3S warna hitam dengan nomor IMEI 1 : 862113045804893 dan nomor IMEI 2 : 862113045804885 dengan nomor simcard XL : 087851412427;Dirampas untuk negara</t>
-  </si>
-  <si>
     <t>: 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 2,30 (dua koma tiga nol) gram; 1 (satu) linting yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga Narkotika jenis Ganja dengan berat bruto 0,41 (nol koma empat satu) gram; 1 (satu) buah dompet kulit warna cokelat; 1 (satu) buah box plastik transparan yang didalamnya berisi: 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga narkotika jenis Ganja dengan berat bruto 3,45 (tiga koma empat lima) Gram; 1 (satu) klip plastik bening yang di dalamnya berisi campuran batang, daun dan biji kering yang diduga narkotika jenis Ganja dengan berat bruto 0,95 (nol koma sembilan lima) Gram; 1 (satu) bungkus klip plastik bening merk Nasional; 1 (satu) unit timbangan digital warna silver; 1 (satu) unit timbangan digital warna hitam; 1 (satu) pack paper merk Smoke-Box; 1 (satu) pack paper merk Raw. 1 (satu) buah plastik bening yang berisi 10 (sepuluh) buah daun pisang yang di bentuk kerucut (kojong) yang masing-masing kojong didalamnya berisi jamur (Mushroom) dengan rincian : Kojong pertama dengan berat bruto 9,49 (sembilan koma empat sembilan) gram; Kojong kedua dengan berat bruto 7,79 (tujuh koma tujuh sembilan) gram; Kojong ketiga dengan berat bruto 8,51 (delapan koma lima satu) gram; Kojong keempat dengan berat bruto 7,58 (tujuh koma lima delapan) gram; Kojong kelima dengan berat bruto 7,69 (tujuh koma enam sembilan) gram; Kojong keenam dengan berat bruto 9,13 (sembilan koma satu tiga) gram; Kojong ketujuh dengan berat bruto 9,88 (sembilan koma delapan delapan) gram; Kojong kedelapan dengan berat bruto 7,24 (tujuh koma dua empat) gram; Kojong kesembilan dengan berat bruto 8,49 (delapan koma empat sembilan) gram; Kojong kesepuluh dengan berat bruto 11,16 (sebelas koma satu enam) gram; Dirampas untuk dimusnahkan. 1 (satu) Unit Handphone (hp) merk Iphone 7 warna hitam dengan cassing warna ungu. Uang tunai sejumlah Rp.600.000,- (enam ratus ribu rupiah); Dirampas untuk negara</t>
   </si>
   <si>
@@ -483,19 +471,31 @@
     <t>: Barang bukti yang disita dari ROSIANA PUTRI Alias PUTRI KOCET BINTI AHMAD FIKRI sebagai berikut berupa :  1 (satu) buah pipet plastik bening yang ujungnya diruncingkan yang biasa disebut sekop 1 (satu) bendel plastik klip transparan Merk NASIONAL 1 (satu) buah tas wanita warna putih tulang 1 (satu) buah paper bag warna merah muda dengan motif buah strawberry 1 (satu) buah Handphone iPhone warna biru muda yang didalamnya terdapat simcard dengan nomor 087762944564 dan nomor whatsapp +6282236727080 315 (tiga ratus lima belas) lembar uang, uang tunai sejumlah Rp. 6.962.000,- (enam juta sembilan ratus enam puluh dua ribu rupiah) dengan rincian : 15 lembar pecahan Rp.100.000,- 1 lembar pecahan Rp.75.000,- 68 lembar pecahan Rp.50.000,- 35 lembar pecahan Rp.20.000,- 74 lembar pecahan Rp.10.000,- 102 lembar pecahan Rp.5.000,- 17 lembar pecahan Rp.2.000,- 3 lembar pecahan Rp.1.000,-  10 (sepuluh) buah plastik bening transparan yang didalamnya berisi narkotika Golongan I jenis Metamfetamin atau yang biasa disebut shabu dengan berat bruto keseluruhan 3,998 (tiga koma sembilan sembilan delapan) gram dan setelah dikurangi pembungkusnya didapatkan berat bersih keseluruhan menjadi 1,527 (satu koma lima dua tujuh) gram. Bahwa barang bukti yang disita dari SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN sebagai berikut berupa :  1 (satu) buah Handphone android merk Redmi warna hijau dengan case warna hitam yang didalamnya terdapat simcard dengan nomor 6287763988686 dan 6285180687345 1 (satu) buah Dompet warna hitam 1 (satu) unit Kendaraan Sepeda Motor Honda Beat warna hitam dengan Nopol DR 4400 LT 1 (satu) buah Kartu ATM BCA dengan nomor 6019 0075 9294 3493 16 (enam belas) lembar uang, uang tunai sejumlah Rp.299.000,- (dua ratus sembilan puluh sembilan ribu rupiah) dengan rincian : 5 lembar pecahan Rp.50.000,- 1 lembar pecahan Rp.10.000,- 7 lembar pecahan Rp.5.000,- 1 lembar pecahan Rp.2.000,- 2 lembar pecahan Rp.1.000,- Diserahkan kepada Penuntut Umum sebagai barang bukti dalam perkara atas nama terdakwa SULHAN AMRULLAH Alias SAMSUL Alias BULAT BIN JAMALUDIN. Bahwa barang bukti yang disita dari terdakwa NI NYOMAN HARTINI Alias SRI BINTI SAHRI JUPRI sebagai berikut berupa :  1 (satu) buah Dompet Kulit Merk Levi?s warna coklat Dirampas untuk dimusnahkan.  1 (satu) buah Handphone Nokia warna biru yang didalamnya terdapat simcard dengan nomor 081772856195 1 (satu) buah Handphone android merk Oppo warna hijau muda dengan case warna coklat yang didalamnya terdapat nomor whatsapp +6287715941664 37 (tiga puluh tujuh) lembar uang, uang tunai sejumlah Rp.2.190.000,- (dua juta seratus sembilan puluh ribu rupiah) dengan rincian 8 lembar pecahan Rp.100.000,- 27 lembar pecahan Rp.50.000,- 2 lembar pecahan Rp.20.000,- Dirampas untuk negara</t>
   </si>
   <si>
-    <t>:1) 1 (satu) buah tas slempang warna hijau bertuliskan ?CRUISER? yang didalamnya terdapat:a. 1 (satu) buah bungkus rokok merk ESSE warna biru didalamnya terdapat :1. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 4,57 (empat koma lima tujuh) gram / Netto 4,21 (empat koma dua satu) gram;2. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode B berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 1,87 (satu koma delapan tujuh) gram / Netto 1,42 (satu koma empat dua) gram;b. 1 (satu) buah plastic klip bening berisikan 10 (sepuluh) butir pil diduga narkotika jenis ekstasi dengan rincian sebagai berikut :1. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,36 (nol koma tiga enam) gram, Kode C1;2. 1 (satu) butir pil logo Pinguin warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,25 (nol koma dua lima) gram, Kode C2;3. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,39 (nol koma tiga sembilan) gram, Kode C3;4. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,38 (nol koma tiga delapan) gram, Kode C4;5. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C5;6. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C6;7. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C7;8. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C8;9. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,32 (nol koma tiga dua) gram, Kode C9;10. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,34 (nol koma tiga empat) gram, Kode C10;2) 1 (satu) buah buku kecil catatan penjualan.Dirampas untuk dimusnahkan.1) 1 (satu) unit HP Android merk SAMSUNG warna Hitam;2) Uang Tunai sejumlah Rp 800.000,- (delapan ratus ribu rupiah);Dirampas untuk Negara</t>
-  </si>
-  <si>
-    <t>:1. 1 (satu) timbangan elektrik warna silver merk HARNIC;2. 1 (satu) korek api gas;3. 1 (satu) unit HP NOKIA warna Hitam dengan nomor IMEI 357907042891692 dengan Nomor SIM Card 087847425892;4. 1 (satu) bong;5. 1 (satu) gunting;6. 1 (satu) korek api gas;7. 1 (satu) potongan bamboo;8. 1 (satu) unit HP REALME warna Biru dengan nomor IMEI 1 : 866066041391172 dan IMEI 2 : 866066041391164 dengan Nomor SIM Card 087847491673;9. 1 (satu) kantong kain warna hitam yang didalamnya terdapat :- 16 (enam belas) plastik klip putih transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan;- 1 (satu) potongan pipet plastik warna putih garis merah;- 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;10. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan;11. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan;12. Uang tunai sebesar Rp 550.000 (lima ratus lima puluh ribu rupiah);13. 1 (satu) silet;14. 3 (tiga) bong;15. 4 (empat) korek api gas;16. 2 (dua) isolasi bening;17. 3 (tiga) potongan pipet plastik putih transparan;18. 2 (dua) bungkus plastik klip putih transparan;19. 3 (tiga) plastik klip putih transparan;20. 1 (satu) pipet kaca;21. 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;22. 4 (empat) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan ;23. 1 (satu) unit HP SAMSUNG warna Biru dengan nomor IMEI 1 : 355203101577964 dan IMEI 2 : 355204101577962 dengan Nomor SIM Card 081775700275 ;24. 1 (satu) bungkus plastik klip putih transparan ;25. 5 (lima) plastik klip putih transparan ;26. 1 (satu) tas ransel warna biru ;27. 1 (satu) bungkus plastik klip putih transparan ;28. 1 (satu) tutup botol plastik warna biru yang telah terangkai dengan potongan pipet plastik warna putih garis merah ;29. 1 (satu) potongan pipet plastik warna putih garis merah ;30. 1 (satu) kotak aluminium ;31. 1 (satu) tisu ;32. 3 (tiga) plastik klip putih transparan ;33. 1 (satu) potongan pipet plastik warna putih garis merah ;34. 1 (satu) sweter warna abu ;35. 1 (satu) bungkus kristal putih narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan ; Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Purwadi bin Mastar Als Pur;</t>
-  </si>
-  <si>
-    <t>:1) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,168 (nol koma enam delapan ) Gram ;2) 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,288 (nol dua delapan delapan) gram ;3) Uang tunai sebesar Rp.5.50.000,- (lima ratus lima puluh ribu rupiah) ;4) 1 (satu) silet ;5) 3 (tiga) Bong ;6) 4 (empat) korek api gas ;7) 2 (dua) isolasi bening ;8) 3 (tiga) bungkus plastik klip putih transparan ;9) 2 (dua) bungkus plastik putih transparan ;10) 3 (tiga) plastik klip putih transparan ;11) 1 (satu) pipet kaca ;12) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan ;13) 4 (empat) plastik klip putih transparan bekas shabu disimpan di dalam plastik klip putih transparan ;14) 1 (satu) unit HP.SAMSUNG Warna biru dengan Nomor :IMEI.1.35503101577964 dan IMEI 2.355204101577962 dengan Nomor SIM CAR 081775700275 ;15) 1 (satu) bungkus Kristal putih yang diduga Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih dengan berat bersih 6,553 (enam koma lima lima tiga) Gram ;16) 1 (satu) timbangan Elekterik warna silver merk HARNIC ;17) 1 (satu) korek api Gas ;18) 1 (satu) unit HP.NOKIA warna hitam dengan Nomor IMEI 357907042891692 dengan Nomor SIM CARD 087847425892 ;19) 1 (satu) tas ransel warna biru yang didalamnya terdapat :- 1 (satu) bungkus plastik klip putih teransparan ;- 1 (satu) tutup botol plastic warna biru yang telah dirangkai dengan potongan pipet plastik warna putih garis merah ;20) 1 (satu) tissue ;21) 3 (tiga) plastik klip putih transparan ;22) 1 (satu) potongan pipet plastik warna putih garis merah ;23) 1 (satu) sweter warna abu ;24) 1 (satu) bong ;25) 1 (satu) gunting ;26) 1 (satu) korek api Gas ;27) 1 (satu) potongan bambu;28) 1 (satu) unit HP REALME warna biru dengan Nomor IMEI 1 866041391172 dan IMEI 2 2866066041391164 dengan Nomor Sim Card 087847491673;29) 1 (satu) kantong kain warna hitam yang di dalamnya terdapat :- 16 (enam belas) plastic klip transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan ;- 1 (satu) potongan pipet plastik warna putih garis merah ;30) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan. ;Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Herman Bin (Alm) Muksin Alias Ucok</t>
-  </si>
-  <si>
     <t>: 1 (satu) dompet warna coklat yang didalamnya terdapat : 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,36 (nol koma tiga enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,86 (nol koma delapan enam) gram, 1 (satu) klip transparan yang didalamnya terdapat kristal putih diduga narkotika jenis shabu dengan berat bersih 0,87 (nol koma delapan tujuh) gram dengan jumlah berat bersih keseluruhan 3 (tiga) plastik klip yang didalamnya terdapat kristal putih diduga narkotika jenis shabu adalah 2,09 (dua koma nol sembilan) gram, 1 (satu) klip transparan yang didalamnya terdapat 28 (dua puluh tujuh) klip dalam keadaan kosong, 1 (satu) pipet warna hijau bergaris putih berbentuk sekop, 1 (satu) pipet warna bening berbentuk sekop dirampas untuk dimusnahkan Uang sejumlah Rp.700.000 (tujuh ratus ribu rupiah), 1 (satu) HP merk Redmi 4a dengan nomor IMEI 1 : 865407038708724 dan IMEI 2 865407038708732 dengan nomor simcard XL 085974178479, 1 (satu) HP Merk NOKIA 105 warna hitam dengan Nomor IMEI 358562082238945 tanpa Simcard dan 1 (satu) HP Nokia C3 Warna hitam dengan Nomor IMEI 354844046800085 dengan nomr Simcard AXIS 083835363003 dirampas untuk negara.</t>
   </si>
   <si>
     <t>:  1 (satu) wadah Gatsby warna merah hitam di dalamnya terdapat 1 (satu) buah plastik klip bening berisikan kristal bening Narkotika jenis sabu; 1 (satu) buah pipet plastik yang ujungnya telah diruncingkan dan 2 (dua) buah plastik klip bening kosong; 1 (satu) bendel plastik klip bening kosong; 1 (satu) buah pipet yang ujungnya telah diruncingkan; Dirampas untuk dimusnahkan;  1(satu) unit HP kecil merk Nokia warna hitam; Uang tunai sejumlah Rp.150.000 (seratus lima puluh ribu rupiah); Dirampas untuk negara;</t>
+  </si>
+  <si>
+    <t>: 1. (satu) buah wadah berbentuk gelas warna hitam yang didalamnya berisi 1 (satu) buah plastik klip bening didalamnya berisi 4 (empat) poket klip bening berisi kristal bening diduga narkotika jenis sabu; 1 (satu) bendel plastik klip bening; 2 (dua) buah pipet kaca; 1 (satu) buah botol plastik merk. Narmada yang pada tutupnya terpasang pipet plastik; 1 (satu) buah klip bening; 1 (satu) buah jarum sumbu; 2 (dua) buah korek api gas tanpa tutu; 1 (satu) buah pipet plastik yang ujungnya diruncingkan; 1 (satu) buah gunting warna hitam; 1 (satu) buah HP lipat merk samsung warna putih Dirampas untuk dimusnahkan; 1 (satu) buah HP android merk. xiomi warna rose gold; 1 (satu) buah HP android merk. Samsung warna warna hitam Dirampas untuk Negara</t>
+  </si>
+  <si>
+    <t>:1 (satu) dompet warna biru yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;2. 1 (satu) jaket warna hitam di kantong terdapat:- 1 (satu) dompet kecil warna putih motif bunga yang di dalamnya terdapat:- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 2 (dua) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;- 1 (satu) bungkus plastik putih transparan yang di dalamnya terdapat 1 (satu) poket kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan;Dirampas untuk dimusnahkan; 1 (satu) dompet warna hitam merek Consina yang di dalamnya terdapat uang tunai sejumlah Rp1.300.000,-(satu juta tiga ratus ribu rupiah);Dikembalikan kepada Terdakwa; 1 (satu) unit HP Samsung warna hitam dengan nomor IMEI : 351907102698850 dengan nomor SIM Cardnya : 087730359404; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 356381083391189 dan IMEI 2 : 356382083391187 dengan nomor SIM Cardnya : 081999418103; 1 (satu) unit HP Samsung warna putih dengan nomor IMEI 1 : 357542061584926 dan IMEI 2 : 357543061584924 dengan nomor SIM Cardnya : 081935932000; Uang sejumlah Rp654.000(enam ratus lima puluh empat ribu rupiah);Dirampas untuk negara</t>
+  </si>
+  <si>
+    <t>: 1 (satu) bungkus rokok Surya 12 yang didalamnya terdapat 1 (satu) klip plastic transfaran yang didalamnya berisi 1 (satu) klip plastic didalamnya berisi Kristal beningnarkotika jenis shabu; Dirampas untuk dimusnahkan</t>
+  </si>
+  <si>
+    <t>: 1 (satu) paket dari kotak kardus yang dililit lakban warna coklat dengan nomor Resi JD0367049030 atas nama pengirim : Heru, Lubuk Pakam, No. Telp : 081399444142 dan nama penerima : Toko Aki Yona, Jl. Jendral Sudirman Kec. Cakranegara Kota Mataram (simpang empat Sayang ? Sayang), No Telp. 082235314541 yang didalamnya berisi:a. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putuh Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,66 (sembilan sembilan koma enam enam) gram;2. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putih Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,54 (sembilan sembilan koma lima empat) gram;3. Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi bungkusan kristal putih Narkotikajenis shabu setelah ditimbang dengan berat bersih seberat 99,41(sembilan sembilan koma empat satu) gram;Jadi berat bersih keseluruhan dari 3 (tiga) bungkus kristal putih Narkotikajenis shabu tersebut seberat 298,61(dua sembilan delapan koma enam satu) gram. Kemudian telah disisihkan untuk pengujian secara laboratorium di Balai Besar Pom Mataram seberat 0,06 (nol koma nol enam) gram dan disisihkan untuk barang bukti dipersidangan sebanyak 0,06 (nol koma nol enam) gram sedangkan sisanya sebanyak 298,49 (dua ratus embilan puluh delapan koma empat sembilan) gram dimusnahkan di Kantor Ditrektorat Reserse Narkoba Polda NTB;b. 3 (tiga) bungkus kopi bubuk cap jembatan yang didalamnya berisi:1) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing - masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat pil ekstasi:a. seberat 37,60 ( tiga tujuh koma enam nol) gram;b. seberat 36,78 ( tiga enam koma tujuh delapan) gram;c. seberat 37,55 ( tiga tujuh koma lima lima) gram;2) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing-masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat pil ekstasi:a. seberat 37,64 ( tiga tujuh koma enam empat) gram;b. seberat 37,10 ( tiga tujuh koma satu nol) gram;c. seberat 37,50 ( tiga tujuh koma lima nol) gram;3) Kertas putih yang dibungkus dengan plastik hitam kemudian dililit dengan lakban warna coklat yang didalamnya berisi 3 (tiga) bungkus plastik transparan yang masing ? masing berisi 100 (seratus) butir pil berbentuk segitiga warna coklat Narkotikajenis pil ekstasi setelah ditimbang dengan berat bersih masing-masing dari 100 (seratus) butir pil berbentuk segitiga warna coklat yang diduga pil ekstasi:a. seberat 37,52 ( tiga tujuh koma lima dua) gram;b. seberat 37,35 ( tiga tujuh koma tiga lima) gram;c. seberat 37,64 ( tiga tujuh koma enam empat) gram;Jadi jumlah berat bersih keseluruhan 9 (sembilan) bungkus plastik transparan yang berisi pil berbentuk segitiga warna coklat yang Narkotikajenis pil ekstasi sejumlah 900 (sembilan ratus) butir seberat 336,68 (tiga tiga enam koma enam delapan) gram. Kemudian disisihkan untuk pengujian secara Laboratorium di Balai Besar Pom Mataram sebanyak 0,36 (nol koma tiga enam) gram dan disisihkan untuk barang bukti dipersidangan sebanyak 0,37 (nol koma tiga tujuh) gram sedangkan sisanya 335,95 (tiga ratus tiga puluh lima koma sembilan lima) gram dimusnahkan di Kantor Ditrektorat Reserse Narkoba Polda NTB;Dirampas untuk dimusnahkan;. 1 (satu) HP Infinix Note 30 warna biru gelap dengan nomor IMEI 1 : 356785873029140 dan IMEI 2: 356785873029157 dengan nomor simcard Simpati : 082235314541 dan simcar XL : 087815880578;3. 1 (satu) HP OPPO A3S warna hitam dengan nomor IMEI 1 : 862113045804893 dan nomor IMEI 2 : 862113045804885 dengan nomor simcard XL : 087851412427;Dirampas untuk negara</t>
+  </si>
+  <si>
+    <t>1 (satu) buah tas slempang warna hijau bertuliskan ?CRUISER? yang didalamnya terdapat:a. 1 (satu) buah bungkus rokok merk ESSE warna biru didalamnya terdapat :1. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode A berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 4,57 (empat koma lima tujuh) gram / Netto 4,21 (empat koma dua satu) gram;2. 1 (satu) buah plastic klip bening berisi 1 (satu) buah plastic klip bening Kode B berisi kristal bening diduga narkotika jenis sabu dengan berat Brutto 1,87 (satu koma delapan tujuh) gram / Netto 1,42 (satu koma empat dua) gram;b. 1 (satu) buah plastic klip bening berisikan 10 (sepuluh) butir pil diduga narkotika jenis ekstasi dengan rincian sebagai berikut :1. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,36 (nol koma tiga enam) gram, Kode C1;2. 1 (satu) butir pil logo Pinguin warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,25 (nol koma dua lima) gram, Kode C2;3. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,39 (nol koma tiga sembilan) gram, Kode C3;4. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,38 (nol koma tiga delapan) gram, Kode C4;5. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C5;6. 1 (satu) butir pil logo Ferari warna cokelat diduga narkotika jenis ekstasi dengan berat Netto 0,37 (nol koma tiga tujuh) gram, Kode C6;7. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C7;8. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,33 (nol koma tiga tiga) gram, Kode C8;9. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,32 (nol koma tiga dua) gram, Kode C9;10. 1 (satu) butir pil logo Rolex warna biru diduga narkotika jenis ekstasi dengan berat Netto 0,34 (nol koma tiga empat) gram, Kode C10;2) 1 (satu) buah buku kecil catatan penjualan.Dirampas untuk dimusnahkan.1) 1 (satu) unit HP Android merk SAMSUNG warna Hitam;2) Uang Tunai sejumlah Rp 800.000,- (delapan ratus ribu rupiah);Dirampas untuk Negara</t>
+  </si>
+  <si>
+    <t>:1 (satu) timbangan elektrik warna silver merk HARNIC; 1 (satu) korek api gas; 1 (satu) unit HP NOKIA warna Hitam dengan nomor IMEI 357907042891692 dengan Nomor SIM Card 087847425892; 1 (satu) bong;1 (satu) gunting; 1 (satu) korek api gas; 1 (satu) potongan bamboo; 1 (satu) unit HP REALME warna Biru dengan nomor IMEI 1 : 866066041391172 dan IMEI 2 : 866066041391164 dengan Nomor SIM Card 087847491673;9. 1 (satu) kantong kain warna hitam yang didalamnya terdapat :- 16 (enam belas) plastik klip putih transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan;- 1 (satu) potongan pipet plastik warna putih garis merah;- 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan;10. 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan; 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket kristal putih yang diduga narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan; Uang tunai sebesar Rp 550.000 (lima ratus lima puluh ribu rupiah); 1 (satu) silet; 3 (tiga) bong; 4 (empat) korek api gas; 2 (dua) isolasi bening; 3 (tiga) potongan pipet plastik putih transparan; 2 (dua) bungkus plastik klip putih transparan; 3 (tiga) plastik klip putih transparan; 1 (satu) pipet kaca;. 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan; 4 (empat) plastik klip putih transparan bekas poketan shabu yang disimpan didalam plastik klip putih transparan ;1 (satu) unit HP SAMSUNG warna Biru dengan nomor IMEI 1 : 355203101577964 dan IMEI 2 : 355204101577962 dengan Nomor SIM Card 081775700275 ; 1 (satu) bungkus plastik klip putih transparan ; 5 (lima) plastik klip putih transparan ; 1 (satu) tas ransel warna biru ; 1 (satu) bungkus plastik klip putih transparan ; 1 (satu) tutup botol plastik warna biru yang telah terangkai dengan potongan pipet plastik warna putih garis merah ; 1 (satu) potongan pipet plastik warna putih garis merah ; 1 (satu) kotak aluminium ; 1 (satu) tisu ; 3 (tiga) plastik klip putih transparan ; 1 (satu) potongan pipet plastik warna putih garis merah ; 1 (satu) sweter warna abu ; 1 (satu) bungkus kristal putih narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih transparan ; Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Purwadi bin Mastar Als Pur;</t>
+  </si>
+  <si>
+    <t>:1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 3 (tiga) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,168 (nol koma enam delapan ) Gram ; 1 (satu) bungkus plastik klip putih transparan yang didalamnya terdapat 7 (tujuh) poket Kristal putih Narkotika jenis shabu yang dibungkus dengan menggunakan plastik klip putih transparan dengan berat bersih keseluruhan 0,288 (nol dua delapan delapan) gram ;Uang tunai sebesar Rp.5.50.000,- (lima ratus lima puluh ribu rupiah) ;1 (satu) silet ; 3 (tiga) Bong ; 4 (empat) korek api gas ; 2 (dua) isolasi bening ; 3 (tiga) bungkus plastik klip putih transparan ;9) 2 (dua) bungkus plastik putih transparan ;10) 3 (tiga) plastik klip putih transparan ;11) 1 (satu) pipet kaca ;12) 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan ; 4 (empat) plastik klip putih transparan bekas shabu disimpan di dalam plastik klip putih transparan ; 1 (satu) unit HP.SAMSUNG Warna biru dengan Nomor :IMEI.1.35503101577964 dan IMEI 2.355204101577962 dengan Nomor SIM CAR 081775700275 ; 1 (satu) bungkus Kristal putih yang diduga Narkotika jenis shabu yang dibungkus dengan menggunakan plastik putih dengan berat bersih 6,553 (enam koma lima lima tiga) Gram ; 1 (satu) timbangan Elekterik warna silver merk HARNIC ; 1 (satu) korek api Gas ; 1 (satu) unit HP.NOKIA warna hitam dengan Nomor IMEI 357907042891692 dengan Nomor SIM CARD 087847425892 ; 1 (satu) tas ransel warna biru yang didalamnya terdapat :- 1 (satu) bungkus plastik klip putih teransparan ;- 1 (satu) tutup botol plastic warna biru yang telah dirangkai dengan potongan pipet plastik warna putih garis merah ; 1 (satu) tissue ; 3 (tiga) plastik klip putih transparan ; 1 (satu) potongan pipet plastik warna putih garis merah ; 1 (satu) sweter warna abu 1 (satu) bong ;) 1 (satu) gunting ; 1 (satu) korek api Gas ; 1 (satu) potongan bambu; 1 (satu) unit HP REALME warna biru dengan Nomor IMEI 1 866041391172 dan IMEI 2 2866066041391164 dengan Nomor Sim Card 087847491673; 1 (satu) kantong kain warna hitam yang di dalamnya terdapat :- 16 (enam belas) plastic klip transparan bekas poketan shabu;- 4 (empat) plastik klip putih transparan ;- 1 (satu) potongan pipet plastik warna putih garis merah ; 1 (satu) plastik klip putih transparan bekas poketan shabu yang disimpan di dalam plastik klip putih transparan. ;Dikembalikan kepada Penuntut Umum untuk dijadikan barang bukti dalam perkara Herman Bin (Alm) Muksin Alias Ucok</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -863,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -954,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -968,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1038,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="176" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -1150,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
@@ -1164,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>45</v>
@@ -1178,13 +1179,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1192,13 +1193,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1206,13 +1207,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="176" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1220,13 +1221,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1234,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="176" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1248,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1262,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>61</v>
@@ -1290,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -1304,13 +1305,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>70</v>
@@ -1360,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>74</v>
@@ -1374,13 +1375,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>81</v>
@@ -1416,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>83</v>
@@ -1430,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>85</v>
@@ -1444,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>87</v>
@@ -1458,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>89</v>
@@ -1472,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>91</v>
@@ -1486,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>93</v>
@@ -1500,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>95</v>
@@ -1514,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>97</v>
@@ -1528,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>99</v>
@@ -1542,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>101</v>
@@ -1556,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>103</v>
@@ -1570,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>105</v>
@@ -1584,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>107</v>
